--- a/Teleologies/Formal Modeling/changeLog.xlsx
+++ b/Teleologies/Formal Modeling/changeLog.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="203">
   <si>
     <t>Cased Word Lemma</t>
   </si>
@@ -172,6 +172,456 @@
   </si>
   <si>
     <t>Live performance that is devoted to the public exposition of a work of art, music or literature including exhibitions, concerts, plays and other theatrical performances.</t>
+  </si>
+  <si>
+    <t>SocialEvent</t>
+  </si>
+  <si>
+    <t>-7</t>
+  </si>
+  <si>
+    <t>Planned event involving groups of people, generally arranged and advertised by an organization.</t>
+  </si>
+  <si>
+    <t>CreativeWork</t>
+  </si>
+  <si>
+    <t>16921</t>
+  </si>
+  <si>
+    <t>an artifact that has been brought into existence by someone</t>
+  </si>
+  <si>
+    <t>AdministrativeArea</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>Territorial units with some government functions and powers, whose jurisdiction covers the area inside their borders.</t>
+  </si>
+  <si>
+    <t>120019</t>
+  </si>
+  <si>
+    <t>function kind</t>
+  </si>
+  <si>
+    <t>tour</t>
+  </si>
+  <si>
+    <t>39183</t>
+  </si>
+  <si>
+    <t>an exciting or stimulating experience</t>
+  </si>
+  <si>
+    <t>ArchitecturalBarriers</t>
+  </si>
+  <si>
+    <t>-9</t>
+  </si>
+  <si>
+    <t>Physical features that limit or prevent people with disabilities from obtaining the goods or services that are offered.</t>
+  </si>
+  <si>
+    <t>120018</t>
+  </si>
+  <si>
+    <t>action kind</t>
+  </si>
+  <si>
+    <t>has_holder</t>
+  </si>
+  <si>
+    <t>54585</t>
+  </si>
+  <si>
+    <t>the person who is in possession of a check or note or bond or document of title that is endorsed to him or to whoever holds it</t>
+  </si>
+  <si>
+    <t>has_event</t>
+  </si>
+  <si>
+    <t>something that happens at a given place and time</t>
+  </si>
+  <si>
+    <t>has_sold</t>
+  </si>
+  <si>
+    <t>113911</t>
+  </si>
+  <si>
+    <t>be responsible for the sale of</t>
+  </si>
+  <si>
+    <t>has_visualReferences</t>
+  </si>
+  <si>
+    <t>39009</t>
+  </si>
+  <si>
+    <t>an indicator that orients you generally</t>
+  </si>
+  <si>
+    <t>has_record</t>
+  </si>
+  <si>
+    <t>14592</t>
+  </si>
+  <si>
+    <t>a depository containing historical records and documents</t>
+  </si>
+  <si>
+    <t>has_team</t>
+  </si>
+  <si>
+    <t>44378</t>
+  </si>
+  <si>
+    <t>a cooperative unit</t>
+  </si>
+  <si>
+    <t>has_memory</t>
+  </si>
+  <si>
+    <t>35630</t>
+  </si>
+  <si>
+    <t>anything (such as a document or a phonograph record or a photograph) providing permanent evidence of or information about past events</t>
+  </si>
+  <si>
+    <t>has_administrator</t>
+  </si>
+  <si>
+    <t>54097</t>
+  </si>
+  <si>
+    <t>a person who exercises control and makes decisions</t>
+  </si>
+  <si>
+    <t>has_logo</t>
+  </si>
+  <si>
+    <t>39095</t>
+  </si>
+  <si>
+    <t>a company emblem or device</t>
+  </si>
+  <si>
+    <t>has_finalProduct</t>
+  </si>
+  <si>
+    <t>22086</t>
+  </si>
+  <si>
+    <t>an artifact that has been created by someone or some process</t>
+  </si>
+  <si>
+    <t>has_organization</t>
+  </si>
+  <si>
+    <t>43544</t>
+  </si>
+  <si>
+    <t>a group of people who work together</t>
+  </si>
+  <si>
+    <t>has_show</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>an artistic production offered to an audience.</t>
+  </si>
+  <si>
+    <t>creation</t>
+  </si>
+  <si>
+    <t>has_tourStart</t>
+  </si>
+  <si>
+    <t>-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precise departure location. </t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>has_ranking</t>
+  </si>
+  <si>
+    <t>has_administrate</t>
+  </si>
+  <si>
+    <t>112384</t>
+  </si>
+  <si>
+    <t>work in an administrative capacity; supervise</t>
+  </si>
+  <si>
+    <t>has_producer</t>
+  </si>
+  <si>
+    <t>55257</t>
+  </si>
+  <si>
+    <t>someone who manufactures something</t>
+  </si>
+  <si>
+    <t>has_speaker</t>
+  </si>
+  <si>
+    <t>-12</t>
+  </si>
+  <si>
+    <t>A Person who delivers a formal speech to an audience</t>
+  </si>
+  <si>
+    <t>57205</t>
+  </si>
+  <si>
+    <t>speaker</t>
+  </si>
+  <si>
+    <t>has_architecturalBarriers</t>
+  </si>
+  <si>
+    <t>300008</t>
+  </si>
+  <si>
+    <t>has_performer</t>
+  </si>
+  <si>
+    <t>55991</t>
+  </si>
+  <si>
+    <t>an entertainer who performs a dramatic or musical work for an audience</t>
+  </si>
+  <si>
+    <t>has_sponsored</t>
+  </si>
+  <si>
+    <t>111351</t>
+  </si>
+  <si>
+    <t>assume sponsorship of</t>
+  </si>
+  <si>
+    <t>has_university</t>
+  </si>
+  <si>
+    <t>117898</t>
+  </si>
+  <si>
+    <t>an institution for higher learning with teaching and research facilities constituting a graduate school and professional schools that award master's degrees and doctorates and an undergraduate division that awards bachelor's degrees</t>
+  </si>
+  <si>
+    <t>has_contactPoint</t>
+  </si>
+  <si>
+    <t>300004</t>
+  </si>
+  <si>
+    <t>has_tourEnd</t>
+  </si>
+  <si>
+    <t>46122</t>
+  </si>
+  <si>
+    <t>the place designated as the end (as of a race or journey)</t>
+  </si>
+  <si>
+    <t>has_artist</t>
+  </si>
+  <si>
+    <t>52388</t>
+  </si>
+  <si>
+    <t>a person whose creative work shows sensitivity and imagination</t>
+  </si>
+  <si>
+    <t>has_virtualLocation</t>
+  </si>
+  <si>
+    <t>300002</t>
+  </si>
+  <si>
+    <t>has_organizer</t>
+  </si>
+  <si>
+    <t>103826</t>
+  </si>
+  <si>
+    <t>plan and direct  (a complex undertaking)</t>
+  </si>
+  <si>
+    <t>has_review</t>
+  </si>
+  <si>
+    <t>make or write a comment on</t>
+  </si>
+  <si>
+    <t>has_headquarter</t>
+  </si>
+  <si>
+    <t>19132</t>
+  </si>
+  <si>
+    <t>(usually plural) the office that serves as the administrative center of an enterprise</t>
+  </si>
+  <si>
+    <t>has_tourIntermediateStops</t>
+  </si>
+  <si>
+    <t>46571</t>
+  </si>
+  <si>
+    <t>a spot where something halts or pauses</t>
+  </si>
+  <si>
+    <t>has_venue</t>
+  </si>
+  <si>
+    <t>46653</t>
+  </si>
+  <si>
+    <t>the scene of any event or action (especially the place of a meeting)</t>
+  </si>
+  <si>
+    <t>has_tutor</t>
+  </si>
+  <si>
+    <t>104369</t>
+  </si>
+  <si>
+    <t>be a tutor to someone; give individual instruction</t>
+  </si>
+  <si>
+    <t>has_ticketID</t>
+  </si>
+  <si>
+    <t>39085</t>
+  </si>
+  <si>
+    <t>a symbol that establishes the identity of the one bearing it</t>
+  </si>
+  <si>
+    <t>has_recurrency</t>
+  </si>
+  <si>
+    <t>85054</t>
+  </si>
+  <si>
+    <t>recurring again and again</t>
+  </si>
+  <si>
+    <t>has_price</t>
+  </si>
+  <si>
+    <t>70571</t>
+  </si>
+  <si>
+    <t>the amount of money needed to purchase something</t>
+  </si>
+  <si>
+    <t>has_currency</t>
+  </si>
+  <si>
+    <t>71038</t>
+  </si>
+  <si>
+    <t>the metal or paper medium of exchange that is presently used</t>
+  </si>
+  <si>
+    <t>has_title</t>
+  </si>
+  <si>
+    <t>34045</t>
+  </si>
+  <si>
+    <t>the name of a work of art or literary composition etc.</t>
+  </si>
+  <si>
+    <t>has_elevation</t>
+  </si>
+  <si>
+    <t>28272</t>
+  </si>
+  <si>
+    <t>elevation especially above sea level or above the earth's surface</t>
+  </si>
+  <si>
+    <t>has_terminated</t>
+  </si>
+  <si>
+    <t>87317</t>
+  </si>
+  <si>
+    <t>ended or brought to an end</t>
+  </si>
+  <si>
+    <t>has_ticketStatus</t>
+  </si>
+  <si>
+    <t>74023</t>
+  </si>
+  <si>
+    <t>a state at a particular time</t>
+  </si>
+  <si>
+    <t>has_degree</t>
+  </si>
+  <si>
+    <t>35898</t>
+  </si>
+  <si>
+    <t>an award conferred by a college or university signifying that the recipient has satisfactorily completed a course of study</t>
+  </si>
+  <si>
+    <t>has_capacity</t>
+  </si>
+  <si>
+    <t>73259</t>
+  </si>
+  <si>
+    <t>the amount that can be contained</t>
+  </si>
+  <si>
+    <t>has_cuisine</t>
+  </si>
+  <si>
+    <t>40725</t>
+  </si>
+  <si>
+    <t>the practice or manner of preparing food or the food so prepared</t>
+  </si>
+  <si>
+    <t>has_dimensions</t>
+  </si>
+  <si>
+    <t>28082</t>
+  </si>
+  <si>
+    <t>the magnitude of something in a particular direction (especially length or width or height)</t>
+  </si>
+  <si>
+    <t>has_description</t>
+  </si>
+  <si>
+    <t>38695</t>
+  </si>
+  <si>
+    <t>the act of describing something</t>
+  </si>
+  <si>
+    <t>has_eventID</t>
   </si>
 </sst>
 </file>
@@ -247,13 +697,181 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
       <alignment wrapText="true"/>
@@ -300,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -674,6 +1292,2206 @@
         <v>27</v>
       </c>
     </row>
+    <row r="9" ht="20.0" customHeight="true">
+      <c r="A9" t="s" s="16">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s" s="16">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s" s="16">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s" s="16">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s" s="16">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s" s="16">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s" s="16">
+        <v>27</v>
+      </c>
+      <c r="M9" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="N9" t="s" s="16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" ht="20.0" customHeight="true">
+      <c r="A10" t="s" s="18">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s" s="18">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s" s="18">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s" s="18">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s" s="18">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s" s="18">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s" s="18">
+        <v>58</v>
+      </c>
+      <c r="H10" t="s" s="18">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s" s="18">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s" s="18">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s" s="18">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s" s="18">
+        <v>27</v>
+      </c>
+      <c r="M10" t="s" s="18">
+        <v>20</v>
+      </c>
+      <c r="N10" t="s" s="18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" ht="20.0" customHeight="true">
+      <c r="A11" t="s" s="19">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s" s="19">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s" s="19">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s" s="19">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s" s="19">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s" s="19">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s" s="19">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="L11" t="s" s="19">
+        <v>27</v>
+      </c>
+      <c r="M11" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="N11" t="s" s="19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" ht="20.0" customHeight="true">
+      <c r="A12" t="s" s="21">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s" s="21">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s" s="21">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s" s="21">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s" s="21">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s" s="21">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s" s="21">
+        <v>66</v>
+      </c>
+      <c r="H12" t="s" s="21">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s" s="21">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s" s="21">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s" s="21">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s" s="21">
+        <v>27</v>
+      </c>
+      <c r="M12" t="s" s="21">
+        <v>20</v>
+      </c>
+      <c r="N12" t="s" s="21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" ht="20.0" customHeight="true">
+      <c r="A13" t="s" s="22">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s" s="22">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s" s="22">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s" s="22">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s" s="22">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s" s="22">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s" s="22">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s" s="22">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s" s="22">
+        <v>20</v>
+      </c>
+      <c r="L13" t="s" s="22">
+        <v>27</v>
+      </c>
+      <c r="M13" t="s" s="22">
+        <v>20</v>
+      </c>
+      <c r="N13" t="s" s="22">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" ht="20.0" customHeight="true">
+      <c r="A14" t="s" s="24">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s" s="24">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s" s="24">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s" s="24">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s" s="24">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s" s="24">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s" s="24">
+        <v>74</v>
+      </c>
+      <c r="H14" t="s" s="24">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s" s="24">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s" s="24">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s" s="24">
+        <v>20</v>
+      </c>
+      <c r="L14" t="s" s="24">
+        <v>27</v>
+      </c>
+      <c r="M14" t="s" s="24">
+        <v>20</v>
+      </c>
+      <c r="N14" t="s" s="24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" ht="20.0" customHeight="true">
+      <c r="A15" t="s" s="25">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s" s="25">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s" s="25">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s" s="25">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s" s="25">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s" s="25">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s" s="25">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s" s="25">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s" s="25">
+        <v>26</v>
+      </c>
+      <c r="J15" t="s" s="25">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s" s="25">
+        <v>20</v>
+      </c>
+      <c r="L15" t="s" s="25">
+        <v>27</v>
+      </c>
+      <c r="M15" t="s" s="25">
+        <v>20</v>
+      </c>
+      <c r="N15" t="s" s="25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" ht="20.0" customHeight="true">
+      <c r="A16" t="s" s="26">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s" s="26">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s" s="26">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s" s="26">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="J16" t="s" s="26">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s" s="26">
+        <v>20</v>
+      </c>
+      <c r="L16" t="s" s="26">
+        <v>27</v>
+      </c>
+      <c r="M16" t="s" s="26">
+        <v>20</v>
+      </c>
+      <c r="N16" t="s" s="26">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" ht="20.0" customHeight="true">
+      <c r="A17" t="s" s="27">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s" s="27">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s" s="27">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s" s="27">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s" s="27">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s" s="27">
+        <v>82</v>
+      </c>
+      <c r="H17" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s" s="27">
+        <v>26</v>
+      </c>
+      <c r="J17" t="s" s="27">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s" s="27">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s" s="27">
+        <v>27</v>
+      </c>
+      <c r="M17" t="s" s="27">
+        <v>20</v>
+      </c>
+      <c r="N17" t="s" s="27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" ht="20.0" customHeight="true">
+      <c r="A18" t="s" s="28">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s" s="28">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s" s="28">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s" s="28">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s" s="28">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s" s="28">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s" s="28">
+        <v>85</v>
+      </c>
+      <c r="H18" t="s" s="28">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s" s="28">
+        <v>26</v>
+      </c>
+      <c r="J18" t="s" s="28">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s" s="28">
+        <v>20</v>
+      </c>
+      <c r="L18" t="s" s="28">
+        <v>27</v>
+      </c>
+      <c r="M18" t="s" s="28">
+        <v>20</v>
+      </c>
+      <c r="N18" t="s" s="28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" ht="20.0" customHeight="true">
+      <c r="A19" t="s" s="29">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s" s="29">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s" s="29">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s" s="29">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s" s="29">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s" s="29">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s" s="29">
+        <v>88</v>
+      </c>
+      <c r="H19" t="s" s="29">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s" s="29">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s" s="29">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s" s="29">
+        <v>20</v>
+      </c>
+      <c r="L19" t="s" s="29">
+        <v>27</v>
+      </c>
+      <c r="M19" t="s" s="29">
+        <v>20</v>
+      </c>
+      <c r="N19" t="s" s="29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" ht="20.0" customHeight="true">
+      <c r="A20" t="s" s="30">
+        <v>89</v>
+      </c>
+      <c r="B20" t="s" s="30">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s" s="30">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s" s="30">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s" s="30">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s" s="30">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s" s="30">
+        <v>91</v>
+      </c>
+      <c r="H20" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s" s="30">
+        <v>26</v>
+      </c>
+      <c r="J20" t="s" s="30">
+        <v>20</v>
+      </c>
+      <c r="K20" t="s" s="30">
+        <v>20</v>
+      </c>
+      <c r="L20" t="s" s="30">
+        <v>27</v>
+      </c>
+      <c r="M20" t="s" s="30">
+        <v>20</v>
+      </c>
+      <c r="N20" t="s" s="30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" ht="20.0" customHeight="true">
+      <c r="A21" t="s" s="31">
+        <v>92</v>
+      </c>
+      <c r="B21" t="s" s="31">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s" s="31">
+        <v>93</v>
+      </c>
+      <c r="D21" t="s" s="31">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s" s="31">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s" s="31">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s" s="31">
+        <v>94</v>
+      </c>
+      <c r="H21" t="s" s="31">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s" s="31">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s" s="31">
+        <v>20</v>
+      </c>
+      <c r="K21" t="s" s="31">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s" s="31">
+        <v>27</v>
+      </c>
+      <c r="M21" t="s" s="31">
+        <v>20</v>
+      </c>
+      <c r="N21" t="s" s="31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" ht="20.0" customHeight="true">
+      <c r="A22" t="s" s="32">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s" s="32">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s" s="32">
+        <v>96</v>
+      </c>
+      <c r="D22" t="s" s="32">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s" s="32">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s" s="32">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s" s="32">
+        <v>97</v>
+      </c>
+      <c r="H22" t="s" s="32">
+        <v>25</v>
+      </c>
+      <c r="I22" t="s" s="32">
+        <v>26</v>
+      </c>
+      <c r="J22" t="s" s="32">
+        <v>20</v>
+      </c>
+      <c r="K22" t="s" s="32">
+        <v>20</v>
+      </c>
+      <c r="L22" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="M22" t="s" s="32">
+        <v>20</v>
+      </c>
+      <c r="N22" t="s" s="32">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" ht="20.0" customHeight="true">
+      <c r="A23" t="s" s="33">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s" s="33">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s" s="33">
+        <v>99</v>
+      </c>
+      <c r="D23" t="s" s="33">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s" s="33">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s" s="33">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s" s="33">
+        <v>100</v>
+      </c>
+      <c r="H23" t="s" s="33">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s" s="33">
+        <v>26</v>
+      </c>
+      <c r="J23" t="s" s="33">
+        <v>20</v>
+      </c>
+      <c r="K23" t="s" s="33">
+        <v>20</v>
+      </c>
+      <c r="L23" t="s" s="33">
+        <v>27</v>
+      </c>
+      <c r="M23" t="s" s="33">
+        <v>20</v>
+      </c>
+      <c r="N23" t="s" s="33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" ht="20.0" customHeight="true">
+      <c r="A24" t="s" s="34">
+        <v>101</v>
+      </c>
+      <c r="B24" t="s" s="34">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s" s="34">
+        <v>102</v>
+      </c>
+      <c r="D24" t="s" s="34">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s" s="34">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s" s="34">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s" s="34">
+        <v>103</v>
+      </c>
+      <c r="H24" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="I24" t="s" s="34">
+        <v>26</v>
+      </c>
+      <c r="J24" t="s" s="34">
+        <v>20</v>
+      </c>
+      <c r="K24" t="s" s="34">
+        <v>20</v>
+      </c>
+      <c r="L24" t="s" s="34">
+        <v>27</v>
+      </c>
+      <c r="M24" t="s" s="34">
+        <v>20</v>
+      </c>
+      <c r="N24" t="s" s="34">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" ht="20.0" customHeight="true">
+      <c r="A25" t="s" s="35">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s" s="35">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s" s="35">
+        <v>105</v>
+      </c>
+      <c r="D25" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s" s="35">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s" s="35">
+        <v>106</v>
+      </c>
+      <c r="H25" t="s" s="35">
+        <v>25</v>
+      </c>
+      <c r="I25" t="s" s="35">
+        <v>26</v>
+      </c>
+      <c r="J25" t="s" s="35">
+        <v>20</v>
+      </c>
+      <c r="K25" t="s" s="35">
+        <v>20</v>
+      </c>
+      <c r="L25" t="s" s="35">
+        <v>27</v>
+      </c>
+      <c r="M25" t="s" s="35">
+        <v>20</v>
+      </c>
+      <c r="N25" t="s" s="35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" ht="20.0" customHeight="true">
+      <c r="A26" t="s" s="37">
+        <v>108</v>
+      </c>
+      <c r="B26" t="s" s="37">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s" s="37">
+        <v>109</v>
+      </c>
+      <c r="D26" t="s" s="37">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s" s="37">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s" s="37">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s" s="37">
+        <v>110</v>
+      </c>
+      <c r="H26" t="s" s="37">
+        <v>25</v>
+      </c>
+      <c r="I26" t="s" s="37">
+        <v>26</v>
+      </c>
+      <c r="J26" t="s" s="37">
+        <v>20</v>
+      </c>
+      <c r="K26" t="s" s="37">
+        <v>20</v>
+      </c>
+      <c r="L26" t="s" s="37">
+        <v>27</v>
+      </c>
+      <c r="M26" t="s" s="37">
+        <v>20</v>
+      </c>
+      <c r="N26" t="s" s="37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" ht="20.0" customHeight="true">
+      <c r="A27" t="s" s="39">
+        <v>113</v>
+      </c>
+      <c r="B27" t="s" s="39">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s" s="39">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s" s="39">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s" s="39">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s" s="39">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="H27" t="s" s="39">
+        <v>25</v>
+      </c>
+      <c r="I27" t="s" s="39">
+        <v>26</v>
+      </c>
+      <c r="J27" t="s" s="39">
+        <v>20</v>
+      </c>
+      <c r="K27" t="s" s="39">
+        <v>20</v>
+      </c>
+      <c r="L27" t="s" s="39">
+        <v>27</v>
+      </c>
+      <c r="M27" t="s" s="39">
+        <v>20</v>
+      </c>
+      <c r="N27" t="s" s="39">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" ht="20.0" customHeight="true">
+      <c r="A28" t="s" s="40">
+        <v>114</v>
+      </c>
+      <c r="B28" t="s" s="40">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s" s="40">
+        <v>115</v>
+      </c>
+      <c r="D28" t="s" s="40">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s" s="40">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s" s="40">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s" s="40">
+        <v>116</v>
+      </c>
+      <c r="H28" t="s" s="40">
+        <v>25</v>
+      </c>
+      <c r="I28" t="s" s="40">
+        <v>26</v>
+      </c>
+      <c r="J28" t="s" s="40">
+        <v>20</v>
+      </c>
+      <c r="K28" t="s" s="40">
+        <v>20</v>
+      </c>
+      <c r="L28" t="s" s="40">
+        <v>27</v>
+      </c>
+      <c r="M28" t="s" s="40">
+        <v>20</v>
+      </c>
+      <c r="N28" t="s" s="40">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" ht="20.0" customHeight="true">
+      <c r="A29" t="s" s="41">
+        <v>117</v>
+      </c>
+      <c r="B29" t="s" s="41">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s" s="41">
+        <v>118</v>
+      </c>
+      <c r="D29" t="s" s="41">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s" s="41">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s" s="41">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s" s="41">
+        <v>119</v>
+      </c>
+      <c r="H29" t="s" s="41">
+        <v>25</v>
+      </c>
+      <c r="I29" t="s" s="41">
+        <v>26</v>
+      </c>
+      <c r="J29" t="s" s="41">
+        <v>20</v>
+      </c>
+      <c r="K29" t="s" s="41">
+        <v>20</v>
+      </c>
+      <c r="L29" t="s" s="41">
+        <v>27</v>
+      </c>
+      <c r="M29" t="s" s="41">
+        <v>20</v>
+      </c>
+      <c r="N29" t="s" s="41">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" ht="20.0" customHeight="true">
+      <c r="A30" t="s" s="42">
+        <v>120</v>
+      </c>
+      <c r="B30" t="s" s="42">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s" s="42">
+        <v>121</v>
+      </c>
+      <c r="D30" t="s" s="42">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s" s="42">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s" s="42">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s" s="42">
+        <v>122</v>
+      </c>
+      <c r="H30" t="s" s="42">
+        <v>25</v>
+      </c>
+      <c r="I30" t="s" s="42">
+        <v>26</v>
+      </c>
+      <c r="J30" t="s" s="42">
+        <v>20</v>
+      </c>
+      <c r="K30" t="s" s="42">
+        <v>20</v>
+      </c>
+      <c r="L30" t="s" s="42">
+        <v>27</v>
+      </c>
+      <c r="M30" t="s" s="42">
+        <v>20</v>
+      </c>
+      <c r="N30" t="s" s="42">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" ht="20.0" customHeight="true">
+      <c r="A31" t="s" s="44">
+        <v>125</v>
+      </c>
+      <c r="B31" t="s" s="44">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s" s="44">
+        <v>126</v>
+      </c>
+      <c r="D31" t="s" s="44">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s" s="44">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s" s="44">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s" s="44">
+        <v>69</v>
+      </c>
+      <c r="H31" t="s" s="44">
+        <v>25</v>
+      </c>
+      <c r="I31" t="s" s="44">
+        <v>26</v>
+      </c>
+      <c r="J31" t="s" s="44">
+        <v>20</v>
+      </c>
+      <c r="K31" t="s" s="44">
+        <v>20</v>
+      </c>
+      <c r="L31" t="s" s="44">
+        <v>27</v>
+      </c>
+      <c r="M31" t="s" s="44">
+        <v>20</v>
+      </c>
+      <c r="N31" t="s" s="44">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" ht="20.0" customHeight="true">
+      <c r="A32" t="s" s="45">
+        <v>127</v>
+      </c>
+      <c r="B32" t="s" s="45">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s" s="45">
+        <v>128</v>
+      </c>
+      <c r="D32" t="s" s="45">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s" s="45">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s" s="45">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s" s="45">
+        <v>129</v>
+      </c>
+      <c r="H32" t="s" s="45">
+        <v>25</v>
+      </c>
+      <c r="I32" t="s" s="45">
+        <v>26</v>
+      </c>
+      <c r="J32" t="s" s="45">
+        <v>20</v>
+      </c>
+      <c r="K32" t="s" s="45">
+        <v>20</v>
+      </c>
+      <c r="L32" t="s" s="45">
+        <v>27</v>
+      </c>
+      <c r="M32" t="s" s="45">
+        <v>20</v>
+      </c>
+      <c r="N32" t="s" s="45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" ht="20.0" customHeight="true">
+      <c r="A33" t="s" s="46">
+        <v>130</v>
+      </c>
+      <c r="B33" t="s" s="46">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s" s="46">
+        <v>131</v>
+      </c>
+      <c r="D33" t="s" s="46">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s" s="46">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s" s="46">
+        <v>23</v>
+      </c>
+      <c r="G33" t="s" s="46">
+        <v>132</v>
+      </c>
+      <c r="H33" t="s" s="46">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s" s="46">
+        <v>26</v>
+      </c>
+      <c r="J33" t="s" s="46">
+        <v>20</v>
+      </c>
+      <c r="K33" t="s" s="46">
+        <v>20</v>
+      </c>
+      <c r="L33" t="s" s="46">
+        <v>27</v>
+      </c>
+      <c r="M33" t="s" s="46">
+        <v>20</v>
+      </c>
+      <c r="N33" t="s" s="46">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" ht="20.0" customHeight="true">
+      <c r="A34" t="s" s="47">
+        <v>133</v>
+      </c>
+      <c r="B34" t="s" s="47">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s" s="47">
+        <v>134</v>
+      </c>
+      <c r="D34" t="s" s="47">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s" s="47">
+        <v>22</v>
+      </c>
+      <c r="F34" t="s" s="47">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s" s="47">
+        <v>135</v>
+      </c>
+      <c r="H34" t="s" s="47">
+        <v>25</v>
+      </c>
+      <c r="I34" t="s" s="47">
+        <v>26</v>
+      </c>
+      <c r="J34" t="s" s="47">
+        <v>20</v>
+      </c>
+      <c r="K34" t="s" s="47">
+        <v>20</v>
+      </c>
+      <c r="L34" t="s" s="47">
+        <v>27</v>
+      </c>
+      <c r="M34" t="s" s="47">
+        <v>20</v>
+      </c>
+      <c r="N34" t="s" s="47">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" ht="20.0" customHeight="true">
+      <c r="A35" t="s" s="48">
+        <v>136</v>
+      </c>
+      <c r="B35" t="s" s="48">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s" s="48">
+        <v>137</v>
+      </c>
+      <c r="D35" t="s" s="48">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s" s="48">
+        <v>22</v>
+      </c>
+      <c r="F35" t="s" s="48">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s" s="48">
+        <v>49</v>
+      </c>
+      <c r="H35" t="s" s="48">
+        <v>25</v>
+      </c>
+      <c r="I35" t="s" s="48">
+        <v>26</v>
+      </c>
+      <c r="J35" t="s" s="48">
+        <v>20</v>
+      </c>
+      <c r="K35" t="s" s="48">
+        <v>20</v>
+      </c>
+      <c r="L35" t="s" s="48">
+        <v>27</v>
+      </c>
+      <c r="M35" t="s" s="48">
+        <v>20</v>
+      </c>
+      <c r="N35" t="s" s="48">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" ht="20.0" customHeight="true">
+      <c r="A36" t="s" s="49">
+        <v>138</v>
+      </c>
+      <c r="B36" t="s" s="49">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s" s="49">
+        <v>139</v>
+      </c>
+      <c r="D36" t="s" s="49">
+        <v>22</v>
+      </c>
+      <c r="E36" t="s" s="49">
+        <v>22</v>
+      </c>
+      <c r="F36" t="s" s="49">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s" s="49">
+        <v>140</v>
+      </c>
+      <c r="H36" t="s" s="49">
+        <v>25</v>
+      </c>
+      <c r="I36" t="s" s="49">
+        <v>26</v>
+      </c>
+      <c r="J36" t="s" s="49">
+        <v>20</v>
+      </c>
+      <c r="K36" t="s" s="49">
+        <v>20</v>
+      </c>
+      <c r="L36" t="s" s="49">
+        <v>27</v>
+      </c>
+      <c r="M36" t="s" s="49">
+        <v>20</v>
+      </c>
+      <c r="N36" t="s" s="49">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" ht="20.0" customHeight="true">
+      <c r="A37" t="s" s="50">
+        <v>141</v>
+      </c>
+      <c r="B37" t="s" s="50">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s" s="50">
+        <v>142</v>
+      </c>
+      <c r="D37" t="s" s="50">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s" s="50">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s" s="50">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s" s="50">
+        <v>143</v>
+      </c>
+      <c r="H37" t="s" s="50">
+        <v>25</v>
+      </c>
+      <c r="I37" t="s" s="50">
+        <v>26</v>
+      </c>
+      <c r="J37" t="s" s="50">
+        <v>20</v>
+      </c>
+      <c r="K37" t="s" s="50">
+        <v>20</v>
+      </c>
+      <c r="L37" t="s" s="50">
+        <v>27</v>
+      </c>
+      <c r="M37" t="s" s="50">
+        <v>20</v>
+      </c>
+      <c r="N37" t="s" s="50">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" ht="20.0" customHeight="true">
+      <c r="A38" t="s" s="51">
+        <v>144</v>
+      </c>
+      <c r="B38" t="s" s="51">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s" s="51">
+        <v>145</v>
+      </c>
+      <c r="D38" t="s" s="51">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s" s="51">
+        <v>22</v>
+      </c>
+      <c r="F38" t="s" s="51">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s" s="51">
+        <v>41</v>
+      </c>
+      <c r="H38" t="s" s="51">
+        <v>25</v>
+      </c>
+      <c r="I38" t="s" s="51">
+        <v>26</v>
+      </c>
+      <c r="J38" t="s" s="51">
+        <v>20</v>
+      </c>
+      <c r="K38" t="s" s="51">
+        <v>20</v>
+      </c>
+      <c r="L38" t="s" s="51">
+        <v>27</v>
+      </c>
+      <c r="M38" t="s" s="51">
+        <v>20</v>
+      </c>
+      <c r="N38" t="s" s="51">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" ht="20.0" customHeight="true">
+      <c r="A39" t="s" s="52">
+        <v>146</v>
+      </c>
+      <c r="B39" t="s" s="52">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s" s="52">
+        <v>147</v>
+      </c>
+      <c r="D39" t="s" s="52">
+        <v>22</v>
+      </c>
+      <c r="E39" t="s" s="52">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s" s="52">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s" s="52">
+        <v>148</v>
+      </c>
+      <c r="H39" t="s" s="52">
+        <v>25</v>
+      </c>
+      <c r="I39" t="s" s="52">
+        <v>26</v>
+      </c>
+      <c r="J39" t="s" s="52">
+        <v>20</v>
+      </c>
+      <c r="K39" t="s" s="52">
+        <v>20</v>
+      </c>
+      <c r="L39" t="s" s="52">
+        <v>27</v>
+      </c>
+      <c r="M39" t="s" s="52">
+        <v>20</v>
+      </c>
+      <c r="N39" t="s" s="52">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" ht="20.0" customHeight="true">
+      <c r="A40" t="s" s="53">
+        <v>149</v>
+      </c>
+      <c r="B40" t="s" s="53">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s" s="53">
+        <v>31</v>
+      </c>
+      <c r="D40" t="s" s="53">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s" s="53">
+        <v>22</v>
+      </c>
+      <c r="F40" t="s" s="53">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s" s="53">
+        <v>150</v>
+      </c>
+      <c r="H40" t="s" s="53">
+        <v>25</v>
+      </c>
+      <c r="I40" t="s" s="53">
+        <v>26</v>
+      </c>
+      <c r="J40" t="s" s="53">
+        <v>20</v>
+      </c>
+      <c r="K40" t="s" s="53">
+        <v>20</v>
+      </c>
+      <c r="L40" t="s" s="53">
+        <v>27</v>
+      </c>
+      <c r="M40" t="s" s="53">
+        <v>20</v>
+      </c>
+      <c r="N40" t="s" s="53">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" ht="20.0" customHeight="true">
+      <c r="A41" t="s" s="54">
+        <v>151</v>
+      </c>
+      <c r="B41" t="s" s="54">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s" s="54">
+        <v>152</v>
+      </c>
+      <c r="D41" t="s" s="54">
+        <v>22</v>
+      </c>
+      <c r="E41" t="s" s="54">
+        <v>22</v>
+      </c>
+      <c r="F41" t="s" s="54">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s" s="54">
+        <v>153</v>
+      </c>
+      <c r="H41" t="s" s="54">
+        <v>25</v>
+      </c>
+      <c r="I41" t="s" s="54">
+        <v>26</v>
+      </c>
+      <c r="J41" t="s" s="54">
+        <v>20</v>
+      </c>
+      <c r="K41" t="s" s="54">
+        <v>20</v>
+      </c>
+      <c r="L41" t="s" s="54">
+        <v>27</v>
+      </c>
+      <c r="M41" t="s" s="54">
+        <v>20</v>
+      </c>
+      <c r="N41" t="s" s="54">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" ht="20.0" customHeight="true">
+      <c r="A42" t="s" s="55">
+        <v>154</v>
+      </c>
+      <c r="B42" t="s" s="55">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s" s="55">
+        <v>155</v>
+      </c>
+      <c r="D42" t="s" s="55">
+        <v>22</v>
+      </c>
+      <c r="E42" t="s" s="55">
+        <v>22</v>
+      </c>
+      <c r="F42" t="s" s="55">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s" s="55">
+        <v>156</v>
+      </c>
+      <c r="H42" t="s" s="55">
+        <v>25</v>
+      </c>
+      <c r="I42" t="s" s="55">
+        <v>26</v>
+      </c>
+      <c r="J42" t="s" s="55">
+        <v>20</v>
+      </c>
+      <c r="K42" t="s" s="55">
+        <v>20</v>
+      </c>
+      <c r="L42" t="s" s="55">
+        <v>27</v>
+      </c>
+      <c r="M42" t="s" s="55">
+        <v>20</v>
+      </c>
+      <c r="N42" t="s" s="55">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" ht="20.0" customHeight="true">
+      <c r="A43" t="s" s="56">
+        <v>157</v>
+      </c>
+      <c r="B43" t="s" s="56">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s" s="56">
+        <v>158</v>
+      </c>
+      <c r="D43" t="s" s="56">
+        <v>22</v>
+      </c>
+      <c r="E43" t="s" s="56">
+        <v>22</v>
+      </c>
+      <c r="F43" t="s" s="56">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s" s="56">
+        <v>159</v>
+      </c>
+      <c r="H43" t="s" s="56">
+        <v>25</v>
+      </c>
+      <c r="I43" t="s" s="56">
+        <v>26</v>
+      </c>
+      <c r="J43" t="s" s="56">
+        <v>20</v>
+      </c>
+      <c r="K43" t="s" s="56">
+        <v>20</v>
+      </c>
+      <c r="L43" t="s" s="56">
+        <v>27</v>
+      </c>
+      <c r="M43" t="s" s="56">
+        <v>20</v>
+      </c>
+      <c r="N43" t="s" s="56">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" ht="20.0" customHeight="true">
+      <c r="A44" t="s" s="57">
+        <v>160</v>
+      </c>
+      <c r="B44" t="s" s="57">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s" s="57">
+        <v>161</v>
+      </c>
+      <c r="D44" t="s" s="57">
+        <v>22</v>
+      </c>
+      <c r="E44" t="s" s="57">
+        <v>22</v>
+      </c>
+      <c r="F44" t="s" s="57">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s" s="57">
+        <v>162</v>
+      </c>
+      <c r="H44" t="s" s="57">
+        <v>25</v>
+      </c>
+      <c r="I44" t="s" s="57">
+        <v>26</v>
+      </c>
+      <c r="J44" t="s" s="57">
+        <v>20</v>
+      </c>
+      <c r="K44" t="s" s="57">
+        <v>20</v>
+      </c>
+      <c r="L44" t="s" s="57">
+        <v>27</v>
+      </c>
+      <c r="M44" t="s" s="57">
+        <v>20</v>
+      </c>
+      <c r="N44" t="s" s="57">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" ht="20.0" customHeight="true">
+      <c r="A45" t="s" s="58">
+        <v>163</v>
+      </c>
+      <c r="B45" t="s" s="58">
+        <v>20</v>
+      </c>
+      <c r="C45" t="s" s="58">
+        <v>164</v>
+      </c>
+      <c r="D45" t="s" s="58">
+        <v>22</v>
+      </c>
+      <c r="E45" t="s" s="58">
+        <v>22</v>
+      </c>
+      <c r="F45" t="s" s="58">
+        <v>23</v>
+      </c>
+      <c r="G45" t="s" s="58">
+        <v>165</v>
+      </c>
+      <c r="H45" t="s" s="58">
+        <v>25</v>
+      </c>
+      <c r="I45" t="s" s="58">
+        <v>26</v>
+      </c>
+      <c r="J45" t="s" s="58">
+        <v>20</v>
+      </c>
+      <c r="K45" t="s" s="58">
+        <v>20</v>
+      </c>
+      <c r="L45" t="s" s="58">
+        <v>27</v>
+      </c>
+      <c r="M45" t="s" s="58">
+        <v>20</v>
+      </c>
+      <c r="N45" t="s" s="58">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" ht="20.0" customHeight="true">
+      <c r="A46" t="s" s="59">
+        <v>166</v>
+      </c>
+      <c r="B46" t="s" s="59">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s" s="59">
+        <v>167</v>
+      </c>
+      <c r="D46" t="s" s="59">
+        <v>22</v>
+      </c>
+      <c r="E46" t="s" s="59">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s" s="59">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s" s="59">
+        <v>168</v>
+      </c>
+      <c r="H46" t="s" s="59">
+        <v>25</v>
+      </c>
+      <c r="I46" t="s" s="59">
+        <v>26</v>
+      </c>
+      <c r="J46" t="s" s="59">
+        <v>20</v>
+      </c>
+      <c r="K46" t="s" s="59">
+        <v>20</v>
+      </c>
+      <c r="L46" t="s" s="59">
+        <v>27</v>
+      </c>
+      <c r="M46" t="s" s="59">
+        <v>20</v>
+      </c>
+      <c r="N46" t="s" s="59">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" ht="20.0" customHeight="true">
+      <c r="A47" t="s" s="60">
+        <v>169</v>
+      </c>
+      <c r="B47" t="s" s="60">
+        <v>20</v>
+      </c>
+      <c r="C47" t="s" s="60">
+        <v>170</v>
+      </c>
+      <c r="D47" t="s" s="60">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s" s="60">
+        <v>22</v>
+      </c>
+      <c r="F47" t="s" s="60">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s" s="60">
+        <v>171</v>
+      </c>
+      <c r="H47" t="s" s="60">
+        <v>25</v>
+      </c>
+      <c r="I47" t="s" s="60">
+        <v>26</v>
+      </c>
+      <c r="J47" t="s" s="60">
+        <v>20</v>
+      </c>
+      <c r="K47" t="s" s="60">
+        <v>20</v>
+      </c>
+      <c r="L47" t="s" s="60">
+        <v>27</v>
+      </c>
+      <c r="M47" t="s" s="60">
+        <v>20</v>
+      </c>
+      <c r="N47" t="s" s="60">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" ht="20.0" customHeight="true">
+      <c r="A48" t="s" s="61">
+        <v>172</v>
+      </c>
+      <c r="B48" t="s" s="61">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s" s="61">
+        <v>173</v>
+      </c>
+      <c r="D48" t="s" s="61">
+        <v>22</v>
+      </c>
+      <c r="E48" t="s" s="61">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s" s="61">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s" s="61">
+        <v>174</v>
+      </c>
+      <c r="H48" t="s" s="61">
+        <v>25</v>
+      </c>
+      <c r="I48" t="s" s="61">
+        <v>26</v>
+      </c>
+      <c r="J48" t="s" s="61">
+        <v>20</v>
+      </c>
+      <c r="K48" t="s" s="61">
+        <v>20</v>
+      </c>
+      <c r="L48" t="s" s="61">
+        <v>27</v>
+      </c>
+      <c r="M48" t="s" s="61">
+        <v>20</v>
+      </c>
+      <c r="N48" t="s" s="61">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" ht="20.0" customHeight="true">
+      <c r="A49" t="s" s="62">
+        <v>175</v>
+      </c>
+      <c r="B49" t="s" s="62">
+        <v>20</v>
+      </c>
+      <c r="C49" t="s" s="62">
+        <v>176</v>
+      </c>
+      <c r="D49" t="s" s="62">
+        <v>22</v>
+      </c>
+      <c r="E49" t="s" s="62">
+        <v>22</v>
+      </c>
+      <c r="F49" t="s" s="62">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s" s="62">
+        <v>177</v>
+      </c>
+      <c r="H49" t="s" s="62">
+        <v>25</v>
+      </c>
+      <c r="I49" t="s" s="62">
+        <v>26</v>
+      </c>
+      <c r="J49" t="s" s="62">
+        <v>20</v>
+      </c>
+      <c r="K49" t="s" s="62">
+        <v>20</v>
+      </c>
+      <c r="L49" t="s" s="62">
+        <v>27</v>
+      </c>
+      <c r="M49" t="s" s="62">
+        <v>20</v>
+      </c>
+      <c r="N49" t="s" s="62">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" ht="20.0" customHeight="true">
+      <c r="A50" t="s" s="63">
+        <v>178</v>
+      </c>
+      <c r="B50" t="s" s="63">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s" s="63">
+        <v>179</v>
+      </c>
+      <c r="D50" t="s" s="63">
+        <v>22</v>
+      </c>
+      <c r="E50" t="s" s="63">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s" s="63">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s" s="63">
+        <v>180</v>
+      </c>
+      <c r="H50" t="s" s="63">
+        <v>25</v>
+      </c>
+      <c r="I50" t="s" s="63">
+        <v>26</v>
+      </c>
+      <c r="J50" t="s" s="63">
+        <v>20</v>
+      </c>
+      <c r="K50" t="s" s="63">
+        <v>20</v>
+      </c>
+      <c r="L50" t="s" s="63">
+        <v>27</v>
+      </c>
+      <c r="M50" t="s" s="63">
+        <v>20</v>
+      </c>
+      <c r="N50" t="s" s="63">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" ht="20.0" customHeight="true">
+      <c r="A51" t="s" s="64">
+        <v>181</v>
+      </c>
+      <c r="B51" t="s" s="64">
+        <v>20</v>
+      </c>
+      <c r="C51" t="s" s="64">
+        <v>182</v>
+      </c>
+      <c r="D51" t="s" s="64">
+        <v>22</v>
+      </c>
+      <c r="E51" t="s" s="64">
+        <v>22</v>
+      </c>
+      <c r="F51" t="s" s="64">
+        <v>23</v>
+      </c>
+      <c r="G51" t="s" s="64">
+        <v>183</v>
+      </c>
+      <c r="H51" t="s" s="64">
+        <v>25</v>
+      </c>
+      <c r="I51" t="s" s="64">
+        <v>26</v>
+      </c>
+      <c r="J51" t="s" s="64">
+        <v>20</v>
+      </c>
+      <c r="K51" t="s" s="64">
+        <v>20</v>
+      </c>
+      <c r="L51" t="s" s="64">
+        <v>27</v>
+      </c>
+      <c r="M51" t="s" s="64">
+        <v>20</v>
+      </c>
+      <c r="N51" t="s" s="64">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" ht="20.0" customHeight="true">
+      <c r="A52" t="s" s="65">
+        <v>184</v>
+      </c>
+      <c r="B52" t="s" s="65">
+        <v>20</v>
+      </c>
+      <c r="C52" t="s" s="65">
+        <v>185</v>
+      </c>
+      <c r="D52" t="s" s="65">
+        <v>22</v>
+      </c>
+      <c r="E52" t="s" s="65">
+        <v>22</v>
+      </c>
+      <c r="F52" t="s" s="65">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s" s="65">
+        <v>186</v>
+      </c>
+      <c r="H52" t="s" s="65">
+        <v>25</v>
+      </c>
+      <c r="I52" t="s" s="65">
+        <v>26</v>
+      </c>
+      <c r="J52" t="s" s="65">
+        <v>20</v>
+      </c>
+      <c r="K52" t="s" s="65">
+        <v>20</v>
+      </c>
+      <c r="L52" t="s" s="65">
+        <v>27</v>
+      </c>
+      <c r="M52" t="s" s="65">
+        <v>20</v>
+      </c>
+      <c r="N52" t="s" s="65">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" ht="20.0" customHeight="true">
+      <c r="A53" t="s" s="66">
+        <v>187</v>
+      </c>
+      <c r="B53" t="s" s="66">
+        <v>20</v>
+      </c>
+      <c r="C53" t="s" s="66">
+        <v>188</v>
+      </c>
+      <c r="D53" t="s" s="66">
+        <v>22</v>
+      </c>
+      <c r="E53" t="s" s="66">
+        <v>22</v>
+      </c>
+      <c r="F53" t="s" s="66">
+        <v>23</v>
+      </c>
+      <c r="G53" t="s" s="66">
+        <v>189</v>
+      </c>
+      <c r="H53" t="s" s="66">
+        <v>25</v>
+      </c>
+      <c r="I53" t="s" s="66">
+        <v>26</v>
+      </c>
+      <c r="J53" t="s" s="66">
+        <v>20</v>
+      </c>
+      <c r="K53" t="s" s="66">
+        <v>20</v>
+      </c>
+      <c r="L53" t="s" s="66">
+        <v>27</v>
+      </c>
+      <c r="M53" t="s" s="66">
+        <v>20</v>
+      </c>
+      <c r="N53" t="s" s="66">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" ht="20.0" customHeight="true">
+      <c r="A54" t="s" s="67">
+        <v>190</v>
+      </c>
+      <c r="B54" t="s" s="67">
+        <v>20</v>
+      </c>
+      <c r="C54" t="s" s="67">
+        <v>191</v>
+      </c>
+      <c r="D54" t="s" s="67">
+        <v>22</v>
+      </c>
+      <c r="E54" t="s" s="67">
+        <v>22</v>
+      </c>
+      <c r="F54" t="s" s="67">
+        <v>23</v>
+      </c>
+      <c r="G54" t="s" s="67">
+        <v>192</v>
+      </c>
+      <c r="H54" t="s" s="67">
+        <v>25</v>
+      </c>
+      <c r="I54" t="s" s="67">
+        <v>26</v>
+      </c>
+      <c r="J54" t="s" s="67">
+        <v>20</v>
+      </c>
+      <c r="K54" t="s" s="67">
+        <v>20</v>
+      </c>
+      <c r="L54" t="s" s="67">
+        <v>27</v>
+      </c>
+      <c r="M54" t="s" s="67">
+        <v>20</v>
+      </c>
+      <c r="N54" t="s" s="67">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" ht="20.0" customHeight="true">
+      <c r="A55" t="s" s="68">
+        <v>193</v>
+      </c>
+      <c r="B55" t="s" s="68">
+        <v>20</v>
+      </c>
+      <c r="C55" t="s" s="68">
+        <v>194</v>
+      </c>
+      <c r="D55" t="s" s="68">
+        <v>22</v>
+      </c>
+      <c r="E55" t="s" s="68">
+        <v>22</v>
+      </c>
+      <c r="F55" t="s" s="68">
+        <v>23</v>
+      </c>
+      <c r="G55" t="s" s="68">
+        <v>195</v>
+      </c>
+      <c r="H55" t="s" s="68">
+        <v>25</v>
+      </c>
+      <c r="I55" t="s" s="68">
+        <v>26</v>
+      </c>
+      <c r="J55" t="s" s="68">
+        <v>20</v>
+      </c>
+      <c r="K55" t="s" s="68">
+        <v>20</v>
+      </c>
+      <c r="L55" t="s" s="68">
+        <v>27</v>
+      </c>
+      <c r="M55" t="s" s="68">
+        <v>20</v>
+      </c>
+      <c r="N55" t="s" s="68">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" ht="20.0" customHeight="true">
+      <c r="A56" t="s" s="69">
+        <v>196</v>
+      </c>
+      <c r="B56" t="s" s="69">
+        <v>20</v>
+      </c>
+      <c r="C56" t="s" s="69">
+        <v>197</v>
+      </c>
+      <c r="D56" t="s" s="69">
+        <v>22</v>
+      </c>
+      <c r="E56" t="s" s="69">
+        <v>22</v>
+      </c>
+      <c r="F56" t="s" s="69">
+        <v>23</v>
+      </c>
+      <c r="G56" t="s" s="69">
+        <v>198</v>
+      </c>
+      <c r="H56" t="s" s="69">
+        <v>25</v>
+      </c>
+      <c r="I56" t="s" s="69">
+        <v>26</v>
+      </c>
+      <c r="J56" t="s" s="69">
+        <v>20</v>
+      </c>
+      <c r="K56" t="s" s="69">
+        <v>20</v>
+      </c>
+      <c r="L56" t="s" s="69">
+        <v>27</v>
+      </c>
+      <c r="M56" t="s" s="69">
+        <v>20</v>
+      </c>
+      <c r="N56" t="s" s="69">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" ht="20.0" customHeight="true">
+      <c r="A57" t="s" s="70">
+        <v>199</v>
+      </c>
+      <c r="B57" t="s" s="70">
+        <v>20</v>
+      </c>
+      <c r="C57" t="s" s="70">
+        <v>200</v>
+      </c>
+      <c r="D57" t="s" s="70">
+        <v>22</v>
+      </c>
+      <c r="E57" t="s" s="70">
+        <v>22</v>
+      </c>
+      <c r="F57" t="s" s="70">
+        <v>23</v>
+      </c>
+      <c r="G57" t="s" s="70">
+        <v>201</v>
+      </c>
+      <c r="H57" t="s" s="70">
+        <v>25</v>
+      </c>
+      <c r="I57" t="s" s="70">
+        <v>26</v>
+      </c>
+      <c r="J57" t="s" s="70">
+        <v>20</v>
+      </c>
+      <c r="K57" t="s" s="70">
+        <v>20</v>
+      </c>
+      <c r="L57" t="s" s="70">
+        <v>27</v>
+      </c>
+      <c r="M57" t="s" s="70">
+        <v>20</v>
+      </c>
+      <c r="N57" t="s" s="70">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" ht="20.0" customHeight="true">
+      <c r="A58" t="s" s="71">
+        <v>202</v>
+      </c>
+      <c r="B58" t="s" s="71">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s" s="71">
+        <v>164</v>
+      </c>
+      <c r="D58" t="s" s="71">
+        <v>22</v>
+      </c>
+      <c r="E58" t="s" s="71">
+        <v>22</v>
+      </c>
+      <c r="F58" t="s" s="71">
+        <v>23</v>
+      </c>
+      <c r="G58" t="s" s="71">
+        <v>165</v>
+      </c>
+      <c r="H58" t="s" s="71">
+        <v>25</v>
+      </c>
+      <c r="I58" t="s" s="71">
+        <v>26</v>
+      </c>
+      <c r="J58" t="s" s="71">
+        <v>20</v>
+      </c>
+      <c r="K58" t="s" s="71">
+        <v>20</v>
+      </c>
+      <c r="L58" t="s" s="71">
+        <v>27</v>
+      </c>
+      <c r="M58" t="s" s="71">
+        <v>20</v>
+      </c>
+      <c r="N58" t="s" s="71">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -681,7 +3499,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -967,6 +3785,234 @@
         <v>27</v>
       </c>
     </row>
+    <row r="8" ht="20.0" customHeight="true">
+      <c r="A8" t="s" s="17">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s" s="17">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s" s="17">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s" s="17">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s" s="17">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s" s="17">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s" s="17">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s" s="17">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s" s="17">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s" s="17">
+        <v>20</v>
+      </c>
+      <c r="L8" t="s" s="17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" ht="20.0" customHeight="true">
+      <c r="A9" t="s" s="20">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s" s="20">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s" s="20">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s" s="20">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s" s="20">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s" s="20">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s" s="20">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s" s="20">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s" s="20">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s" s="20">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s" s="20">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s" s="20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" ht="20.0" customHeight="true">
+      <c r="A10" t="s" s="23">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s" s="23">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s" s="23">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s" s="23">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s" s="23">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s" s="23">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s" s="23">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s" s="23">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s" s="23">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s" s="23">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s" s="23">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s" s="23">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" ht="20.0" customHeight="true">
+      <c r="A11" t="s" s="36">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s" s="36">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s" s="36">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s" s="36">
+        <v>104</v>
+      </c>
+      <c r="E11" t="s" s="36">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s" s="36">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s" s="36">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s" s="36">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s" s="36">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s" s="36">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s" s="36">
+        <v>20</v>
+      </c>
+      <c r="L11" t="s" s="36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" ht="20.0" customHeight="true">
+      <c r="A12" t="s" s="38">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s" s="38">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s" s="38">
+        <v>109</v>
+      </c>
+      <c r="D12" t="s" s="38">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s" s="38">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s" s="38">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s" s="38">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s" s="38">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s" s="38">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s" s="38">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s" s="38">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s" s="38">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" ht="20.0" customHeight="true">
+      <c r="A13" t="s" s="43">
+        <v>123</v>
+      </c>
+      <c r="B13" t="s" s="43">
+        <v>124</v>
+      </c>
+      <c r="C13" t="s" s="43">
+        <v>121</v>
+      </c>
+      <c r="D13" t="s" s="43">
+        <v>120</v>
+      </c>
+      <c r="E13" t="s" s="43">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s" s="43">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s" s="43">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s" s="43">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s" s="43">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s" s="43">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s" s="43">
+        <v>20</v>
+      </c>
+      <c r="L13" t="s" s="43">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Teleologies/Formal Modeling/changeLog.xlsx
+++ b/Teleologies/Formal Modeling/changeLog.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="224">
   <si>
     <t>Cased Word Lemma</t>
   </si>
@@ -622,6 +622,69 @@
   </si>
   <si>
     <t>has_eventID</t>
+  </si>
+  <si>
+    <t>has_itineraryMap</t>
+  </si>
+  <si>
+    <t>34482</t>
+  </si>
+  <si>
+    <t>a guidebook for travelers</t>
+  </si>
+  <si>
+    <t>has_middle_name</t>
+  </si>
+  <si>
+    <t>34005</t>
+  </si>
+  <si>
+    <t>a name between your first name and your surname</t>
+  </si>
+  <si>
+    <t>has_seminarStatus</t>
+  </si>
+  <si>
+    <t>45037</t>
+  </si>
+  <si>
+    <t>any meeting for an exchange of ideas</t>
+  </si>
+  <si>
+    <t>has_mothertongue</t>
+  </si>
+  <si>
+    <t>37004</t>
+  </si>
+  <si>
+    <t>one's native language; the language learned by children and passed from one generation to the next</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>34494</t>
+  </si>
+  <si>
+    <t>the number is used in calling a particular telephone</t>
+  </si>
+  <si>
+    <t>has_happyHour</t>
+  </si>
+  <si>
+    <t>81120</t>
+  </si>
+  <si>
+    <t>the time of day when a bar sells alcoholic drinks at a reduced price</t>
+  </si>
+  <si>
+    <t>has_address</t>
+  </si>
+  <si>
+    <t>45803</t>
+  </si>
+  <si>
+    <t>the place where a person or organization can be found or communicated with</t>
   </si>
 </sst>
 </file>
@@ -697,13 +760,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
       <alignment wrapText="true"/>
@@ -918,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3489,6 +3573,314 @@
         <v>20</v>
       </c>
       <c r="N58" t="s" s="71">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" ht="20.0" customHeight="true">
+      <c r="A59" t="s" s="72">
+        <v>203</v>
+      </c>
+      <c r="B59" t="s" s="72">
+        <v>20</v>
+      </c>
+      <c r="C59" t="s" s="72">
+        <v>204</v>
+      </c>
+      <c r="D59" t="s" s="72">
+        <v>22</v>
+      </c>
+      <c r="E59" t="s" s="72">
+        <v>22</v>
+      </c>
+      <c r="F59" t="s" s="72">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s" s="72">
+        <v>205</v>
+      </c>
+      <c r="H59" t="s" s="72">
+        <v>25</v>
+      </c>
+      <c r="I59" t="s" s="72">
+        <v>26</v>
+      </c>
+      <c r="J59" t="s" s="72">
+        <v>20</v>
+      </c>
+      <c r="K59" t="s" s="72">
+        <v>20</v>
+      </c>
+      <c r="L59" t="s" s="72">
+        <v>27</v>
+      </c>
+      <c r="M59" t="s" s="72">
+        <v>20</v>
+      </c>
+      <c r="N59" t="s" s="72">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" ht="20.0" customHeight="true">
+      <c r="A60" t="s" s="73">
+        <v>206</v>
+      </c>
+      <c r="B60" t="s" s="73">
+        <v>20</v>
+      </c>
+      <c r="C60" t="s" s="73">
+        <v>207</v>
+      </c>
+      <c r="D60" t="s" s="73">
+        <v>22</v>
+      </c>
+      <c r="E60" t="s" s="73">
+        <v>22</v>
+      </c>
+      <c r="F60" t="s" s="73">
+        <v>23</v>
+      </c>
+      <c r="G60" t="s" s="73">
+        <v>208</v>
+      </c>
+      <c r="H60" t="s" s="73">
+        <v>25</v>
+      </c>
+      <c r="I60" t="s" s="73">
+        <v>26</v>
+      </c>
+      <c r="J60" t="s" s="73">
+        <v>20</v>
+      </c>
+      <c r="K60" t="s" s="73">
+        <v>20</v>
+      </c>
+      <c r="L60" t="s" s="73">
+        <v>27</v>
+      </c>
+      <c r="M60" t="s" s="73">
+        <v>20</v>
+      </c>
+      <c r="N60" t="s" s="73">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" ht="20.0" customHeight="true">
+      <c r="A61" t="s" s="74">
+        <v>209</v>
+      </c>
+      <c r="B61" t="s" s="74">
+        <v>20</v>
+      </c>
+      <c r="C61" t="s" s="74">
+        <v>210</v>
+      </c>
+      <c r="D61" t="s" s="74">
+        <v>22</v>
+      </c>
+      <c r="E61" t="s" s="74">
+        <v>22</v>
+      </c>
+      <c r="F61" t="s" s="74">
+        <v>23</v>
+      </c>
+      <c r="G61" t="s" s="74">
+        <v>211</v>
+      </c>
+      <c r="H61" t="s" s="74">
+        <v>25</v>
+      </c>
+      <c r="I61" t="s" s="74">
+        <v>26</v>
+      </c>
+      <c r="J61" t="s" s="74">
+        <v>20</v>
+      </c>
+      <c r="K61" t="s" s="74">
+        <v>20</v>
+      </c>
+      <c r="L61" t="s" s="74">
+        <v>27</v>
+      </c>
+      <c r="M61" t="s" s="74">
+        <v>20</v>
+      </c>
+      <c r="N61" t="s" s="74">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" ht="20.0" customHeight="true">
+      <c r="A62" t="s" s="75">
+        <v>212</v>
+      </c>
+      <c r="B62" t="s" s="75">
+        <v>20</v>
+      </c>
+      <c r="C62" t="s" s="75">
+        <v>213</v>
+      </c>
+      <c r="D62" t="s" s="75">
+        <v>22</v>
+      </c>
+      <c r="E62" t="s" s="75">
+        <v>22</v>
+      </c>
+      <c r="F62" t="s" s="75">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s" s="75">
+        <v>214</v>
+      </c>
+      <c r="H62" t="s" s="75">
+        <v>25</v>
+      </c>
+      <c r="I62" t="s" s="75">
+        <v>26</v>
+      </c>
+      <c r="J62" t="s" s="75">
+        <v>20</v>
+      </c>
+      <c r="K62" t="s" s="75">
+        <v>20</v>
+      </c>
+      <c r="L62" t="s" s="75">
+        <v>27</v>
+      </c>
+      <c r="M62" t="s" s="75">
+        <v>20</v>
+      </c>
+      <c r="N62" t="s" s="75">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" ht="20.0" customHeight="true">
+      <c r="A63" t="s" s="76">
+        <v>215</v>
+      </c>
+      <c r="B63" t="s" s="76">
+        <v>20</v>
+      </c>
+      <c r="C63" t="s" s="76">
+        <v>216</v>
+      </c>
+      <c r="D63" t="s" s="76">
+        <v>22</v>
+      </c>
+      <c r="E63" t="s" s="76">
+        <v>22</v>
+      </c>
+      <c r="F63" t="s" s="76">
+        <v>23</v>
+      </c>
+      <c r="G63" t="s" s="76">
+        <v>217</v>
+      </c>
+      <c r="H63" t="s" s="76">
+        <v>25</v>
+      </c>
+      <c r="I63" t="s" s="76">
+        <v>26</v>
+      </c>
+      <c r="J63" t="s" s="76">
+        <v>20</v>
+      </c>
+      <c r="K63" t="s" s="76">
+        <v>20</v>
+      </c>
+      <c r="L63" t="s" s="76">
+        <v>27</v>
+      </c>
+      <c r="M63" t="s" s="76">
+        <v>20</v>
+      </c>
+      <c r="N63" t="s" s="76">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" ht="20.0" customHeight="true">
+      <c r="A64" t="s" s="77">
+        <v>218</v>
+      </c>
+      <c r="B64" t="s" s="77">
+        <v>20</v>
+      </c>
+      <c r="C64" t="s" s="77">
+        <v>219</v>
+      </c>
+      <c r="D64" t="s" s="77">
+        <v>22</v>
+      </c>
+      <c r="E64" t="s" s="77">
+        <v>22</v>
+      </c>
+      <c r="F64" t="s" s="77">
+        <v>23</v>
+      </c>
+      <c r="G64" t="s" s="77">
+        <v>220</v>
+      </c>
+      <c r="H64" t="s" s="77">
+        <v>25</v>
+      </c>
+      <c r="I64" t="s" s="77">
+        <v>26</v>
+      </c>
+      <c r="J64" t="s" s="77">
+        <v>20</v>
+      </c>
+      <c r="K64" t="s" s="77">
+        <v>20</v>
+      </c>
+      <c r="L64" t="s" s="77">
+        <v>27</v>
+      </c>
+      <c r="M64" t="s" s="77">
+        <v>20</v>
+      </c>
+      <c r="N64" t="s" s="77">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" ht="20.0" customHeight="true">
+      <c r="A65" t="s" s="78">
+        <v>221</v>
+      </c>
+      <c r="B65" t="s" s="78">
+        <v>20</v>
+      </c>
+      <c r="C65" t="s" s="78">
+        <v>222</v>
+      </c>
+      <c r="D65" t="s" s="78">
+        <v>22</v>
+      </c>
+      <c r="E65" t="s" s="78">
+        <v>22</v>
+      </c>
+      <c r="F65" t="s" s="78">
+        <v>23</v>
+      </c>
+      <c r="G65" t="s" s="78">
+        <v>223</v>
+      </c>
+      <c r="H65" t="s" s="78">
+        <v>25</v>
+      </c>
+      <c r="I65" t="s" s="78">
+        <v>26</v>
+      </c>
+      <c r="J65" t="s" s="78">
+        <v>20</v>
+      </c>
+      <c r="K65" t="s" s="78">
+        <v>20</v>
+      </c>
+      <c r="L65" t="s" s="78">
+        <v>27</v>
+      </c>
+      <c r="M65" t="s" s="78">
+        <v>20</v>
+      </c>
+      <c r="N65" t="s" s="78">
         <v>27</v>
       </c>
     </row>

--- a/Teleologies/Formal Modeling/changeLog.xlsx
+++ b/Teleologies/Formal Modeling/changeLog.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="277">
   <si>
     <t>Cased Word Lemma</t>
   </si>
@@ -685,6 +685,165 @@
   </si>
   <si>
     <t>the place where a person or organization can be found or communicated with</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>45835</t>
+  </si>
+  <si>
+    <t>a particular geographical region of indefinite boundary (usually serving some special purpose or distinguished by its people or culture or geography)</t>
+  </si>
+  <si>
+    <t>has_genre</t>
+  </si>
+  <si>
+    <t>31860</t>
+  </si>
+  <si>
+    <t>a kind of literary or artistic work</t>
+  </si>
+  <si>
+    <t>has_surname</t>
+  </si>
+  <si>
+    <t>34003</t>
+  </si>
+  <si>
+    <t>the name used to identify the members of a family (as distinguished from each member's given name)</t>
+  </si>
+  <si>
+    <t>has_license</t>
+  </si>
+  <si>
+    <t>35108</t>
+  </si>
+  <si>
+    <t>a legal document giving official permission to do something</t>
+  </si>
+  <si>
+    <t>has_employeeNumber</t>
+  </si>
+  <si>
+    <t>has_osmID</t>
+  </si>
+  <si>
+    <t>has_match</t>
+  </si>
+  <si>
+    <t>40174</t>
+  </si>
+  <si>
+    <t>a formal contest in which two or more persons or teams compete</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>22592</t>
+  </si>
+  <si>
+    <t>an open way (generally public) for travel or transportation</t>
+  </si>
+  <si>
+    <t>has_language</t>
+  </si>
+  <si>
+    <t>31682</t>
+  </si>
+  <si>
+    <t>the cognitive processes involved in producing and understanding linguistic communication</t>
+  </si>
+  <si>
+    <t>has_season</t>
+  </si>
+  <si>
+    <t>81181</t>
+  </si>
+  <si>
+    <t>a period of the year marked by special events or activities in some field</t>
+  </si>
+  <si>
+    <t>has_subtitles</t>
+  </si>
+  <si>
+    <t>111892</t>
+  </si>
+  <si>
+    <t>supply (a movie) with subtitles</t>
+  </si>
+  <si>
+    <t>has_link</t>
+  </si>
+  <si>
+    <t>34123</t>
+  </si>
+  <si>
+    <t>the address of a web page on the world wide web</t>
+  </si>
+  <si>
+    <t>has_employer</t>
+  </si>
+  <si>
+    <t>53799</t>
+  </si>
+  <si>
+    <t>a person or firm that employs workers</t>
+  </si>
+  <si>
+    <t>has_participatedIn</t>
+  </si>
+  <si>
+    <t>55912</t>
+  </si>
+  <si>
+    <t>someone who takes part in an activity</t>
+  </si>
+  <si>
+    <t>has_music</t>
+  </si>
+  <si>
+    <t>37766</t>
+  </si>
+  <si>
+    <t>an artistic form of auditory communication incorporating instrumental or vocal tones in a structured and continuous manner</t>
+  </si>
+  <si>
+    <t>has_seller</t>
+  </si>
+  <si>
+    <t>56890</t>
+  </si>
+  <si>
+    <t>someone who promotes or exchanges goods or services for money</t>
+  </si>
+  <si>
+    <t>has_sponsor</t>
+  </si>
+  <si>
+    <t>55947</t>
+  </si>
+  <si>
+    <t>someone who supports or champions something</t>
+  </si>
+  <si>
+    <t>has_copyright</t>
+  </si>
+  <si>
+    <t>34701</t>
+  </si>
+  <si>
+    <t>a document granting exclusive right to publish and sell literary or musical or artistic work</t>
+  </si>
+  <si>
+    <t>has_reservedSeat</t>
+  </si>
+  <si>
+    <t>31620</t>
+  </si>
+  <si>
+    <t>something reserved in advance (as a hotel accommodation or a seat on a plane etc.)</t>
   </si>
 </sst>
 </file>
@@ -760,13 +919,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
       <alignment wrapText="true"/>
@@ -1002,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3881,6 +4097,842 @@
         <v>20</v>
       </c>
       <c r="N65" t="s" s="78">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" ht="20.0" customHeight="true">
+      <c r="A66" t="s" s="79">
+        <v>224</v>
+      </c>
+      <c r="B66" t="s" s="79">
+        <v>20</v>
+      </c>
+      <c r="C66" t="s" s="79">
+        <v>225</v>
+      </c>
+      <c r="D66" t="s" s="79">
+        <v>22</v>
+      </c>
+      <c r="E66" t="s" s="79">
+        <v>22</v>
+      </c>
+      <c r="F66" t="s" s="79">
+        <v>23</v>
+      </c>
+      <c r="G66" t="s" s="79">
+        <v>226</v>
+      </c>
+      <c r="H66" t="s" s="79">
+        <v>25</v>
+      </c>
+      <c r="I66" t="s" s="79">
+        <v>26</v>
+      </c>
+      <c r="J66" t="s" s="79">
+        <v>20</v>
+      </c>
+      <c r="K66" t="s" s="79">
+        <v>20</v>
+      </c>
+      <c r="L66" t="s" s="79">
+        <v>27</v>
+      </c>
+      <c r="M66" t="s" s="79">
+        <v>20</v>
+      </c>
+      <c r="N66" t="s" s="79">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" ht="20.0" customHeight="true">
+      <c r="A67" t="s" s="80">
+        <v>227</v>
+      </c>
+      <c r="B67" t="s" s="80">
+        <v>20</v>
+      </c>
+      <c r="C67" t="s" s="80">
+        <v>228</v>
+      </c>
+      <c r="D67" t="s" s="80">
+        <v>22</v>
+      </c>
+      <c r="E67" t="s" s="80">
+        <v>22</v>
+      </c>
+      <c r="F67" t="s" s="80">
+        <v>23</v>
+      </c>
+      <c r="G67" t="s" s="80">
+        <v>229</v>
+      </c>
+      <c r="H67" t="s" s="80">
+        <v>25</v>
+      </c>
+      <c r="I67" t="s" s="80">
+        <v>26</v>
+      </c>
+      <c r="J67" t="s" s="80">
+        <v>20</v>
+      </c>
+      <c r="K67" t="s" s="80">
+        <v>20</v>
+      </c>
+      <c r="L67" t="s" s="80">
+        <v>27</v>
+      </c>
+      <c r="M67" t="s" s="80">
+        <v>20</v>
+      </c>
+      <c r="N67" t="s" s="80">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" ht="20.0" customHeight="true">
+      <c r="A68" t="s" s="81">
+        <v>230</v>
+      </c>
+      <c r="B68" t="s" s="81">
+        <v>20</v>
+      </c>
+      <c r="C68" t="s" s="81">
+        <v>231</v>
+      </c>
+      <c r="D68" t="s" s="81">
+        <v>22</v>
+      </c>
+      <c r="E68" t="s" s="81">
+        <v>22</v>
+      </c>
+      <c r="F68" t="s" s="81">
+        <v>23</v>
+      </c>
+      <c r="G68" t="s" s="81">
+        <v>232</v>
+      </c>
+      <c r="H68" t="s" s="81">
+        <v>25</v>
+      </c>
+      <c r="I68" t="s" s="81">
+        <v>26</v>
+      </c>
+      <c r="J68" t="s" s="81">
+        <v>20</v>
+      </c>
+      <c r="K68" t="s" s="81">
+        <v>20</v>
+      </c>
+      <c r="L68" t="s" s="81">
+        <v>27</v>
+      </c>
+      <c r="M68" t="s" s="81">
+        <v>20</v>
+      </c>
+      <c r="N68" t="s" s="81">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" ht="20.0" customHeight="true">
+      <c r="A69" t="s" s="82">
+        <v>233</v>
+      </c>
+      <c r="B69" t="s" s="82">
+        <v>20</v>
+      </c>
+      <c r="C69" t="s" s="82">
+        <v>234</v>
+      </c>
+      <c r="D69" t="s" s="82">
+        <v>22</v>
+      </c>
+      <c r="E69" t="s" s="82">
+        <v>22</v>
+      </c>
+      <c r="F69" t="s" s="82">
+        <v>23</v>
+      </c>
+      <c r="G69" t="s" s="82">
+        <v>235</v>
+      </c>
+      <c r="H69" t="s" s="82">
+        <v>25</v>
+      </c>
+      <c r="I69" t="s" s="82">
+        <v>26</v>
+      </c>
+      <c r="J69" t="s" s="82">
+        <v>20</v>
+      </c>
+      <c r="K69" t="s" s="82">
+        <v>20</v>
+      </c>
+      <c r="L69" t="s" s="82">
+        <v>27</v>
+      </c>
+      <c r="M69" t="s" s="82">
+        <v>20</v>
+      </c>
+      <c r="N69" t="s" s="82">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" ht="20.0" customHeight="true">
+      <c r="A70" t="s" s="83">
+        <v>236</v>
+      </c>
+      <c r="B70" t="s" s="83">
+        <v>20</v>
+      </c>
+      <c r="C70" t="s" s="83">
+        <v>164</v>
+      </c>
+      <c r="D70" t="s" s="83">
+        <v>22</v>
+      </c>
+      <c r="E70" t="s" s="83">
+        <v>22</v>
+      </c>
+      <c r="F70" t="s" s="83">
+        <v>23</v>
+      </c>
+      <c r="G70" t="s" s="83">
+        <v>165</v>
+      </c>
+      <c r="H70" t="s" s="83">
+        <v>25</v>
+      </c>
+      <c r="I70" t="s" s="83">
+        <v>26</v>
+      </c>
+      <c r="J70" t="s" s="83">
+        <v>20</v>
+      </c>
+      <c r="K70" t="s" s="83">
+        <v>20</v>
+      </c>
+      <c r="L70" t="s" s="83">
+        <v>27</v>
+      </c>
+      <c r="M70" t="s" s="83">
+        <v>20</v>
+      </c>
+      <c r="N70" t="s" s="83">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" ht="20.0" customHeight="true">
+      <c r="A71" t="s" s="84">
+        <v>237</v>
+      </c>
+      <c r="B71" t="s" s="84">
+        <v>20</v>
+      </c>
+      <c r="C71" t="s" s="84">
+        <v>164</v>
+      </c>
+      <c r="D71" t="s" s="84">
+        <v>22</v>
+      </c>
+      <c r="E71" t="s" s="84">
+        <v>22</v>
+      </c>
+      <c r="F71" t="s" s="84">
+        <v>23</v>
+      </c>
+      <c r="G71" t="s" s="84">
+        <v>165</v>
+      </c>
+      <c r="H71" t="s" s="84">
+        <v>25</v>
+      </c>
+      <c r="I71" t="s" s="84">
+        <v>26</v>
+      </c>
+      <c r="J71" t="s" s="84">
+        <v>20</v>
+      </c>
+      <c r="K71" t="s" s="84">
+        <v>20</v>
+      </c>
+      <c r="L71" t="s" s="84">
+        <v>27</v>
+      </c>
+      <c r="M71" t="s" s="84">
+        <v>20</v>
+      </c>
+      <c r="N71" t="s" s="84">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" ht="20.0" customHeight="true">
+      <c r="A72" t="s" s="85">
+        <v>238</v>
+      </c>
+      <c r="B72" t="s" s="85">
+        <v>20</v>
+      </c>
+      <c r="C72" t="s" s="85">
+        <v>239</v>
+      </c>
+      <c r="D72" t="s" s="85">
+        <v>22</v>
+      </c>
+      <c r="E72" t="s" s="85">
+        <v>22</v>
+      </c>
+      <c r="F72" t="s" s="85">
+        <v>23</v>
+      </c>
+      <c r="G72" t="s" s="85">
+        <v>240</v>
+      </c>
+      <c r="H72" t="s" s="85">
+        <v>25</v>
+      </c>
+      <c r="I72" t="s" s="85">
+        <v>26</v>
+      </c>
+      <c r="J72" t="s" s="85">
+        <v>20</v>
+      </c>
+      <c r="K72" t="s" s="85">
+        <v>20</v>
+      </c>
+      <c r="L72" t="s" s="85">
+        <v>27</v>
+      </c>
+      <c r="M72" t="s" s="85">
+        <v>20</v>
+      </c>
+      <c r="N72" t="s" s="85">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" ht="20.0" customHeight="true">
+      <c r="A73" t="s" s="86">
+        <v>241</v>
+      </c>
+      <c r="B73" t="s" s="86">
+        <v>20</v>
+      </c>
+      <c r="C73" t="s" s="86">
+        <v>242</v>
+      </c>
+      <c r="D73" t="s" s="86">
+        <v>22</v>
+      </c>
+      <c r="E73" t="s" s="86">
+        <v>22</v>
+      </c>
+      <c r="F73" t="s" s="86">
+        <v>23</v>
+      </c>
+      <c r="G73" t="s" s="86">
+        <v>243</v>
+      </c>
+      <c r="H73" t="s" s="86">
+        <v>25</v>
+      </c>
+      <c r="I73" t="s" s="86">
+        <v>26</v>
+      </c>
+      <c r="J73" t="s" s="86">
+        <v>20</v>
+      </c>
+      <c r="K73" t="s" s="86">
+        <v>20</v>
+      </c>
+      <c r="L73" t="s" s="86">
+        <v>27</v>
+      </c>
+      <c r="M73" t="s" s="86">
+        <v>20</v>
+      </c>
+      <c r="N73" t="s" s="86">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" ht="20.0" customHeight="true">
+      <c r="A74" t="s" s="87">
+        <v>244</v>
+      </c>
+      <c r="B74" t="s" s="87">
+        <v>20</v>
+      </c>
+      <c r="C74" t="s" s="87">
+        <v>245</v>
+      </c>
+      <c r="D74" t="s" s="87">
+        <v>22</v>
+      </c>
+      <c r="E74" t="s" s="87">
+        <v>22</v>
+      </c>
+      <c r="F74" t="s" s="87">
+        <v>23</v>
+      </c>
+      <c r="G74" t="s" s="87">
+        <v>246</v>
+      </c>
+      <c r="H74" t="s" s="87">
+        <v>25</v>
+      </c>
+      <c r="I74" t="s" s="87">
+        <v>26</v>
+      </c>
+      <c r="J74" t="s" s="87">
+        <v>20</v>
+      </c>
+      <c r="K74" t="s" s="87">
+        <v>20</v>
+      </c>
+      <c r="L74" t="s" s="87">
+        <v>27</v>
+      </c>
+      <c r="M74" t="s" s="87">
+        <v>20</v>
+      </c>
+      <c r="N74" t="s" s="87">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" ht="20.0" customHeight="true">
+      <c r="A75" t="s" s="88">
+        <v>247</v>
+      </c>
+      <c r="B75" t="s" s="88">
+        <v>20</v>
+      </c>
+      <c r="C75" t="s" s="88">
+        <v>248</v>
+      </c>
+      <c r="D75" t="s" s="88">
+        <v>22</v>
+      </c>
+      <c r="E75" t="s" s="88">
+        <v>22</v>
+      </c>
+      <c r="F75" t="s" s="88">
+        <v>23</v>
+      </c>
+      <c r="G75" t="s" s="88">
+        <v>249</v>
+      </c>
+      <c r="H75" t="s" s="88">
+        <v>25</v>
+      </c>
+      <c r="I75" t="s" s="88">
+        <v>26</v>
+      </c>
+      <c r="J75" t="s" s="88">
+        <v>20</v>
+      </c>
+      <c r="K75" t="s" s="88">
+        <v>20</v>
+      </c>
+      <c r="L75" t="s" s="88">
+        <v>27</v>
+      </c>
+      <c r="M75" t="s" s="88">
+        <v>20</v>
+      </c>
+      <c r="N75" t="s" s="88">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" ht="20.0" customHeight="true">
+      <c r="A76" t="s" s="89">
+        <v>250</v>
+      </c>
+      <c r="B76" t="s" s="89">
+        <v>20</v>
+      </c>
+      <c r="C76" t="s" s="89">
+        <v>251</v>
+      </c>
+      <c r="D76" t="s" s="89">
+        <v>22</v>
+      </c>
+      <c r="E76" t="s" s="89">
+        <v>22</v>
+      </c>
+      <c r="F76" t="s" s="89">
+        <v>23</v>
+      </c>
+      <c r="G76" t="s" s="89">
+        <v>252</v>
+      </c>
+      <c r="H76" t="s" s="89">
+        <v>25</v>
+      </c>
+      <c r="I76" t="s" s="89">
+        <v>26</v>
+      </c>
+      <c r="J76" t="s" s="89">
+        <v>20</v>
+      </c>
+      <c r="K76" t="s" s="89">
+        <v>20</v>
+      </c>
+      <c r="L76" t="s" s="89">
+        <v>27</v>
+      </c>
+      <c r="M76" t="s" s="89">
+        <v>20</v>
+      </c>
+      <c r="N76" t="s" s="89">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" ht="20.0" customHeight="true">
+      <c r="A77" t="s" s="90">
+        <v>253</v>
+      </c>
+      <c r="B77" t="s" s="90">
+        <v>20</v>
+      </c>
+      <c r="C77" t="s" s="90">
+        <v>254</v>
+      </c>
+      <c r="D77" t="s" s="90">
+        <v>22</v>
+      </c>
+      <c r="E77" t="s" s="90">
+        <v>22</v>
+      </c>
+      <c r="F77" t="s" s="90">
+        <v>23</v>
+      </c>
+      <c r="G77" t="s" s="90">
+        <v>255</v>
+      </c>
+      <c r="H77" t="s" s="90">
+        <v>25</v>
+      </c>
+      <c r="I77" t="s" s="90">
+        <v>26</v>
+      </c>
+      <c r="J77" t="s" s="90">
+        <v>20</v>
+      </c>
+      <c r="K77" t="s" s="90">
+        <v>20</v>
+      </c>
+      <c r="L77" t="s" s="90">
+        <v>27</v>
+      </c>
+      <c r="M77" t="s" s="90">
+        <v>20</v>
+      </c>
+      <c r="N77" t="s" s="90">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" ht="20.0" customHeight="true">
+      <c r="A78" t="s" s="91">
+        <v>256</v>
+      </c>
+      <c r="B78" t="s" s="91">
+        <v>20</v>
+      </c>
+      <c r="C78" t="s" s="91">
+        <v>257</v>
+      </c>
+      <c r="D78" t="s" s="91">
+        <v>22</v>
+      </c>
+      <c r="E78" t="s" s="91">
+        <v>22</v>
+      </c>
+      <c r="F78" t="s" s="91">
+        <v>23</v>
+      </c>
+      <c r="G78" t="s" s="91">
+        <v>258</v>
+      </c>
+      <c r="H78" t="s" s="91">
+        <v>25</v>
+      </c>
+      <c r="I78" t="s" s="91">
+        <v>26</v>
+      </c>
+      <c r="J78" t="s" s="91">
+        <v>20</v>
+      </c>
+      <c r="K78" t="s" s="91">
+        <v>20</v>
+      </c>
+      <c r="L78" t="s" s="91">
+        <v>27</v>
+      </c>
+      <c r="M78" t="s" s="91">
+        <v>20</v>
+      </c>
+      <c r="N78" t="s" s="91">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" ht="20.0" customHeight="true">
+      <c r="A79" t="s" s="92">
+        <v>259</v>
+      </c>
+      <c r="B79" t="s" s="92">
+        <v>20</v>
+      </c>
+      <c r="C79" t="s" s="92">
+        <v>260</v>
+      </c>
+      <c r="D79" t="s" s="92">
+        <v>22</v>
+      </c>
+      <c r="E79" t="s" s="92">
+        <v>22</v>
+      </c>
+      <c r="F79" t="s" s="92">
+        <v>23</v>
+      </c>
+      <c r="G79" t="s" s="92">
+        <v>261</v>
+      </c>
+      <c r="H79" t="s" s="92">
+        <v>25</v>
+      </c>
+      <c r="I79" t="s" s="92">
+        <v>26</v>
+      </c>
+      <c r="J79" t="s" s="92">
+        <v>20</v>
+      </c>
+      <c r="K79" t="s" s="92">
+        <v>20</v>
+      </c>
+      <c r="L79" t="s" s="92">
+        <v>27</v>
+      </c>
+      <c r="M79" t="s" s="92">
+        <v>20</v>
+      </c>
+      <c r="N79" t="s" s="92">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" ht="20.0" customHeight="true">
+      <c r="A80" t="s" s="93">
+        <v>262</v>
+      </c>
+      <c r="B80" t="s" s="93">
+        <v>20</v>
+      </c>
+      <c r="C80" t="s" s="93">
+        <v>263</v>
+      </c>
+      <c r="D80" t="s" s="93">
+        <v>22</v>
+      </c>
+      <c r="E80" t="s" s="93">
+        <v>22</v>
+      </c>
+      <c r="F80" t="s" s="93">
+        <v>23</v>
+      </c>
+      <c r="G80" t="s" s="93">
+        <v>264</v>
+      </c>
+      <c r="H80" t="s" s="93">
+        <v>25</v>
+      </c>
+      <c r="I80" t="s" s="93">
+        <v>26</v>
+      </c>
+      <c r="J80" t="s" s="93">
+        <v>20</v>
+      </c>
+      <c r="K80" t="s" s="93">
+        <v>20</v>
+      </c>
+      <c r="L80" t="s" s="93">
+        <v>27</v>
+      </c>
+      <c r="M80" t="s" s="93">
+        <v>20</v>
+      </c>
+      <c r="N80" t="s" s="93">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" ht="20.0" customHeight="true">
+      <c r="A81" t="s" s="94">
+        <v>265</v>
+      </c>
+      <c r="B81" t="s" s="94">
+        <v>20</v>
+      </c>
+      <c r="C81" t="s" s="94">
+        <v>266</v>
+      </c>
+      <c r="D81" t="s" s="94">
+        <v>22</v>
+      </c>
+      <c r="E81" t="s" s="94">
+        <v>22</v>
+      </c>
+      <c r="F81" t="s" s="94">
+        <v>23</v>
+      </c>
+      <c r="G81" t="s" s="94">
+        <v>267</v>
+      </c>
+      <c r="H81" t="s" s="94">
+        <v>25</v>
+      </c>
+      <c r="I81" t="s" s="94">
+        <v>26</v>
+      </c>
+      <c r="J81" t="s" s="94">
+        <v>20</v>
+      </c>
+      <c r="K81" t="s" s="94">
+        <v>20</v>
+      </c>
+      <c r="L81" t="s" s="94">
+        <v>27</v>
+      </c>
+      <c r="M81" t="s" s="94">
+        <v>20</v>
+      </c>
+      <c r="N81" t="s" s="94">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" ht="20.0" customHeight="true">
+      <c r="A82" t="s" s="95">
+        <v>268</v>
+      </c>
+      <c r="B82" t="s" s="95">
+        <v>20</v>
+      </c>
+      <c r="C82" t="s" s="95">
+        <v>269</v>
+      </c>
+      <c r="D82" t="s" s="95">
+        <v>22</v>
+      </c>
+      <c r="E82" t="s" s="95">
+        <v>22</v>
+      </c>
+      <c r="F82" t="s" s="95">
+        <v>23</v>
+      </c>
+      <c r="G82" t="s" s="95">
+        <v>270</v>
+      </c>
+      <c r="H82" t="s" s="95">
+        <v>25</v>
+      </c>
+      <c r="I82" t="s" s="95">
+        <v>26</v>
+      </c>
+      <c r="J82" t="s" s="95">
+        <v>20</v>
+      </c>
+      <c r="K82" t="s" s="95">
+        <v>20</v>
+      </c>
+      <c r="L82" t="s" s="95">
+        <v>27</v>
+      </c>
+      <c r="M82" t="s" s="95">
+        <v>20</v>
+      </c>
+      <c r="N82" t="s" s="95">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" ht="20.0" customHeight="true">
+      <c r="A83" t="s" s="96">
+        <v>271</v>
+      </c>
+      <c r="B83" t="s" s="96">
+        <v>20</v>
+      </c>
+      <c r="C83" t="s" s="96">
+        <v>272</v>
+      </c>
+      <c r="D83" t="s" s="96">
+        <v>22</v>
+      </c>
+      <c r="E83" t="s" s="96">
+        <v>22</v>
+      </c>
+      <c r="F83" t="s" s="96">
+        <v>23</v>
+      </c>
+      <c r="G83" t="s" s="96">
+        <v>273</v>
+      </c>
+      <c r="H83" t="s" s="96">
+        <v>25</v>
+      </c>
+      <c r="I83" t="s" s="96">
+        <v>26</v>
+      </c>
+      <c r="J83" t="s" s="96">
+        <v>20</v>
+      </c>
+      <c r="K83" t="s" s="96">
+        <v>20</v>
+      </c>
+      <c r="L83" t="s" s="96">
+        <v>27</v>
+      </c>
+      <c r="M83" t="s" s="96">
+        <v>20</v>
+      </c>
+      <c r="N83" t="s" s="96">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" ht="20.0" customHeight="true">
+      <c r="A84" t="s" s="97">
+        <v>274</v>
+      </c>
+      <c r="B84" t="s" s="97">
+        <v>20</v>
+      </c>
+      <c r="C84" t="s" s="97">
+        <v>275</v>
+      </c>
+      <c r="D84" t="s" s="97">
+        <v>22</v>
+      </c>
+      <c r="E84" t="s" s="97">
+        <v>22</v>
+      </c>
+      <c r="F84" t="s" s="97">
+        <v>23</v>
+      </c>
+      <c r="G84" t="s" s="97">
+        <v>276</v>
+      </c>
+      <c r="H84" t="s" s="97">
+        <v>25</v>
+      </c>
+      <c r="I84" t="s" s="97">
+        <v>26</v>
+      </c>
+      <c r="J84" t="s" s="97">
+        <v>20</v>
+      </c>
+      <c r="K84" t="s" s="97">
+        <v>20</v>
+      </c>
+      <c r="L84" t="s" s="97">
+        <v>27</v>
+      </c>
+      <c r="M84" t="s" s="97">
+        <v>20</v>
+      </c>
+      <c r="N84" t="s" s="97">
         <v>27</v>
       </c>
     </row>

--- a/Teleologies/Formal Modeling/changeLog.xlsx
+++ b/Teleologies/Formal Modeling/changeLog.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="283">
   <si>
     <t>Cased Word Lemma</t>
   </si>
@@ -844,6 +844,24 @@
   </si>
   <si>
     <t>something reserved in advance (as a hotel accommodation or a seat on a plane etc.)</t>
+  </si>
+  <si>
+    <t>has_produce</t>
+  </si>
+  <si>
+    <t>108406</t>
+  </si>
+  <si>
+    <t>create or manufacture a man-made product</t>
+  </si>
+  <si>
+    <t>has_purchaser</t>
+  </si>
+  <si>
+    <t>52833</t>
+  </si>
+  <si>
+    <t>a person who buys</t>
   </si>
 </sst>
 </file>
@@ -919,13 +937,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
       <alignment wrapText="true"/>
@@ -1218,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N84"/>
+  <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4933,6 +4957,94 @@
         <v>20</v>
       </c>
       <c r="N84" t="s" s="97">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" ht="20.0" customHeight="true">
+      <c r="A85" t="s" s="98">
+        <v>277</v>
+      </c>
+      <c r="B85" t="s" s="98">
+        <v>20</v>
+      </c>
+      <c r="C85" t="s" s="98">
+        <v>278</v>
+      </c>
+      <c r="D85" t="s" s="98">
+        <v>22</v>
+      </c>
+      <c r="E85" t="s" s="98">
+        <v>22</v>
+      </c>
+      <c r="F85" t="s" s="98">
+        <v>23</v>
+      </c>
+      <c r="G85" t="s" s="98">
+        <v>279</v>
+      </c>
+      <c r="H85" t="s" s="98">
+        <v>25</v>
+      </c>
+      <c r="I85" t="s" s="98">
+        <v>26</v>
+      </c>
+      <c r="J85" t="s" s="98">
+        <v>20</v>
+      </c>
+      <c r="K85" t="s" s="98">
+        <v>20</v>
+      </c>
+      <c r="L85" t="s" s="98">
+        <v>27</v>
+      </c>
+      <c r="M85" t="s" s="98">
+        <v>20</v>
+      </c>
+      <c r="N85" t="s" s="98">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" ht="20.0" customHeight="true">
+      <c r="A86" t="s" s="99">
+        <v>280</v>
+      </c>
+      <c r="B86" t="s" s="99">
+        <v>20</v>
+      </c>
+      <c r="C86" t="s" s="99">
+        <v>281</v>
+      </c>
+      <c r="D86" t="s" s="99">
+        <v>22</v>
+      </c>
+      <c r="E86" t="s" s="99">
+        <v>22</v>
+      </c>
+      <c r="F86" t="s" s="99">
+        <v>23</v>
+      </c>
+      <c r="G86" t="s" s="99">
+        <v>282</v>
+      </c>
+      <c r="H86" t="s" s="99">
+        <v>25</v>
+      </c>
+      <c r="I86" t="s" s="99">
+        <v>26</v>
+      </c>
+      <c r="J86" t="s" s="99">
+        <v>20</v>
+      </c>
+      <c r="K86" t="s" s="99">
+        <v>20</v>
+      </c>
+      <c r="L86" t="s" s="99">
+        <v>27</v>
+      </c>
+      <c r="M86" t="s" s="99">
+        <v>20</v>
+      </c>
+      <c r="N86" t="s" s="99">
         <v>27</v>
       </c>
     </row>

--- a/Teleologies/Formal Modeling/changeLog.xlsx
+++ b/Teleologies/Formal Modeling/changeLog.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="298">
   <si>
     <t>Cased Word Lemma</t>
   </si>
@@ -862,6 +862,51 @@
   </si>
   <si>
     <t>a person who buys</t>
+  </si>
+  <si>
+    <t>has_member</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>one of the persons who compose a social group (especially individuals who have joined and participates in a group organization)</t>
+  </si>
+  <si>
+    <t>has_interactionCounter</t>
+  </si>
+  <si>
+    <t>16852</t>
+  </si>
+  <si>
+    <t>a calculator that keeps a record of the number of times something happens</t>
+  </si>
+  <si>
+    <t>has_date</t>
+  </si>
+  <si>
+    <t>80737</t>
+  </si>
+  <si>
+    <t>a particular day specified as the time something happens</t>
+  </si>
+  <si>
+    <t>has_start</t>
+  </si>
+  <si>
+    <t>80741</t>
+  </si>
+  <si>
+    <t>the particular day, month, or year (usually according to the Gregorian calendar) that an event occurred</t>
+  </si>
+  <si>
+    <t>has_sport</t>
+  </si>
+  <si>
+    <t>2681</t>
+  </si>
+  <si>
+    <t>an active diversion requiring physical exertion and competition</t>
   </si>
 </sst>
 </file>
@@ -937,13 +982,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
       <alignment wrapText="true"/>
@@ -1242,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N86"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5045,6 +5105,226 @@
         <v>20</v>
       </c>
       <c r="N86" t="s" s="99">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" ht="20.0" customHeight="true">
+      <c r="A87" t="s" s="100">
+        <v>283</v>
+      </c>
+      <c r="B87" t="s" s="100">
+        <v>20</v>
+      </c>
+      <c r="C87" t="s" s="100">
+        <v>284</v>
+      </c>
+      <c r="D87" t="s" s="100">
+        <v>22</v>
+      </c>
+      <c r="E87" t="s" s="100">
+        <v>22</v>
+      </c>
+      <c r="F87" t="s" s="100">
+        <v>23</v>
+      </c>
+      <c r="G87" t="s" s="100">
+        <v>285</v>
+      </c>
+      <c r="H87" t="s" s="100">
+        <v>25</v>
+      </c>
+      <c r="I87" t="s" s="100">
+        <v>26</v>
+      </c>
+      <c r="J87" t="s" s="100">
+        <v>20</v>
+      </c>
+      <c r="K87" t="s" s="100">
+        <v>20</v>
+      </c>
+      <c r="L87" t="s" s="100">
+        <v>27</v>
+      </c>
+      <c r="M87" t="s" s="100">
+        <v>20</v>
+      </c>
+      <c r="N87" t="s" s="100">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" ht="20.0" customHeight="true">
+      <c r="A88" t="s" s="101">
+        <v>286</v>
+      </c>
+      <c r="B88" t="s" s="101">
+        <v>20</v>
+      </c>
+      <c r="C88" t="s" s="101">
+        <v>287</v>
+      </c>
+      <c r="D88" t="s" s="101">
+        <v>22</v>
+      </c>
+      <c r="E88" t="s" s="101">
+        <v>22</v>
+      </c>
+      <c r="F88" t="s" s="101">
+        <v>23</v>
+      </c>
+      <c r="G88" t="s" s="101">
+        <v>288</v>
+      </c>
+      <c r="H88" t="s" s="101">
+        <v>25</v>
+      </c>
+      <c r="I88" t="s" s="101">
+        <v>26</v>
+      </c>
+      <c r="J88" t="s" s="101">
+        <v>20</v>
+      </c>
+      <c r="K88" t="s" s="101">
+        <v>20</v>
+      </c>
+      <c r="L88" t="s" s="101">
+        <v>27</v>
+      </c>
+      <c r="M88" t="s" s="101">
+        <v>20</v>
+      </c>
+      <c r="N88" t="s" s="101">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" ht="20.0" customHeight="true">
+      <c r="A89" t="s" s="102">
+        <v>289</v>
+      </c>
+      <c r="B89" t="s" s="102">
+        <v>20</v>
+      </c>
+      <c r="C89" t="s" s="102">
+        <v>290</v>
+      </c>
+      <c r="D89" t="s" s="102">
+        <v>22</v>
+      </c>
+      <c r="E89" t="s" s="102">
+        <v>22</v>
+      </c>
+      <c r="F89" t="s" s="102">
+        <v>23</v>
+      </c>
+      <c r="G89" t="s" s="102">
+        <v>291</v>
+      </c>
+      <c r="H89" t="s" s="102">
+        <v>25</v>
+      </c>
+      <c r="I89" t="s" s="102">
+        <v>26</v>
+      </c>
+      <c r="J89" t="s" s="102">
+        <v>20</v>
+      </c>
+      <c r="K89" t="s" s="102">
+        <v>20</v>
+      </c>
+      <c r="L89" t="s" s="102">
+        <v>27</v>
+      </c>
+      <c r="M89" t="s" s="102">
+        <v>20</v>
+      </c>
+      <c r="N89" t="s" s="102">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" ht="20.0" customHeight="true">
+      <c r="A90" t="s" s="103">
+        <v>292</v>
+      </c>
+      <c r="B90" t="s" s="103">
+        <v>20</v>
+      </c>
+      <c r="C90" t="s" s="103">
+        <v>293</v>
+      </c>
+      <c r="D90" t="s" s="103">
+        <v>22</v>
+      </c>
+      <c r="E90" t="s" s="103">
+        <v>22</v>
+      </c>
+      <c r="F90" t="s" s="103">
+        <v>23</v>
+      </c>
+      <c r="G90" t="s" s="103">
+        <v>294</v>
+      </c>
+      <c r="H90" t="s" s="103">
+        <v>25</v>
+      </c>
+      <c r="I90" t="s" s="103">
+        <v>26</v>
+      </c>
+      <c r="J90" t="s" s="103">
+        <v>20</v>
+      </c>
+      <c r="K90" t="s" s="103">
+        <v>20</v>
+      </c>
+      <c r="L90" t="s" s="103">
+        <v>27</v>
+      </c>
+      <c r="M90" t="s" s="103">
+        <v>20</v>
+      </c>
+      <c r="N90" t="s" s="103">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" ht="20.0" customHeight="true">
+      <c r="A91" t="s" s="104">
+        <v>295</v>
+      </c>
+      <c r="B91" t="s" s="104">
+        <v>20</v>
+      </c>
+      <c r="C91" t="s" s="104">
+        <v>296</v>
+      </c>
+      <c r="D91" t="s" s="104">
+        <v>22</v>
+      </c>
+      <c r="E91" t="s" s="104">
+        <v>22</v>
+      </c>
+      <c r="F91" t="s" s="104">
+        <v>23</v>
+      </c>
+      <c r="G91" t="s" s="104">
+        <v>297</v>
+      </c>
+      <c r="H91" t="s" s="104">
+        <v>25</v>
+      </c>
+      <c r="I91" t="s" s="104">
+        <v>26</v>
+      </c>
+      <c r="J91" t="s" s="104">
+        <v>20</v>
+      </c>
+      <c r="K91" t="s" s="104">
+        <v>20</v>
+      </c>
+      <c r="L91" t="s" s="104">
+        <v>27</v>
+      </c>
+      <c r="M91" t="s" s="104">
+        <v>20</v>
+      </c>
+      <c r="N91" t="s" s="104">
         <v>27</v>
       </c>
     </row>

--- a/Teleologies/Formal Modeling/changeLog.xlsx
+++ b/Teleologies/Formal Modeling/changeLog.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="350">
   <si>
     <t>Cased Word Lemma</t>
   </si>
@@ -907,6 +907,162 @@
   </si>
   <si>
     <t>an active diversion requiring physical exertion and competition</t>
+  </si>
+  <si>
+    <t>has_cost</t>
+  </si>
+  <si>
+    <t>has_nationality</t>
+  </si>
+  <si>
+    <t>74177</t>
+  </si>
+  <si>
+    <t>the status of belonging to a particular nation by birth or naturalization</t>
+  </si>
+  <si>
+    <t>has_totalMember</t>
+  </si>
+  <si>
+    <t>24136</t>
+  </si>
+  <si>
+    <t>the whole amount</t>
+  </si>
+  <si>
+    <t>NUTScode</t>
+  </si>
+  <si>
+    <t>-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nomenclature of Territorial Units for Statistics (NUTS) is a geocode standard for referencing the subdivisions of countries for statistical purposes within the European Union. </t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>has_importDate</t>
+  </si>
+  <si>
+    <t>-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicates the date when the object information was uploaded. </t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>has_content</t>
+  </si>
+  <si>
+    <t>35359</t>
+  </si>
+  <si>
+    <t>what a communication that is about something is about</t>
+  </si>
+  <si>
+    <t>has_organizationID</t>
+  </si>
+  <si>
+    <t>has_ECTS</t>
+  </si>
+  <si>
+    <t>-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The European Credit Transfer and Accumulation System (ECTS) is a tool of the European Higher Education Area for making studies and courses more transparent. They represent learning based on defined learning outcomes and associated workload. </t>
+  </si>
+  <si>
+    <t>4503</t>
+  </si>
+  <si>
+    <t>evaluation</t>
+  </si>
+  <si>
+    <t>has_freeEntry</t>
+  </si>
+  <si>
+    <t>91356</t>
+  </si>
+  <si>
+    <t>costing nothing</t>
+  </si>
+  <si>
+    <t>has_birthdate</t>
+  </si>
+  <si>
+    <t>81257</t>
+  </si>
+  <si>
+    <t>the date on which a person was born</t>
+  </si>
+  <si>
+    <t>has_end</t>
+  </si>
+  <si>
+    <t>81330</t>
+  </si>
+  <si>
+    <t>the point in time at which something ends</t>
+  </si>
+  <si>
+    <t>has_requiredSkills</t>
+  </si>
+  <si>
+    <t>32072</t>
+  </si>
+  <si>
+    <t>something that is required in advance</t>
+  </si>
+  <si>
+    <t>has_originalLanguage</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>not derived or copied or translated from something else</t>
+  </si>
+  <si>
+    <t>has_challenge</t>
+  </si>
+  <si>
+    <t>74072</t>
+  </si>
+  <si>
+    <t>a demanding or stimulating situation</t>
+  </si>
+  <si>
+    <t>has_superOrganization</t>
+  </si>
+  <si>
+    <t>44231</t>
+  </si>
+  <si>
+    <t>an organization that is a member of another organization (especially a state that belongs to a group of nations)</t>
+  </si>
+  <si>
+    <t>has_ratingValue</t>
+  </si>
+  <si>
+    <t>has_role</t>
+  </si>
+  <si>
+    <t>3735</t>
+  </si>
+  <si>
+    <t>the actions and activities assigned to or required or expected of a person or group</t>
+  </si>
+  <si>
+    <t>has_topic</t>
+  </si>
+  <si>
+    <t>35361</t>
+  </si>
+  <si>
+    <t>the subject matter of a conversation or discussion</t>
   </si>
 </sst>
 </file>
@@ -982,13 +1138,76 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
       <alignment wrapText="true"/>
@@ -1302,7 +1521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5328,6 +5547,798 @@
         <v>27</v>
       </c>
     </row>
+    <row r="92" ht="20.0" customHeight="true">
+      <c r="A92" t="s" s="105">
+        <v>298</v>
+      </c>
+      <c r="B92" t="s" s="105">
+        <v>20</v>
+      </c>
+      <c r="C92" t="s" s="105">
+        <v>170</v>
+      </c>
+      <c r="D92" t="s" s="105">
+        <v>22</v>
+      </c>
+      <c r="E92" t="s" s="105">
+        <v>22</v>
+      </c>
+      <c r="F92" t="s" s="105">
+        <v>23</v>
+      </c>
+      <c r="G92" t="s" s="105">
+        <v>171</v>
+      </c>
+      <c r="H92" t="s" s="105">
+        <v>25</v>
+      </c>
+      <c r="I92" t="s" s="105">
+        <v>26</v>
+      </c>
+      <c r="J92" t="s" s="105">
+        <v>20</v>
+      </c>
+      <c r="K92" t="s" s="105">
+        <v>20</v>
+      </c>
+      <c r="L92" t="s" s="105">
+        <v>27</v>
+      </c>
+      <c r="M92" t="s" s="105">
+        <v>20</v>
+      </c>
+      <c r="N92" t="s" s="105">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" ht="20.0" customHeight="true">
+      <c r="A93" t="s" s="106">
+        <v>299</v>
+      </c>
+      <c r="B93" t="s" s="106">
+        <v>20</v>
+      </c>
+      <c r="C93" t="s" s="106">
+        <v>300</v>
+      </c>
+      <c r="D93" t="s" s="106">
+        <v>22</v>
+      </c>
+      <c r="E93" t="s" s="106">
+        <v>22</v>
+      </c>
+      <c r="F93" t="s" s="106">
+        <v>23</v>
+      </c>
+      <c r="G93" t="s" s="106">
+        <v>301</v>
+      </c>
+      <c r="H93" t="s" s="106">
+        <v>25</v>
+      </c>
+      <c r="I93" t="s" s="106">
+        <v>26</v>
+      </c>
+      <c r="J93" t="s" s="106">
+        <v>20</v>
+      </c>
+      <c r="K93" t="s" s="106">
+        <v>20</v>
+      </c>
+      <c r="L93" t="s" s="106">
+        <v>27</v>
+      </c>
+      <c r="M93" t="s" s="106">
+        <v>20</v>
+      </c>
+      <c r="N93" t="s" s="106">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" ht="20.0" customHeight="true">
+      <c r="A94" t="s" s="107">
+        <v>302</v>
+      </c>
+      <c r="B94" t="s" s="107">
+        <v>20</v>
+      </c>
+      <c r="C94" t="s" s="107">
+        <v>303</v>
+      </c>
+      <c r="D94" t="s" s="107">
+        <v>22</v>
+      </c>
+      <c r="E94" t="s" s="107">
+        <v>22</v>
+      </c>
+      <c r="F94" t="s" s="107">
+        <v>23</v>
+      </c>
+      <c r="G94" t="s" s="107">
+        <v>304</v>
+      </c>
+      <c r="H94" t="s" s="107">
+        <v>25</v>
+      </c>
+      <c r="I94" t="s" s="107">
+        <v>26</v>
+      </c>
+      <c r="J94" t="s" s="107">
+        <v>20</v>
+      </c>
+      <c r="K94" t="s" s="107">
+        <v>20</v>
+      </c>
+      <c r="L94" t="s" s="107">
+        <v>27</v>
+      </c>
+      <c r="M94" t="s" s="107">
+        <v>20</v>
+      </c>
+      <c r="N94" t="s" s="107">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" ht="20.0" customHeight="true">
+      <c r="A95" t="s" s="108">
+        <v>305</v>
+      </c>
+      <c r="B95" t="s" s="108">
+        <v>20</v>
+      </c>
+      <c r="C95" t="s" s="108">
+        <v>306</v>
+      </c>
+      <c r="D95" t="s" s="108">
+        <v>22</v>
+      </c>
+      <c r="E95" t="s" s="108">
+        <v>22</v>
+      </c>
+      <c r="F95" t="s" s="108">
+        <v>23</v>
+      </c>
+      <c r="G95" t="s" s="108">
+        <v>307</v>
+      </c>
+      <c r="H95" t="s" s="108">
+        <v>25</v>
+      </c>
+      <c r="I95" t="s" s="108">
+        <v>26</v>
+      </c>
+      <c r="J95" t="s" s="108">
+        <v>20</v>
+      </c>
+      <c r="K95" t="s" s="108">
+        <v>20</v>
+      </c>
+      <c r="L95" t="s" s="108">
+        <v>27</v>
+      </c>
+      <c r="M95" t="s" s="108">
+        <v>20</v>
+      </c>
+      <c r="N95" t="s" s="108">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" ht="20.0" customHeight="true">
+      <c r="A96" t="s" s="110">
+        <v>309</v>
+      </c>
+      <c r="B96" t="s" s="110">
+        <v>20</v>
+      </c>
+      <c r="C96" t="s" s="110">
+        <v>310</v>
+      </c>
+      <c r="D96" t="s" s="110">
+        <v>22</v>
+      </c>
+      <c r="E96" t="s" s="110">
+        <v>22</v>
+      </c>
+      <c r="F96" t="s" s="110">
+        <v>23</v>
+      </c>
+      <c r="G96" t="s" s="110">
+        <v>311</v>
+      </c>
+      <c r="H96" t="s" s="110">
+        <v>25</v>
+      </c>
+      <c r="I96" t="s" s="110">
+        <v>26</v>
+      </c>
+      <c r="J96" t="s" s="110">
+        <v>20</v>
+      </c>
+      <c r="K96" t="s" s="110">
+        <v>20</v>
+      </c>
+      <c r="L96" t="s" s="110">
+        <v>27</v>
+      </c>
+      <c r="M96" t="s" s="110">
+        <v>20</v>
+      </c>
+      <c r="N96" t="s" s="110">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" ht="20.0" customHeight="true">
+      <c r="A97" t="s" s="112">
+        <v>313</v>
+      </c>
+      <c r="B97" t="s" s="112">
+        <v>20</v>
+      </c>
+      <c r="C97" t="s" s="112">
+        <v>314</v>
+      </c>
+      <c r="D97" t="s" s="112">
+        <v>22</v>
+      </c>
+      <c r="E97" t="s" s="112">
+        <v>22</v>
+      </c>
+      <c r="F97" t="s" s="112">
+        <v>23</v>
+      </c>
+      <c r="G97" t="s" s="112">
+        <v>315</v>
+      </c>
+      <c r="H97" t="s" s="112">
+        <v>25</v>
+      </c>
+      <c r="I97" t="s" s="112">
+        <v>26</v>
+      </c>
+      <c r="J97" t="s" s="112">
+        <v>20</v>
+      </c>
+      <c r="K97" t="s" s="112">
+        <v>20</v>
+      </c>
+      <c r="L97" t="s" s="112">
+        <v>27</v>
+      </c>
+      <c r="M97" t="s" s="112">
+        <v>20</v>
+      </c>
+      <c r="N97" t="s" s="112">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" ht="20.0" customHeight="true">
+      <c r="A98" t="s" s="113">
+        <v>316</v>
+      </c>
+      <c r="B98" t="s" s="113">
+        <v>20</v>
+      </c>
+      <c r="C98" t="s" s="113">
+        <v>164</v>
+      </c>
+      <c r="D98" t="s" s="113">
+        <v>22</v>
+      </c>
+      <c r="E98" t="s" s="113">
+        <v>22</v>
+      </c>
+      <c r="F98" t="s" s="113">
+        <v>23</v>
+      </c>
+      <c r="G98" t="s" s="113">
+        <v>165</v>
+      </c>
+      <c r="H98" t="s" s="113">
+        <v>25</v>
+      </c>
+      <c r="I98" t="s" s="113">
+        <v>26</v>
+      </c>
+      <c r="J98" t="s" s="113">
+        <v>20</v>
+      </c>
+      <c r="K98" t="s" s="113">
+        <v>20</v>
+      </c>
+      <c r="L98" t="s" s="113">
+        <v>27</v>
+      </c>
+      <c r="M98" t="s" s="113">
+        <v>20</v>
+      </c>
+      <c r="N98" t="s" s="113">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" ht="20.0" customHeight="true">
+      <c r="A99" t="s" s="114">
+        <v>317</v>
+      </c>
+      <c r="B99" t="s" s="114">
+        <v>20</v>
+      </c>
+      <c r="C99" t="s" s="114">
+        <v>318</v>
+      </c>
+      <c r="D99" t="s" s="114">
+        <v>22</v>
+      </c>
+      <c r="E99" t="s" s="114">
+        <v>22</v>
+      </c>
+      <c r="F99" t="s" s="114">
+        <v>23</v>
+      </c>
+      <c r="G99" t="s" s="114">
+        <v>319</v>
+      </c>
+      <c r="H99" t="s" s="114">
+        <v>25</v>
+      </c>
+      <c r="I99" t="s" s="114">
+        <v>26</v>
+      </c>
+      <c r="J99" t="s" s="114">
+        <v>20</v>
+      </c>
+      <c r="K99" t="s" s="114">
+        <v>20</v>
+      </c>
+      <c r="L99" t="s" s="114">
+        <v>27</v>
+      </c>
+      <c r="M99" t="s" s="114">
+        <v>20</v>
+      </c>
+      <c r="N99" t="s" s="114">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" ht="20.0" customHeight="true">
+      <c r="A100" t="s" s="116">
+        <v>322</v>
+      </c>
+      <c r="B100" t="s" s="116">
+        <v>20</v>
+      </c>
+      <c r="C100" t="s" s="116">
+        <v>323</v>
+      </c>
+      <c r="D100" t="s" s="116">
+        <v>22</v>
+      </c>
+      <c r="E100" t="s" s="116">
+        <v>22</v>
+      </c>
+      <c r="F100" t="s" s="116">
+        <v>23</v>
+      </c>
+      <c r="G100" t="s" s="116">
+        <v>324</v>
+      </c>
+      <c r="H100" t="s" s="116">
+        <v>25</v>
+      </c>
+      <c r="I100" t="s" s="116">
+        <v>26</v>
+      </c>
+      <c r="J100" t="s" s="116">
+        <v>20</v>
+      </c>
+      <c r="K100" t="s" s="116">
+        <v>20</v>
+      </c>
+      <c r="L100" t="s" s="116">
+        <v>27</v>
+      </c>
+      <c r="M100" t="s" s="116">
+        <v>20</v>
+      </c>
+      <c r="N100" t="s" s="116">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" ht="20.0" customHeight="true">
+      <c r="A101" t="s" s="117">
+        <v>325</v>
+      </c>
+      <c r="B101" t="s" s="117">
+        <v>20</v>
+      </c>
+      <c r="C101" t="s" s="117">
+        <v>326</v>
+      </c>
+      <c r="D101" t="s" s="117">
+        <v>22</v>
+      </c>
+      <c r="E101" t="s" s="117">
+        <v>22</v>
+      </c>
+      <c r="F101" t="s" s="117">
+        <v>23</v>
+      </c>
+      <c r="G101" t="s" s="117">
+        <v>327</v>
+      </c>
+      <c r="H101" t="s" s="117">
+        <v>25</v>
+      </c>
+      <c r="I101" t="s" s="117">
+        <v>26</v>
+      </c>
+      <c r="J101" t="s" s="117">
+        <v>20</v>
+      </c>
+      <c r="K101" t="s" s="117">
+        <v>20</v>
+      </c>
+      <c r="L101" t="s" s="117">
+        <v>27</v>
+      </c>
+      <c r="M101" t="s" s="117">
+        <v>20</v>
+      </c>
+      <c r="N101" t="s" s="117">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" ht="20.0" customHeight="true">
+      <c r="A102" t="s" s="118">
+        <v>328</v>
+      </c>
+      <c r="B102" t="s" s="118">
+        <v>20</v>
+      </c>
+      <c r="C102" t="s" s="118">
+        <v>329</v>
+      </c>
+      <c r="D102" t="s" s="118">
+        <v>22</v>
+      </c>
+      <c r="E102" t="s" s="118">
+        <v>22</v>
+      </c>
+      <c r="F102" t="s" s="118">
+        <v>23</v>
+      </c>
+      <c r="G102" t="s" s="118">
+        <v>330</v>
+      </c>
+      <c r="H102" t="s" s="118">
+        <v>25</v>
+      </c>
+      <c r="I102" t="s" s="118">
+        <v>26</v>
+      </c>
+      <c r="J102" t="s" s="118">
+        <v>20</v>
+      </c>
+      <c r="K102" t="s" s="118">
+        <v>20</v>
+      </c>
+      <c r="L102" t="s" s="118">
+        <v>27</v>
+      </c>
+      <c r="M102" t="s" s="118">
+        <v>20</v>
+      </c>
+      <c r="N102" t="s" s="118">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" ht="20.0" customHeight="true">
+      <c r="A103" t="s" s="119">
+        <v>331</v>
+      </c>
+      <c r="B103" t="s" s="119">
+        <v>20</v>
+      </c>
+      <c r="C103" t="s" s="119">
+        <v>332</v>
+      </c>
+      <c r="D103" t="s" s="119">
+        <v>22</v>
+      </c>
+      <c r="E103" t="s" s="119">
+        <v>22</v>
+      </c>
+      <c r="F103" t="s" s="119">
+        <v>23</v>
+      </c>
+      <c r="G103" t="s" s="119">
+        <v>333</v>
+      </c>
+      <c r="H103" t="s" s="119">
+        <v>25</v>
+      </c>
+      <c r="I103" t="s" s="119">
+        <v>26</v>
+      </c>
+      <c r="J103" t="s" s="119">
+        <v>20</v>
+      </c>
+      <c r="K103" t="s" s="119">
+        <v>20</v>
+      </c>
+      <c r="L103" t="s" s="119">
+        <v>27</v>
+      </c>
+      <c r="M103" t="s" s="119">
+        <v>20</v>
+      </c>
+      <c r="N103" t="s" s="119">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" ht="20.0" customHeight="true">
+      <c r="A104" t="s" s="120">
+        <v>334</v>
+      </c>
+      <c r="B104" t="s" s="120">
+        <v>20</v>
+      </c>
+      <c r="C104" t="s" s="120">
+        <v>335</v>
+      </c>
+      <c r="D104" t="s" s="120">
+        <v>22</v>
+      </c>
+      <c r="E104" t="s" s="120">
+        <v>22</v>
+      </c>
+      <c r="F104" t="s" s="120">
+        <v>23</v>
+      </c>
+      <c r="G104" t="s" s="120">
+        <v>336</v>
+      </c>
+      <c r="H104" t="s" s="120">
+        <v>25</v>
+      </c>
+      <c r="I104" t="s" s="120">
+        <v>26</v>
+      </c>
+      <c r="J104" t="s" s="120">
+        <v>20</v>
+      </c>
+      <c r="K104" t="s" s="120">
+        <v>20</v>
+      </c>
+      <c r="L104" t="s" s="120">
+        <v>27</v>
+      </c>
+      <c r="M104" t="s" s="120">
+        <v>20</v>
+      </c>
+      <c r="N104" t="s" s="120">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" ht="20.0" customHeight="true">
+      <c r="A105" t="s" s="121">
+        <v>337</v>
+      </c>
+      <c r="B105" t="s" s="121">
+        <v>20</v>
+      </c>
+      <c r="C105" t="s" s="121">
+        <v>338</v>
+      </c>
+      <c r="D105" t="s" s="121">
+        <v>22</v>
+      </c>
+      <c r="E105" t="s" s="121">
+        <v>22</v>
+      </c>
+      <c r="F105" t="s" s="121">
+        <v>23</v>
+      </c>
+      <c r="G105" t="s" s="121">
+        <v>339</v>
+      </c>
+      <c r="H105" t="s" s="121">
+        <v>25</v>
+      </c>
+      <c r="I105" t="s" s="121">
+        <v>26</v>
+      </c>
+      <c r="J105" t="s" s="121">
+        <v>20</v>
+      </c>
+      <c r="K105" t="s" s="121">
+        <v>20</v>
+      </c>
+      <c r="L105" t="s" s="121">
+        <v>27</v>
+      </c>
+      <c r="M105" t="s" s="121">
+        <v>20</v>
+      </c>
+      <c r="N105" t="s" s="121">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" ht="20.0" customHeight="true">
+      <c r="A106" t="s" s="122">
+        <v>340</v>
+      </c>
+      <c r="B106" t="s" s="122">
+        <v>20</v>
+      </c>
+      <c r="C106" t="s" s="122">
+        <v>341</v>
+      </c>
+      <c r="D106" t="s" s="122">
+        <v>22</v>
+      </c>
+      <c r="E106" t="s" s="122">
+        <v>22</v>
+      </c>
+      <c r="F106" t="s" s="122">
+        <v>23</v>
+      </c>
+      <c r="G106" t="s" s="122">
+        <v>342</v>
+      </c>
+      <c r="H106" t="s" s="122">
+        <v>25</v>
+      </c>
+      <c r="I106" t="s" s="122">
+        <v>26</v>
+      </c>
+      <c r="J106" t="s" s="122">
+        <v>20</v>
+      </c>
+      <c r="K106" t="s" s="122">
+        <v>20</v>
+      </c>
+      <c r="L106" t="s" s="122">
+        <v>27</v>
+      </c>
+      <c r="M106" t="s" s="122">
+        <v>20</v>
+      </c>
+      <c r="N106" t="s" s="122">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" ht="20.0" customHeight="true">
+      <c r="A107" t="s" s="123">
+        <v>343</v>
+      </c>
+      <c r="B107" t="s" s="123">
+        <v>20</v>
+      </c>
+      <c r="C107" t="s" s="123">
+        <v>21</v>
+      </c>
+      <c r="D107" t="s" s="123">
+        <v>22</v>
+      </c>
+      <c r="E107" t="s" s="123">
+        <v>22</v>
+      </c>
+      <c r="F107" t="s" s="123">
+        <v>23</v>
+      </c>
+      <c r="G107" t="s" s="123">
+        <v>24</v>
+      </c>
+      <c r="H107" t="s" s="123">
+        <v>25</v>
+      </c>
+      <c r="I107" t="s" s="123">
+        <v>26</v>
+      </c>
+      <c r="J107" t="s" s="123">
+        <v>20</v>
+      </c>
+      <c r="K107" t="s" s="123">
+        <v>20</v>
+      </c>
+      <c r="L107" t="s" s="123">
+        <v>27</v>
+      </c>
+      <c r="M107" t="s" s="123">
+        <v>20</v>
+      </c>
+      <c r="N107" t="s" s="123">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" ht="20.0" customHeight="true">
+      <c r="A108" t="s" s="124">
+        <v>344</v>
+      </c>
+      <c r="B108" t="s" s="124">
+        <v>20</v>
+      </c>
+      <c r="C108" t="s" s="124">
+        <v>345</v>
+      </c>
+      <c r="D108" t="s" s="124">
+        <v>22</v>
+      </c>
+      <c r="E108" t="s" s="124">
+        <v>22</v>
+      </c>
+      <c r="F108" t="s" s="124">
+        <v>23</v>
+      </c>
+      <c r="G108" t="s" s="124">
+        <v>346</v>
+      </c>
+      <c r="H108" t="s" s="124">
+        <v>25</v>
+      </c>
+      <c r="I108" t="s" s="124">
+        <v>26</v>
+      </c>
+      <c r="J108" t="s" s="124">
+        <v>20</v>
+      </c>
+      <c r="K108" t="s" s="124">
+        <v>20</v>
+      </c>
+      <c r="L108" t="s" s="124">
+        <v>27</v>
+      </c>
+      <c r="M108" t="s" s="124">
+        <v>20</v>
+      </c>
+      <c r="N108" t="s" s="124">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" ht="20.0" customHeight="true">
+      <c r="A109" t="s" s="125">
+        <v>347</v>
+      </c>
+      <c r="B109" t="s" s="125">
+        <v>20</v>
+      </c>
+      <c r="C109" t="s" s="125">
+        <v>348</v>
+      </c>
+      <c r="D109" t="s" s="125">
+        <v>22</v>
+      </c>
+      <c r="E109" t="s" s="125">
+        <v>22</v>
+      </c>
+      <c r="F109" t="s" s="125">
+        <v>23</v>
+      </c>
+      <c r="G109" t="s" s="125">
+        <v>349</v>
+      </c>
+      <c r="H109" t="s" s="125">
+        <v>25</v>
+      </c>
+      <c r="I109" t="s" s="125">
+        <v>26</v>
+      </c>
+      <c r="J109" t="s" s="125">
+        <v>20</v>
+      </c>
+      <c r="K109" t="s" s="125">
+        <v>20</v>
+      </c>
+      <c r="L109" t="s" s="125">
+        <v>27</v>
+      </c>
+      <c r="M109" t="s" s="125">
+        <v>20</v>
+      </c>
+      <c r="N109" t="s" s="125">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -5335,7 +6346,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5849,6 +6860,120 @@
         <v>27</v>
       </c>
     </row>
+    <row r="14" ht="20.0" customHeight="true">
+      <c r="A14" t="s" s="109">
+        <v>164</v>
+      </c>
+      <c r="B14" t="s" s="109">
+        <v>308</v>
+      </c>
+      <c r="C14" t="s" s="109">
+        <v>306</v>
+      </c>
+      <c r="D14" t="s" s="109">
+        <v>305</v>
+      </c>
+      <c r="E14" t="s" s="109">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s" s="109">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s" s="109">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s" s="109">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s" s="109">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s" s="109">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s" s="109">
+        <v>20</v>
+      </c>
+      <c r="L14" t="s" s="109">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" ht="20.0" customHeight="true">
+      <c r="A15" t="s" s="111">
+        <v>290</v>
+      </c>
+      <c r="B15" t="s" s="111">
+        <v>312</v>
+      </c>
+      <c r="C15" t="s" s="111">
+        <v>310</v>
+      </c>
+      <c r="D15" t="s" s="111">
+        <v>309</v>
+      </c>
+      <c r="E15" t="s" s="111">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s" s="111">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s" s="111">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s" s="111">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s" s="111">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s" s="111">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s" s="111">
+        <v>20</v>
+      </c>
+      <c r="L15" t="s" s="111">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" ht="20.0" customHeight="true">
+      <c r="A16" t="s" s="115">
+        <v>320</v>
+      </c>
+      <c r="B16" t="s" s="115">
+        <v>321</v>
+      </c>
+      <c r="C16" t="s" s="115">
+        <v>318</v>
+      </c>
+      <c r="D16" t="s" s="115">
+        <v>317</v>
+      </c>
+      <c r="E16" t="s" s="115">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s" s="115">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s" s="115">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s" s="115">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s" s="115">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s" s="115">
+        <v>27</v>
+      </c>
+      <c r="K16" t="s" s="115">
+        <v>20</v>
+      </c>
+      <c r="L16" t="s" s="115">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Teleologies/Formal Modeling/changeLog.xlsx
+++ b/Teleologies/Formal Modeling/changeLog.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="372">
   <si>
     <t>Cased Word Lemma</t>
   </si>
@@ -1063,6 +1063,72 @@
   </si>
   <si>
     <t>the subject matter of a conversation or discussion</t>
+  </si>
+  <si>
+    <t>housenumber</t>
+  </si>
+  <si>
+    <t>-16</t>
+  </si>
+  <si>
+    <t>Optional, additional structured version of an external house number, or range of numbers.</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The (optional) region or subdivision (province, region, etc.) based on the ISTAT classification. </t>
+  </si>
+  <si>
+    <t>46567</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>has_organizationType</t>
+  </si>
+  <si>
+    <t>31834</t>
+  </si>
+  <si>
+    <t>a subdivision of a particular kind of thing</t>
+  </si>
+  <si>
+    <t>has_typeOfCulturalEvent</t>
+  </si>
+  <si>
+    <t>has_typeOfMembers</t>
+  </si>
+  <si>
+    <t>has_subtype</t>
+  </si>
+  <si>
+    <t>has_FacilityType</t>
+  </si>
+  <si>
+    <t>has_typeOfCreativeWork</t>
+  </si>
+  <si>
+    <t>has_needOfMaterials</t>
+  </si>
+  <si>
+    <t>20475</t>
+  </si>
+  <si>
+    <t>things needed for doing or making something</t>
+  </si>
+  <si>
+    <t>has_reachableBy</t>
+  </si>
+  <si>
+    <t>16756</t>
+  </si>
+  <si>
+    <t>something that serves as a means of transportation</t>
   </si>
 </sst>
 </file>
@@ -1138,13 +1204,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
       <alignment wrapText="true"/>
@@ -1521,7 +1623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6339,6 +6441,446 @@
         <v>27</v>
       </c>
     </row>
+    <row r="110" ht="20.0" customHeight="true">
+      <c r="A110" t="s" s="126">
+        <v>350</v>
+      </c>
+      <c r="B110" t="s" s="126">
+        <v>20</v>
+      </c>
+      <c r="C110" t="s" s="126">
+        <v>351</v>
+      </c>
+      <c r="D110" t="s" s="126">
+        <v>22</v>
+      </c>
+      <c r="E110" t="s" s="126">
+        <v>22</v>
+      </c>
+      <c r="F110" t="s" s="126">
+        <v>23</v>
+      </c>
+      <c r="G110" t="s" s="126">
+        <v>352</v>
+      </c>
+      <c r="H110" t="s" s="126">
+        <v>25</v>
+      </c>
+      <c r="I110" t="s" s="126">
+        <v>26</v>
+      </c>
+      <c r="J110" t="s" s="126">
+        <v>20</v>
+      </c>
+      <c r="K110" t="s" s="126">
+        <v>20</v>
+      </c>
+      <c r="L110" t="s" s="126">
+        <v>27</v>
+      </c>
+      <c r="M110" t="s" s="126">
+        <v>20</v>
+      </c>
+      <c r="N110" t="s" s="126">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" ht="20.0" customHeight="true">
+      <c r="A111" t="s" s="128">
+        <v>224</v>
+      </c>
+      <c r="B111" t="s" s="128">
+        <v>20</v>
+      </c>
+      <c r="C111" t="s" s="128">
+        <v>354</v>
+      </c>
+      <c r="D111" t="s" s="128">
+        <v>22</v>
+      </c>
+      <c r="E111" t="s" s="128">
+        <v>22</v>
+      </c>
+      <c r="F111" t="s" s="128">
+        <v>23</v>
+      </c>
+      <c r="G111" t="s" s="128">
+        <v>355</v>
+      </c>
+      <c r="H111" t="s" s="128">
+        <v>25</v>
+      </c>
+      <c r="I111" t="s" s="128">
+        <v>26</v>
+      </c>
+      <c r="J111" t="s" s="128">
+        <v>20</v>
+      </c>
+      <c r="K111" t="s" s="128">
+        <v>20</v>
+      </c>
+      <c r="L111" t="s" s="128">
+        <v>27</v>
+      </c>
+      <c r="M111" t="s" s="128">
+        <v>20</v>
+      </c>
+      <c r="N111" t="s" s="128">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" ht="20.0" customHeight="true">
+      <c r="A112" t="s" s="130">
+        <v>358</v>
+      </c>
+      <c r="B112" t="s" s="130">
+        <v>20</v>
+      </c>
+      <c r="C112" t="s" s="130">
+        <v>359</v>
+      </c>
+      <c r="D112" t="s" s="130">
+        <v>22</v>
+      </c>
+      <c r="E112" t="s" s="130">
+        <v>22</v>
+      </c>
+      <c r="F112" t="s" s="130">
+        <v>23</v>
+      </c>
+      <c r="G112" t="s" s="130">
+        <v>360</v>
+      </c>
+      <c r="H112" t="s" s="130">
+        <v>25</v>
+      </c>
+      <c r="I112" t="s" s="130">
+        <v>26</v>
+      </c>
+      <c r="J112" t="s" s="130">
+        <v>20</v>
+      </c>
+      <c r="K112" t="s" s="130">
+        <v>20</v>
+      </c>
+      <c r="L112" t="s" s="130">
+        <v>27</v>
+      </c>
+      <c r="M112" t="s" s="130">
+        <v>20</v>
+      </c>
+      <c r="N112" t="s" s="130">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" ht="20.0" customHeight="true">
+      <c r="A113" t="s" s="131">
+        <v>361</v>
+      </c>
+      <c r="B113" t="s" s="131">
+        <v>20</v>
+      </c>
+      <c r="C113" t="s" s="131">
+        <v>359</v>
+      </c>
+      <c r="D113" t="s" s="131">
+        <v>22</v>
+      </c>
+      <c r="E113" t="s" s="131">
+        <v>22</v>
+      </c>
+      <c r="F113" t="s" s="131">
+        <v>23</v>
+      </c>
+      <c r="G113" t="s" s="131">
+        <v>360</v>
+      </c>
+      <c r="H113" t="s" s="131">
+        <v>25</v>
+      </c>
+      <c r="I113" t="s" s="131">
+        <v>26</v>
+      </c>
+      <c r="J113" t="s" s="131">
+        <v>20</v>
+      </c>
+      <c r="K113" t="s" s="131">
+        <v>20</v>
+      </c>
+      <c r="L113" t="s" s="131">
+        <v>27</v>
+      </c>
+      <c r="M113" t="s" s="131">
+        <v>20</v>
+      </c>
+      <c r="N113" t="s" s="131">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" ht="20.0" customHeight="true">
+      <c r="A114" t="s" s="132">
+        <v>362</v>
+      </c>
+      <c r="B114" t="s" s="132">
+        <v>20</v>
+      </c>
+      <c r="C114" t="s" s="132">
+        <v>359</v>
+      </c>
+      <c r="D114" t="s" s="132">
+        <v>22</v>
+      </c>
+      <c r="E114" t="s" s="132">
+        <v>22</v>
+      </c>
+      <c r="F114" t="s" s="132">
+        <v>23</v>
+      </c>
+      <c r="G114" t="s" s="132">
+        <v>360</v>
+      </c>
+      <c r="H114" t="s" s="132">
+        <v>25</v>
+      </c>
+      <c r="I114" t="s" s="132">
+        <v>26</v>
+      </c>
+      <c r="J114" t="s" s="132">
+        <v>20</v>
+      </c>
+      <c r="K114" t="s" s="132">
+        <v>20</v>
+      </c>
+      <c r="L114" t="s" s="132">
+        <v>27</v>
+      </c>
+      <c r="M114" t="s" s="132">
+        <v>20</v>
+      </c>
+      <c r="N114" t="s" s="132">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" ht="20.0" customHeight="true">
+      <c r="A115" t="s" s="133">
+        <v>363</v>
+      </c>
+      <c r="B115" t="s" s="133">
+        <v>20</v>
+      </c>
+      <c r="C115" t="s" s="133">
+        <v>359</v>
+      </c>
+      <c r="D115" t="s" s="133">
+        <v>22</v>
+      </c>
+      <c r="E115" t="s" s="133">
+        <v>22</v>
+      </c>
+      <c r="F115" t="s" s="133">
+        <v>23</v>
+      </c>
+      <c r="G115" t="s" s="133">
+        <v>360</v>
+      </c>
+      <c r="H115" t="s" s="133">
+        <v>25</v>
+      </c>
+      <c r="I115" t="s" s="133">
+        <v>26</v>
+      </c>
+      <c r="J115" t="s" s="133">
+        <v>20</v>
+      </c>
+      <c r="K115" t="s" s="133">
+        <v>20</v>
+      </c>
+      <c r="L115" t="s" s="133">
+        <v>27</v>
+      </c>
+      <c r="M115" t="s" s="133">
+        <v>20</v>
+      </c>
+      <c r="N115" t="s" s="133">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" ht="20.0" customHeight="true">
+      <c r="A116" t="s" s="134">
+        <v>364</v>
+      </c>
+      <c r="B116" t="s" s="134">
+        <v>20</v>
+      </c>
+      <c r="C116" t="s" s="134">
+        <v>359</v>
+      </c>
+      <c r="D116" t="s" s="134">
+        <v>22</v>
+      </c>
+      <c r="E116" t="s" s="134">
+        <v>22</v>
+      </c>
+      <c r="F116" t="s" s="134">
+        <v>23</v>
+      </c>
+      <c r="G116" t="s" s="134">
+        <v>360</v>
+      </c>
+      <c r="H116" t="s" s="134">
+        <v>25</v>
+      </c>
+      <c r="I116" t="s" s="134">
+        <v>26</v>
+      </c>
+      <c r="J116" t="s" s="134">
+        <v>20</v>
+      </c>
+      <c r="K116" t="s" s="134">
+        <v>20</v>
+      </c>
+      <c r="L116" t="s" s="134">
+        <v>27</v>
+      </c>
+      <c r="M116" t="s" s="134">
+        <v>20</v>
+      </c>
+      <c r="N116" t="s" s="134">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" ht="20.0" customHeight="true">
+      <c r="A117" t="s" s="135">
+        <v>365</v>
+      </c>
+      <c r="B117" t="s" s="135">
+        <v>20</v>
+      </c>
+      <c r="C117" t="s" s="135">
+        <v>359</v>
+      </c>
+      <c r="D117" t="s" s="135">
+        <v>22</v>
+      </c>
+      <c r="E117" t="s" s="135">
+        <v>22</v>
+      </c>
+      <c r="F117" t="s" s="135">
+        <v>23</v>
+      </c>
+      <c r="G117" t="s" s="135">
+        <v>360</v>
+      </c>
+      <c r="H117" t="s" s="135">
+        <v>25</v>
+      </c>
+      <c r="I117" t="s" s="135">
+        <v>26</v>
+      </c>
+      <c r="J117" t="s" s="135">
+        <v>20</v>
+      </c>
+      <c r="K117" t="s" s="135">
+        <v>20</v>
+      </c>
+      <c r="L117" t="s" s="135">
+        <v>27</v>
+      </c>
+      <c r="M117" t="s" s="135">
+        <v>20</v>
+      </c>
+      <c r="N117" t="s" s="135">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" ht="20.0" customHeight="true">
+      <c r="A118" t="s" s="136">
+        <v>366</v>
+      </c>
+      <c r="B118" t="s" s="136">
+        <v>20</v>
+      </c>
+      <c r="C118" t="s" s="136">
+        <v>367</v>
+      </c>
+      <c r="D118" t="s" s="136">
+        <v>22</v>
+      </c>
+      <c r="E118" t="s" s="136">
+        <v>22</v>
+      </c>
+      <c r="F118" t="s" s="136">
+        <v>23</v>
+      </c>
+      <c r="G118" t="s" s="136">
+        <v>368</v>
+      </c>
+      <c r="H118" t="s" s="136">
+        <v>25</v>
+      </c>
+      <c r="I118" t="s" s="136">
+        <v>26</v>
+      </c>
+      <c r="J118" t="s" s="136">
+        <v>20</v>
+      </c>
+      <c r="K118" t="s" s="136">
+        <v>20</v>
+      </c>
+      <c r="L118" t="s" s="136">
+        <v>27</v>
+      </c>
+      <c r="M118" t="s" s="136">
+        <v>20</v>
+      </c>
+      <c r="N118" t="s" s="136">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" ht="20.0" customHeight="true">
+      <c r="A119" t="s" s="137">
+        <v>369</v>
+      </c>
+      <c r="B119" t="s" s="137">
+        <v>20</v>
+      </c>
+      <c r="C119" t="s" s="137">
+        <v>370</v>
+      </c>
+      <c r="D119" t="s" s="137">
+        <v>22</v>
+      </c>
+      <c r="E119" t="s" s="137">
+        <v>22</v>
+      </c>
+      <c r="F119" t="s" s="137">
+        <v>23</v>
+      </c>
+      <c r="G119" t="s" s="137">
+        <v>371</v>
+      </c>
+      <c r="H119" t="s" s="137">
+        <v>25</v>
+      </c>
+      <c r="I119" t="s" s="137">
+        <v>26</v>
+      </c>
+      <c r="J119" t="s" s="137">
+        <v>20</v>
+      </c>
+      <c r="K119" t="s" s="137">
+        <v>20</v>
+      </c>
+      <c r="L119" t="s" s="137">
+        <v>27</v>
+      </c>
+      <c r="M119" t="s" s="137">
+        <v>20</v>
+      </c>
+      <c r="N119" t="s" s="137">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -6346,7 +6888,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6974,6 +7516,82 @@
         <v>27</v>
       </c>
     </row>
+    <row r="17" ht="20.0" customHeight="true">
+      <c r="A17" t="s" s="127">
+        <v>222</v>
+      </c>
+      <c r="B17" t="s" s="127">
+        <v>353</v>
+      </c>
+      <c r="C17" t="s" s="127">
+        <v>351</v>
+      </c>
+      <c r="D17" t="s" s="127">
+        <v>350</v>
+      </c>
+      <c r="E17" t="s" s="127">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s" s="127">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s" s="127">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s" s="127">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s" s="127">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s" s="127">
+        <v>27</v>
+      </c>
+      <c r="K17" t="s" s="127">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s" s="127">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" ht="20.0" customHeight="true">
+      <c r="A18" t="s" s="129">
+        <v>356</v>
+      </c>
+      <c r="B18" t="s" s="129">
+        <v>357</v>
+      </c>
+      <c r="C18" t="s" s="129">
+        <v>354</v>
+      </c>
+      <c r="D18" t="s" s="129">
+        <v>224</v>
+      </c>
+      <c r="E18" t="s" s="129">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s" s="129">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s" s="129">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s" s="129">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s" s="129">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s" s="129">
+        <v>27</v>
+      </c>
+      <c r="K18" t="s" s="129">
+        <v>20</v>
+      </c>
+      <c r="L18" t="s" s="129">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Teleologies/Formal Modeling/changeLog.xlsx
+++ b/Teleologies/Formal Modeling/changeLog.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="440">
   <si>
     <t>Cased Word Lemma</t>
   </si>
@@ -1129,6 +1129,210 @@
   </si>
   <si>
     <t>something that serves as a means of transportation</t>
+  </si>
+  <si>
+    <t>has_preferredName</t>
+  </si>
+  <si>
+    <t>34009</t>
+  </si>
+  <si>
+    <t>a familiar name for a person (often a shortened version of a person's given name)</t>
+  </si>
+  <si>
+    <t>hikingTour</t>
+  </si>
+  <si>
+    <t>1458</t>
+  </si>
+  <si>
+    <t>a long walk usually for exercise or pleasure</t>
+  </si>
+  <si>
+    <t>has_festivalStatus</t>
+  </si>
+  <si>
+    <t>2647</t>
+  </si>
+  <si>
+    <t>an organized series of acts and performances (usually in one place)</t>
+  </si>
+  <si>
+    <t>has_internationalStatus</t>
+  </si>
+  <si>
+    <t>87513</t>
+  </si>
+  <si>
+    <t>from or between other countries</t>
+  </si>
+  <si>
+    <t>has_itemEvaluated</t>
+  </si>
+  <si>
+    <t>-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item whose qualitative and quantitative characteristics are assessed. </t>
+  </si>
+  <si>
+    <t>19608</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>has_tagged</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The relationship between an agent and the tagged item (Person, Organization or Event). </t>
+  </si>
+  <si>
+    <t>89420</t>
+  </si>
+  <si>
+    <t>labeled</t>
+  </si>
+  <si>
+    <t>has_openingHours</t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The time when a certain business is open for people to use it. </t>
+  </si>
+  <si>
+    <t>80526</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>has_guidedTour</t>
+  </si>
+  <si>
+    <t>109455</t>
+  </si>
+  <si>
+    <t>go to certain places as for sightseeing</t>
+  </si>
+  <si>
+    <t>has_targetAge</t>
+  </si>
+  <si>
+    <t>-21</t>
+  </si>
+  <si>
+    <t>The typical expected age range, e.g. '7-9', '11-'.</t>
+  </si>
+  <si>
+    <t>34287</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>has_superEvent</t>
+  </si>
+  <si>
+    <t>-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An event that this event is a part of. For example, a collection of individual music performances might each have a music festival as their superEvent. </t>
+  </si>
+  <si>
+    <t>has_title_it</t>
+  </si>
+  <si>
+    <t>-23</t>
+  </si>
+  <si>
+    <t>The name of the item in italian.</t>
+  </si>
+  <si>
+    <t>has_title_en</t>
+  </si>
+  <si>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>The name of the item in English</t>
+  </si>
+  <si>
+    <t>has_officialName_it</t>
+  </si>
+  <si>
+    <t>-25</t>
+  </si>
+  <si>
+    <t>The official name of the item in Italian.</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>has_hikingUsage</t>
+  </si>
+  <si>
+    <t>has_medicalCondition</t>
+  </si>
+  <si>
+    <t>-26</t>
+  </si>
+  <si>
+    <t>Any condition of the human body that affects the normal functioning of a person, whether physically or mentally. Includes diseases, injuries, disabilities, disorders, syndromes, etc.</t>
+  </si>
+  <si>
+    <t>74025</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>has_durationMin</t>
+  </si>
+  <si>
+    <t>-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The duration of an item or the length of time required to prepare, usually reported in instructions, in integer format. </t>
+  </si>
+  <si>
+    <t>80582</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>has_civicStructure</t>
+  </si>
+  <si>
+    <t>-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A public structure, such as a concert hall.</t>
+  </si>
+  <si>
+    <t>46558</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>has_hashtag</t>
+  </si>
+  <si>
+    <t>-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A metadata tag, a free-text keyword which is used to annotate a resource, that  is prefaced by the hash symbol. </t>
   </si>
 </sst>
 </file>
@@ -1204,13 +1408,103 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
       <alignment wrapText="true"/>
@@ -1623,7 +1917,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:N137"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6881,6 +7175,798 @@
         <v>27</v>
       </c>
     </row>
+    <row r="120" ht="20.0" customHeight="true">
+      <c r="A120" t="s" s="138">
+        <v>372</v>
+      </c>
+      <c r="B120" t="s" s="138">
+        <v>20</v>
+      </c>
+      <c r="C120" t="s" s="138">
+        <v>373</v>
+      </c>
+      <c r="D120" t="s" s="138">
+        <v>22</v>
+      </c>
+      <c r="E120" t="s" s="138">
+        <v>22</v>
+      </c>
+      <c r="F120" t="s" s="138">
+        <v>23</v>
+      </c>
+      <c r="G120" t="s" s="138">
+        <v>374</v>
+      </c>
+      <c r="H120" t="s" s="138">
+        <v>25</v>
+      </c>
+      <c r="I120" t="s" s="138">
+        <v>26</v>
+      </c>
+      <c r="J120" t="s" s="138">
+        <v>20</v>
+      </c>
+      <c r="K120" t="s" s="138">
+        <v>20</v>
+      </c>
+      <c r="L120" t="s" s="138">
+        <v>27</v>
+      </c>
+      <c r="M120" t="s" s="138">
+        <v>20</v>
+      </c>
+      <c r="N120" t="s" s="138">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" ht="20.0" customHeight="true">
+      <c r="A121" t="s" s="139">
+        <v>375</v>
+      </c>
+      <c r="B121" t="s" s="139">
+        <v>20</v>
+      </c>
+      <c r="C121" t="s" s="139">
+        <v>376</v>
+      </c>
+      <c r="D121" t="s" s="139">
+        <v>22</v>
+      </c>
+      <c r="E121" t="s" s="139">
+        <v>22</v>
+      </c>
+      <c r="F121" t="s" s="139">
+        <v>23</v>
+      </c>
+      <c r="G121" t="s" s="139">
+        <v>377</v>
+      </c>
+      <c r="H121" t="s" s="139">
+        <v>25</v>
+      </c>
+      <c r="I121" t="s" s="139">
+        <v>26</v>
+      </c>
+      <c r="J121" t="s" s="139">
+        <v>20</v>
+      </c>
+      <c r="K121" t="s" s="139">
+        <v>20</v>
+      </c>
+      <c r="L121" t="s" s="139">
+        <v>27</v>
+      </c>
+      <c r="M121" t="s" s="139">
+        <v>20</v>
+      </c>
+      <c r="N121" t="s" s="139">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122" ht="20.0" customHeight="true">
+      <c r="A122" t="s" s="140">
+        <v>378</v>
+      </c>
+      <c r="B122" t="s" s="140">
+        <v>20</v>
+      </c>
+      <c r="C122" t="s" s="140">
+        <v>379</v>
+      </c>
+      <c r="D122" t="s" s="140">
+        <v>22</v>
+      </c>
+      <c r="E122" t="s" s="140">
+        <v>22</v>
+      </c>
+      <c r="F122" t="s" s="140">
+        <v>23</v>
+      </c>
+      <c r="G122" t="s" s="140">
+        <v>380</v>
+      </c>
+      <c r="H122" t="s" s="140">
+        <v>25</v>
+      </c>
+      <c r="I122" t="s" s="140">
+        <v>26</v>
+      </c>
+      <c r="J122" t="s" s="140">
+        <v>20</v>
+      </c>
+      <c r="K122" t="s" s="140">
+        <v>20</v>
+      </c>
+      <c r="L122" t="s" s="140">
+        <v>27</v>
+      </c>
+      <c r="M122" t="s" s="140">
+        <v>20</v>
+      </c>
+      <c r="N122" t="s" s="140">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" ht="20.0" customHeight="true">
+      <c r="A123" t="s" s="141">
+        <v>381</v>
+      </c>
+      <c r="B123" t="s" s="141">
+        <v>20</v>
+      </c>
+      <c r="C123" t="s" s="141">
+        <v>382</v>
+      </c>
+      <c r="D123" t="s" s="141">
+        <v>22</v>
+      </c>
+      <c r="E123" t="s" s="141">
+        <v>22</v>
+      </c>
+      <c r="F123" t="s" s="141">
+        <v>23</v>
+      </c>
+      <c r="G123" t="s" s="141">
+        <v>383</v>
+      </c>
+      <c r="H123" t="s" s="141">
+        <v>25</v>
+      </c>
+      <c r="I123" t="s" s="141">
+        <v>26</v>
+      </c>
+      <c r="J123" t="s" s="141">
+        <v>20</v>
+      </c>
+      <c r="K123" t="s" s="141">
+        <v>20</v>
+      </c>
+      <c r="L123" t="s" s="141">
+        <v>27</v>
+      </c>
+      <c r="M123" t="s" s="141">
+        <v>20</v>
+      </c>
+      <c r="N123" t="s" s="141">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124" ht="20.0" customHeight="true">
+      <c r="A124" t="s" s="142">
+        <v>384</v>
+      </c>
+      <c r="B124" t="s" s="142">
+        <v>20</v>
+      </c>
+      <c r="C124" t="s" s="142">
+        <v>385</v>
+      </c>
+      <c r="D124" t="s" s="142">
+        <v>22</v>
+      </c>
+      <c r="E124" t="s" s="142">
+        <v>22</v>
+      </c>
+      <c r="F124" t="s" s="142">
+        <v>23</v>
+      </c>
+      <c r="G124" t="s" s="142">
+        <v>386</v>
+      </c>
+      <c r="H124" t="s" s="142">
+        <v>25</v>
+      </c>
+      <c r="I124" t="s" s="142">
+        <v>26</v>
+      </c>
+      <c r="J124" t="s" s="142">
+        <v>20</v>
+      </c>
+      <c r="K124" t="s" s="142">
+        <v>20</v>
+      </c>
+      <c r="L124" t="s" s="142">
+        <v>27</v>
+      </c>
+      <c r="M124" t="s" s="142">
+        <v>20</v>
+      </c>
+      <c r="N124" t="s" s="142">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="125" ht="20.0" customHeight="true">
+      <c r="A125" t="s" s="144">
+        <v>389</v>
+      </c>
+      <c r="B125" t="s" s="144">
+        <v>20</v>
+      </c>
+      <c r="C125" t="s" s="144">
+        <v>390</v>
+      </c>
+      <c r="D125" t="s" s="144">
+        <v>22</v>
+      </c>
+      <c r="E125" t="s" s="144">
+        <v>22</v>
+      </c>
+      <c r="F125" t="s" s="144">
+        <v>23</v>
+      </c>
+      <c r="G125" t="s" s="144">
+        <v>391</v>
+      </c>
+      <c r="H125" t="s" s="144">
+        <v>25</v>
+      </c>
+      <c r="I125" t="s" s="144">
+        <v>26</v>
+      </c>
+      <c r="J125" t="s" s="144">
+        <v>20</v>
+      </c>
+      <c r="K125" t="s" s="144">
+        <v>20</v>
+      </c>
+      <c r="L125" t="s" s="144">
+        <v>27</v>
+      </c>
+      <c r="M125" t="s" s="144">
+        <v>20</v>
+      </c>
+      <c r="N125" t="s" s="144">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126" ht="20.0" customHeight="true">
+      <c r="A126" t="s" s="146">
+        <v>394</v>
+      </c>
+      <c r="B126" t="s" s="146">
+        <v>20</v>
+      </c>
+      <c r="C126" t="s" s="146">
+        <v>395</v>
+      </c>
+      <c r="D126" t="s" s="146">
+        <v>22</v>
+      </c>
+      <c r="E126" t="s" s="146">
+        <v>22</v>
+      </c>
+      <c r="F126" t="s" s="146">
+        <v>23</v>
+      </c>
+      <c r="G126" t="s" s="146">
+        <v>396</v>
+      </c>
+      <c r="H126" t="s" s="146">
+        <v>25</v>
+      </c>
+      <c r="I126" t="s" s="146">
+        <v>26</v>
+      </c>
+      <c r="J126" t="s" s="146">
+        <v>20</v>
+      </c>
+      <c r="K126" t="s" s="146">
+        <v>20</v>
+      </c>
+      <c r="L126" t="s" s="146">
+        <v>27</v>
+      </c>
+      <c r="M126" t="s" s="146">
+        <v>20</v>
+      </c>
+      <c r="N126" t="s" s="146">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127" ht="20.0" customHeight="true">
+      <c r="A127" t="s" s="148">
+        <v>399</v>
+      </c>
+      <c r="B127" t="s" s="148">
+        <v>20</v>
+      </c>
+      <c r="C127" t="s" s="148">
+        <v>400</v>
+      </c>
+      <c r="D127" t="s" s="148">
+        <v>22</v>
+      </c>
+      <c r="E127" t="s" s="148">
+        <v>22</v>
+      </c>
+      <c r="F127" t="s" s="148">
+        <v>23</v>
+      </c>
+      <c r="G127" t="s" s="148">
+        <v>401</v>
+      </c>
+      <c r="H127" t="s" s="148">
+        <v>25</v>
+      </c>
+      <c r="I127" t="s" s="148">
+        <v>26</v>
+      </c>
+      <c r="J127" t="s" s="148">
+        <v>20</v>
+      </c>
+      <c r="K127" t="s" s="148">
+        <v>20</v>
+      </c>
+      <c r="L127" t="s" s="148">
+        <v>27</v>
+      </c>
+      <c r="M127" t="s" s="148">
+        <v>20</v>
+      </c>
+      <c r="N127" t="s" s="148">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" ht="20.0" customHeight="true">
+      <c r="A128" t="s" s="149">
+        <v>402</v>
+      </c>
+      <c r="B128" t="s" s="149">
+        <v>20</v>
+      </c>
+      <c r="C128" t="s" s="149">
+        <v>403</v>
+      </c>
+      <c r="D128" t="s" s="149">
+        <v>22</v>
+      </c>
+      <c r="E128" t="s" s="149">
+        <v>22</v>
+      </c>
+      <c r="F128" t="s" s="149">
+        <v>23</v>
+      </c>
+      <c r="G128" t="s" s="149">
+        <v>404</v>
+      </c>
+      <c r="H128" t="s" s="149">
+        <v>25</v>
+      </c>
+      <c r="I128" t="s" s="149">
+        <v>26</v>
+      </c>
+      <c r="J128" t="s" s="149">
+        <v>20</v>
+      </c>
+      <c r="K128" t="s" s="149">
+        <v>20</v>
+      </c>
+      <c r="L128" t="s" s="149">
+        <v>27</v>
+      </c>
+      <c r="M128" t="s" s="149">
+        <v>20</v>
+      </c>
+      <c r="N128" t="s" s="149">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" ht="20.0" customHeight="true">
+      <c r="A129" t="s" s="151">
+        <v>407</v>
+      </c>
+      <c r="B129" t="s" s="151">
+        <v>20</v>
+      </c>
+      <c r="C129" t="s" s="151">
+        <v>408</v>
+      </c>
+      <c r="D129" t="s" s="151">
+        <v>22</v>
+      </c>
+      <c r="E129" t="s" s="151">
+        <v>22</v>
+      </c>
+      <c r="F129" t="s" s="151">
+        <v>23</v>
+      </c>
+      <c r="G129" t="s" s="151">
+        <v>409</v>
+      </c>
+      <c r="H129" t="s" s="151">
+        <v>25</v>
+      </c>
+      <c r="I129" t="s" s="151">
+        <v>26</v>
+      </c>
+      <c r="J129" t="s" s="151">
+        <v>20</v>
+      </c>
+      <c r="K129" t="s" s="151">
+        <v>20</v>
+      </c>
+      <c r="L129" t="s" s="151">
+        <v>27</v>
+      </c>
+      <c r="M129" t="s" s="151">
+        <v>20</v>
+      </c>
+      <c r="N129" t="s" s="151">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" ht="20.0" customHeight="true">
+      <c r="A130" t="s" s="153">
+        <v>410</v>
+      </c>
+      <c r="B130" t="s" s="153">
+        <v>20</v>
+      </c>
+      <c r="C130" t="s" s="153">
+        <v>411</v>
+      </c>
+      <c r="D130" t="s" s="153">
+        <v>22</v>
+      </c>
+      <c r="E130" t="s" s="153">
+        <v>22</v>
+      </c>
+      <c r="F130" t="s" s="153">
+        <v>23</v>
+      </c>
+      <c r="G130" t="s" s="153">
+        <v>412</v>
+      </c>
+      <c r="H130" t="s" s="153">
+        <v>25</v>
+      </c>
+      <c r="I130" t="s" s="153">
+        <v>26</v>
+      </c>
+      <c r="J130" t="s" s="153">
+        <v>20</v>
+      </c>
+      <c r="K130" t="s" s="153">
+        <v>20</v>
+      </c>
+      <c r="L130" t="s" s="153">
+        <v>27</v>
+      </c>
+      <c r="M130" t="s" s="153">
+        <v>20</v>
+      </c>
+      <c r="N130" t="s" s="153">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" ht="20.0" customHeight="true">
+      <c r="A131" t="s" s="155">
+        <v>413</v>
+      </c>
+      <c r="B131" t="s" s="155">
+        <v>20</v>
+      </c>
+      <c r="C131" t="s" s="155">
+        <v>414</v>
+      </c>
+      <c r="D131" t="s" s="155">
+        <v>22</v>
+      </c>
+      <c r="E131" t="s" s="155">
+        <v>22</v>
+      </c>
+      <c r="F131" t="s" s="155">
+        <v>23</v>
+      </c>
+      <c r="G131" t="s" s="155">
+        <v>415</v>
+      </c>
+      <c r="H131" t="s" s="155">
+        <v>25</v>
+      </c>
+      <c r="I131" t="s" s="155">
+        <v>26</v>
+      </c>
+      <c r="J131" t="s" s="155">
+        <v>20</v>
+      </c>
+      <c r="K131" t="s" s="155">
+        <v>20</v>
+      </c>
+      <c r="L131" t="s" s="155">
+        <v>27</v>
+      </c>
+      <c r="M131" t="s" s="155">
+        <v>20</v>
+      </c>
+      <c r="N131" t="s" s="155">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" ht="20.0" customHeight="true">
+      <c r="A132" t="s" s="157">
+        <v>416</v>
+      </c>
+      <c r="B132" t="s" s="157">
+        <v>20</v>
+      </c>
+      <c r="C132" t="s" s="157">
+        <v>417</v>
+      </c>
+      <c r="D132" t="s" s="157">
+        <v>22</v>
+      </c>
+      <c r="E132" t="s" s="157">
+        <v>22</v>
+      </c>
+      <c r="F132" t="s" s="157">
+        <v>23</v>
+      </c>
+      <c r="G132" t="s" s="157">
+        <v>418</v>
+      </c>
+      <c r="H132" t="s" s="157">
+        <v>25</v>
+      </c>
+      <c r="I132" t="s" s="157">
+        <v>26</v>
+      </c>
+      <c r="J132" t="s" s="157">
+        <v>20</v>
+      </c>
+      <c r="K132" t="s" s="157">
+        <v>20</v>
+      </c>
+      <c r="L132" t="s" s="157">
+        <v>27</v>
+      </c>
+      <c r="M132" t="s" s="157">
+        <v>20</v>
+      </c>
+      <c r="N132" t="s" s="157">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="133" ht="20.0" customHeight="true">
+      <c r="A133" t="s" s="159">
+        <v>421</v>
+      </c>
+      <c r="B133" t="s" s="159">
+        <v>20</v>
+      </c>
+      <c r="C133" t="s" s="159">
+        <v>376</v>
+      </c>
+      <c r="D133" t="s" s="159">
+        <v>22</v>
+      </c>
+      <c r="E133" t="s" s="159">
+        <v>22</v>
+      </c>
+      <c r="F133" t="s" s="159">
+        <v>23</v>
+      </c>
+      <c r="G133" t="s" s="159">
+        <v>377</v>
+      </c>
+      <c r="H133" t="s" s="159">
+        <v>25</v>
+      </c>
+      <c r="I133" t="s" s="159">
+        <v>26</v>
+      </c>
+      <c r="J133" t="s" s="159">
+        <v>20</v>
+      </c>
+      <c r="K133" t="s" s="159">
+        <v>20</v>
+      </c>
+      <c r="L133" t="s" s="159">
+        <v>27</v>
+      </c>
+      <c r="M133" t="s" s="159">
+        <v>20</v>
+      </c>
+      <c r="N133" t="s" s="159">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134" ht="20.0" customHeight="true">
+      <c r="A134" t="s" s="160">
+        <v>422</v>
+      </c>
+      <c r="B134" t="s" s="160">
+        <v>20</v>
+      </c>
+      <c r="C134" t="s" s="160">
+        <v>423</v>
+      </c>
+      <c r="D134" t="s" s="160">
+        <v>22</v>
+      </c>
+      <c r="E134" t="s" s="160">
+        <v>22</v>
+      </c>
+      <c r="F134" t="s" s="160">
+        <v>23</v>
+      </c>
+      <c r="G134" t="s" s="160">
+        <v>424</v>
+      </c>
+      <c r="H134" t="s" s="160">
+        <v>25</v>
+      </c>
+      <c r="I134" t="s" s="160">
+        <v>26</v>
+      </c>
+      <c r="J134" t="s" s="160">
+        <v>20</v>
+      </c>
+      <c r="K134" t="s" s="160">
+        <v>20</v>
+      </c>
+      <c r="L134" t="s" s="160">
+        <v>27</v>
+      </c>
+      <c r="M134" t="s" s="160">
+        <v>20</v>
+      </c>
+      <c r="N134" t="s" s="160">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" ht="20.0" customHeight="true">
+      <c r="A135" t="s" s="162">
+        <v>427</v>
+      </c>
+      <c r="B135" t="s" s="162">
+        <v>20</v>
+      </c>
+      <c r="C135" t="s" s="162">
+        <v>428</v>
+      </c>
+      <c r="D135" t="s" s="162">
+        <v>22</v>
+      </c>
+      <c r="E135" t="s" s="162">
+        <v>22</v>
+      </c>
+      <c r="F135" t="s" s="162">
+        <v>23</v>
+      </c>
+      <c r="G135" t="s" s="162">
+        <v>429</v>
+      </c>
+      <c r="H135" t="s" s="162">
+        <v>25</v>
+      </c>
+      <c r="I135" t="s" s="162">
+        <v>26</v>
+      </c>
+      <c r="J135" t="s" s="162">
+        <v>20</v>
+      </c>
+      <c r="K135" t="s" s="162">
+        <v>20</v>
+      </c>
+      <c r="L135" t="s" s="162">
+        <v>27</v>
+      </c>
+      <c r="M135" t="s" s="162">
+        <v>20</v>
+      </c>
+      <c r="N135" t="s" s="162">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" ht="20.0" customHeight="true">
+      <c r="A136" t="s" s="164">
+        <v>432</v>
+      </c>
+      <c r="B136" t="s" s="164">
+        <v>20</v>
+      </c>
+      <c r="C136" t="s" s="164">
+        <v>433</v>
+      </c>
+      <c r="D136" t="s" s="164">
+        <v>22</v>
+      </c>
+      <c r="E136" t="s" s="164">
+        <v>22</v>
+      </c>
+      <c r="F136" t="s" s="164">
+        <v>23</v>
+      </c>
+      <c r="G136" t="s" s="164">
+        <v>434</v>
+      </c>
+      <c r="H136" t="s" s="164">
+        <v>25</v>
+      </c>
+      <c r="I136" t="s" s="164">
+        <v>26</v>
+      </c>
+      <c r="J136" t="s" s="164">
+        <v>20</v>
+      </c>
+      <c r="K136" t="s" s="164">
+        <v>20</v>
+      </c>
+      <c r="L136" t="s" s="164">
+        <v>27</v>
+      </c>
+      <c r="M136" t="s" s="164">
+        <v>20</v>
+      </c>
+      <c r="N136" t="s" s="164">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" ht="20.0" customHeight="true">
+      <c r="A137" t="s" s="166">
+        <v>437</v>
+      </c>
+      <c r="B137" t="s" s="166">
+        <v>20</v>
+      </c>
+      <c r="C137" t="s" s="166">
+        <v>438</v>
+      </c>
+      <c r="D137" t="s" s="166">
+        <v>22</v>
+      </c>
+      <c r="E137" t="s" s="166">
+        <v>22</v>
+      </c>
+      <c r="F137" t="s" s="166">
+        <v>23</v>
+      </c>
+      <c r="G137" t="s" s="166">
+        <v>439</v>
+      </c>
+      <c r="H137" t="s" s="166">
+        <v>25</v>
+      </c>
+      <c r="I137" t="s" s="166">
+        <v>26</v>
+      </c>
+      <c r="J137" t="s" s="166">
+        <v>20</v>
+      </c>
+      <c r="K137" t="s" s="166">
+        <v>20</v>
+      </c>
+      <c r="L137" t="s" s="166">
+        <v>27</v>
+      </c>
+      <c r="M137" t="s" s="166">
+        <v>20</v>
+      </c>
+      <c r="N137" t="s" s="166">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -6888,7 +7974,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7592,6 +8678,462 @@
         <v>27</v>
       </c>
     </row>
+    <row r="19" ht="20.0" customHeight="true">
+      <c r="A19" t="s" s="143">
+        <v>387</v>
+      </c>
+      <c r="B19" t="s" s="143">
+        <v>388</v>
+      </c>
+      <c r="C19" t="s" s="143">
+        <v>385</v>
+      </c>
+      <c r="D19" t="s" s="143">
+        <v>384</v>
+      </c>
+      <c r="E19" t="s" s="143">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s" s="143">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s" s="143">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s" s="143">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s" s="143">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s" s="143">
+        <v>27</v>
+      </c>
+      <c r="K19" t="s" s="143">
+        <v>20</v>
+      </c>
+      <c r="L19" t="s" s="143">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" ht="20.0" customHeight="true">
+      <c r="A20" t="s" s="145">
+        <v>392</v>
+      </c>
+      <c r="B20" t="s" s="145">
+        <v>393</v>
+      </c>
+      <c r="C20" t="s" s="145">
+        <v>390</v>
+      </c>
+      <c r="D20" t="s" s="145">
+        <v>389</v>
+      </c>
+      <c r="E20" t="s" s="145">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s" s="145">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s" s="145">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s" s="145">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s" s="145">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s" s="145">
+        <v>27</v>
+      </c>
+      <c r="K20" t="s" s="145">
+        <v>20</v>
+      </c>
+      <c r="L20" t="s" s="145">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" ht="20.0" customHeight="true">
+      <c r="A21" t="s" s="147">
+        <v>397</v>
+      </c>
+      <c r="B21" t="s" s="147">
+        <v>398</v>
+      </c>
+      <c r="C21" t="s" s="147">
+        <v>395</v>
+      </c>
+      <c r="D21" t="s" s="147">
+        <v>394</v>
+      </c>
+      <c r="E21" t="s" s="147">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s" s="147">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s" s="147">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s" s="147">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s" s="147">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s" s="147">
+        <v>27</v>
+      </c>
+      <c r="K21" t="s" s="147">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s" s="147">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" ht="20.0" customHeight="true">
+      <c r="A22" t="s" s="150">
+        <v>405</v>
+      </c>
+      <c r="B22" t="s" s="150">
+        <v>406</v>
+      </c>
+      <c r="C22" t="s" s="150">
+        <v>403</v>
+      </c>
+      <c r="D22" t="s" s="150">
+        <v>402</v>
+      </c>
+      <c r="E22" t="s" s="150">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s" s="150">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s" s="150">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s" s="150">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s" s="150">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s" s="150">
+        <v>27</v>
+      </c>
+      <c r="K22" t="s" s="150">
+        <v>20</v>
+      </c>
+      <c r="L22" t="s" s="150">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" ht="20.0" customHeight="true">
+      <c r="A23" t="s" s="152">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s" s="152">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s" s="152">
+        <v>408</v>
+      </c>
+      <c r="D23" t="s" s="152">
+        <v>407</v>
+      </c>
+      <c r="E23" t="s" s="152">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s" s="152">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s" s="152">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s" s="152">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s" s="152">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s" s="152">
+        <v>27</v>
+      </c>
+      <c r="K23" t="s" s="152">
+        <v>20</v>
+      </c>
+      <c r="L23" t="s" s="152">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" ht="20.0" customHeight="true">
+      <c r="A24" t="s" s="154">
+        <v>405</v>
+      </c>
+      <c r="B24" t="s" s="154">
+        <v>406</v>
+      </c>
+      <c r="C24" t="s" s="154">
+        <v>411</v>
+      </c>
+      <c r="D24" t="s" s="154">
+        <v>410</v>
+      </c>
+      <c r="E24" t="s" s="154">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s" s="154">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s" s="154">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s" s="154">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s" s="154">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s" s="154">
+        <v>27</v>
+      </c>
+      <c r="K24" t="s" s="154">
+        <v>20</v>
+      </c>
+      <c r="L24" t="s" s="154">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" ht="20.0" customHeight="true">
+      <c r="A25" t="s" s="156">
+        <v>405</v>
+      </c>
+      <c r="B25" t="s" s="156">
+        <v>406</v>
+      </c>
+      <c r="C25" t="s" s="156">
+        <v>414</v>
+      </c>
+      <c r="D25" t="s" s="156">
+        <v>413</v>
+      </c>
+      <c r="E25" t="s" s="156">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s" s="156">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s" s="156">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s" s="156">
+        <v>20</v>
+      </c>
+      <c r="I25" t="s" s="156">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s" s="156">
+        <v>27</v>
+      </c>
+      <c r="K25" t="s" s="156">
+        <v>20</v>
+      </c>
+      <c r="L25" t="s" s="156">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" ht="20.0" customHeight="true">
+      <c r="A26" t="s" s="158">
+        <v>419</v>
+      </c>
+      <c r="B26" t="s" s="158">
+        <v>420</v>
+      </c>
+      <c r="C26" t="s" s="158">
+        <v>417</v>
+      </c>
+      <c r="D26" t="s" s="158">
+        <v>416</v>
+      </c>
+      <c r="E26" t="s" s="158">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s" s="158">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s" s="158">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s" s="158">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s" s="158">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s" s="158">
+        <v>27</v>
+      </c>
+      <c r="K26" t="s" s="158">
+        <v>20</v>
+      </c>
+      <c r="L26" t="s" s="158">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" ht="20.0" customHeight="true">
+      <c r="A27" t="s" s="161">
+        <v>425</v>
+      </c>
+      <c r="B27" t="s" s="161">
+        <v>426</v>
+      </c>
+      <c r="C27" t="s" s="161">
+        <v>423</v>
+      </c>
+      <c r="D27" t="s" s="161">
+        <v>422</v>
+      </c>
+      <c r="E27" t="s" s="161">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s" s="161">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s" s="161">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s" s="161">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s" s="161">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s" s="161">
+        <v>27</v>
+      </c>
+      <c r="K27" t="s" s="161">
+        <v>20</v>
+      </c>
+      <c r="L27" t="s" s="161">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" ht="20.0" customHeight="true">
+      <c r="A28" t="s" s="163">
+        <v>430</v>
+      </c>
+      <c r="B28" t="s" s="163">
+        <v>431</v>
+      </c>
+      <c r="C28" t="s" s="163">
+        <v>428</v>
+      </c>
+      <c r="D28" t="s" s="163">
+        <v>427</v>
+      </c>
+      <c r="E28" t="s" s="163">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s" s="163">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s" s="163">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s" s="163">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s" s="163">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s" s="163">
+        <v>27</v>
+      </c>
+      <c r="K28" t="s" s="163">
+        <v>20</v>
+      </c>
+      <c r="L28" t="s" s="163">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" ht="20.0" customHeight="true">
+      <c r="A29" t="s" s="165">
+        <v>435</v>
+      </c>
+      <c r="B29" t="s" s="165">
+        <v>436</v>
+      </c>
+      <c r="C29" t="s" s="165">
+        <v>433</v>
+      </c>
+      <c r="D29" t="s" s="165">
+        <v>432</v>
+      </c>
+      <c r="E29" t="s" s="165">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s" s="165">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s" s="165">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s" s="165">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s" s="165">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s" s="165">
+        <v>27</v>
+      </c>
+      <c r="K29" t="s" s="165">
+        <v>20</v>
+      </c>
+      <c r="L29" t="s" s="165">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" ht="20.0" customHeight="true">
+      <c r="A30" t="s" s="167">
+        <v>405</v>
+      </c>
+      <c r="B30" t="s" s="167">
+        <v>406</v>
+      </c>
+      <c r="C30" t="s" s="167">
+        <v>438</v>
+      </c>
+      <c r="D30" t="s" s="167">
+        <v>437</v>
+      </c>
+      <c r="E30" t="s" s="167">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s" s="167">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s" s="167">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s" s="167">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s" s="167">
+        <v>20</v>
+      </c>
+      <c r="J30" t="s" s="167">
+        <v>27</v>
+      </c>
+      <c r="K30" t="s" s="167">
+        <v>20</v>
+      </c>
+      <c r="L30" t="s" s="167">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Teleologies/Formal Modeling/changeLog.xlsx
+++ b/Teleologies/Formal Modeling/changeLog.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3060" uniqueCount="563">
   <si>
     <t>Cased Word Lemma</t>
   </si>
@@ -1333,6 +1333,375 @@
   </si>
   <si>
     <t xml:space="preserve">A metadata tag, a free-text keyword which is used to annotate a resource, that  is prefaced by the hash symbol. </t>
+  </si>
+  <si>
+    <t>has_fiscalCode</t>
+  </si>
+  <si>
+    <t>-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique identifier for associations no-profit. 11 numeric characters provided by the Agenzia delle Entrate (model AA5/6). </t>
+  </si>
+  <si>
+    <t>has_onlineBooking</t>
+  </si>
+  <si>
+    <t>-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The action of reserve something through an online platform. </t>
+  </si>
+  <si>
+    <t>6268</t>
+  </si>
+  <si>
+    <t>booking</t>
+  </si>
+  <si>
+    <t>has_foundationYear</t>
+  </si>
+  <si>
+    <t>-32</t>
+  </si>
+  <si>
+    <t>The year that this organization was founded.</t>
+  </si>
+  <si>
+    <t>80974</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>has_roleDescription</t>
+  </si>
+  <si>
+    <t>-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The act of describing the activities required by a specific role.  </t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>socialNetwork</t>
+  </si>
+  <si>
+    <t>-34</t>
+  </si>
+  <si>
+    <t>Web-based services that allow individuals to construct a profile within a bounded system, articulate a list of other users with whom sharing a connection, and view their list and those made by others.</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>has_paralympic</t>
+  </si>
+  <si>
+    <t>-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sport for athletes with an impairment, based on a classification of which athletes are eligible to compete in a competition and how are grouped together. </t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>has_participationMode</t>
+  </si>
+  <si>
+    <t>-36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicates whether an event occurs online, offline, or in a hybrid mode. </t>
+  </si>
+  <si>
+    <t>has_nickname</t>
+  </si>
+  <si>
+    <t>34012</t>
+  </si>
+  <si>
+    <t>a fictitious name used when the person performs a particular social role</t>
+  </si>
+  <si>
+    <t>has_additionalInformation</t>
+  </si>
+  <si>
+    <t>-37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The explications or advice which are considered helpful for the audience, specifically due to the Covid-19 pandemic. </t>
+  </si>
+  <si>
+    <t>97654</t>
+  </si>
+  <si>
+    <t>informational</t>
+  </si>
+  <si>
+    <t>has_studentNumber</t>
+  </si>
+  <si>
+    <t>-38</t>
+  </si>
+  <si>
+    <t>A unique code assigned from an university to each enrolled student.</t>
+  </si>
+  <si>
+    <t>has_DJset</t>
+  </si>
+  <si>
+    <t>-39</t>
+  </si>
+  <si>
+    <t>Any performance of electronic music (sometimes instruments and singing) generated live out of a bank of equipment, which is played from a prerecorded medium.</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>has_extraBenefits</t>
+  </si>
+  <si>
+    <t>-40</t>
+  </si>
+  <si>
+    <t>Something (in monetary or other terms) offered additionally to the already provided entrance.</t>
+  </si>
+  <si>
+    <t>has_recurrencySpecification</t>
+  </si>
+  <si>
+    <t>-41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pace of repeated events, encoded as daily, weekly, monthly, yearly or other definition. </t>
+  </si>
+  <si>
+    <t>has_instrumentalness</t>
+  </si>
+  <si>
+    <t>-42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reports whether an audio records no vocals, via a floating number between 0.0 and 1.0. </t>
+  </si>
+  <si>
+    <t>has_speechiness</t>
+  </si>
+  <si>
+    <t>-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It detects the presence of spoken words in an audio, via a value ranging from 0.0 to 1.0. </t>
+  </si>
+  <si>
+    <t>has_localBusiness</t>
+  </si>
+  <si>
+    <t>-44</t>
+  </si>
+  <si>
+    <t>A particular physical business or branch of an organization.</t>
+  </si>
+  <si>
+    <t>has_hostingService</t>
+  </si>
+  <si>
+    <t>-45</t>
+  </si>
+  <si>
+    <t>Web conferencing tool providing a virtual location for remote work, distance education, and online social relations.</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>has_edition</t>
+  </si>
+  <si>
+    <t>-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The information regarding one event in a series of repeated events. </t>
+  </si>
+  <si>
+    <t>has_sportsCourse</t>
+  </si>
+  <si>
+    <t>-47</t>
+  </si>
+  <si>
+    <t>Recreative or competitive sporting content including a series of events, usually promoted by a local organization engaged in the development and active promotion of the athletic activity.</t>
+  </si>
+  <si>
+    <t>300003</t>
+  </si>
+  <si>
+    <t>has_professionalLevel</t>
+  </si>
+  <si>
+    <t>56315</t>
+  </si>
+  <si>
+    <t>an athlete who plays for pay</t>
+  </si>
+  <si>
+    <t>has_artistStatus</t>
+  </si>
+  <si>
+    <t>has_finalCertificate</t>
+  </si>
+  <si>
+    <t>34730</t>
+  </si>
+  <si>
+    <t>a document certifying the successful completion of a course of study</t>
+  </si>
+  <si>
+    <t>has_academicCarrier</t>
+  </si>
+  <si>
+    <t>-48</t>
+  </si>
+  <si>
+    <t>Specify the type of academic of a student: Post-doctoral student, PhD student, master student, bachelor student</t>
+  </si>
+  <si>
+    <t>57408</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>has_totalPurchase</t>
+  </si>
+  <si>
+    <t>31938</t>
+  </si>
+  <si>
+    <t>a quantity obtained by the addition of a group of numbers</t>
+  </si>
+  <si>
+    <t>has_openAir</t>
+  </si>
+  <si>
+    <t>46363</t>
+  </si>
+  <si>
+    <t>where the air is unconfined</t>
+  </si>
+  <si>
+    <t>has_interaction</t>
+  </si>
+  <si>
+    <t>105562</t>
+  </si>
+  <si>
+    <t>become a participant; be involved in</t>
+  </si>
+  <si>
+    <t>has_specialAnnouncements</t>
+  </si>
+  <si>
+    <t>-49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any limitation posed by the (local or national) administration due to the Covid-19 pandemic.  </t>
+  </si>
+  <si>
+    <t>has_publisher</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>The entity responsible for making a resource available.</t>
+  </si>
+  <si>
+    <t>has_post</t>
+  </si>
+  <si>
+    <t>-51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The act of sending an electronic message to a web site in order to allow many people to see it. </t>
+  </si>
+  <si>
+    <t>103978</t>
+  </si>
+  <si>
+    <t>send a message</t>
+  </si>
+  <si>
+    <t>has_closedPlace</t>
+  </si>
+  <si>
+    <t>15668</t>
+  </si>
+  <si>
+    <t>a structure that has a roof and walls and stands more or less permanently in one place</t>
+  </si>
+  <si>
+    <t>street_Type-132</t>
+  </si>
+  <si>
+    <t>24033</t>
+  </si>
+  <si>
+    <t>a thoroughfare (usually including sidewalks) that is lined with buildings</t>
+  </si>
+  <si>
+    <t>NUTScode_Type-300007</t>
+  </si>
+  <si>
+    <t>300012</t>
+  </si>
+  <si>
+    <t>socialNetwork_Type-300004</t>
+  </si>
+  <si>
+    <t>300033</t>
+  </si>
+  <si>
+    <t>email_Type-300004</t>
+  </si>
+  <si>
+    <t>33745</t>
+  </si>
+  <si>
+    <t>(computer science) a system of world-wide electronic communication in which a computer user can compose a message at one terminal that is generated at the recipient's terminal when he logs in</t>
+  </si>
+  <si>
+    <t>country_Type-300007</t>
+  </si>
+  <si>
+    <t>44214</t>
+  </si>
+  <si>
+    <t>the people who live in a nation or country</t>
+  </si>
+  <si>
+    <t>postcode_Type-132</t>
+  </si>
+  <si>
+    <t>34110</t>
+  </si>
+  <si>
+    <t>a code of letters and digits added to a postal address to aid in the sorting of mail</t>
+  </si>
+  <si>
+    <t>housenumber_Type-132</t>
+  </si>
+  <si>
+    <t>300015</t>
   </si>
 </sst>
 </file>
@@ -1408,13 +1777,190 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
       <alignment wrapText="true"/>
@@ -1917,7 +2463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N137"/>
+  <dimension ref="A1:N174"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -7967,6 +8513,1634 @@
         <v>27</v>
       </c>
     </row>
+    <row r="138" ht="20.0" customHeight="true">
+      <c r="A138" t="s" s="168">
+        <v>440</v>
+      </c>
+      <c r="B138" t="s" s="168">
+        <v>20</v>
+      </c>
+      <c r="C138" t="s" s="168">
+        <v>441</v>
+      </c>
+      <c r="D138" t="s" s="168">
+        <v>22</v>
+      </c>
+      <c r="E138" t="s" s="168">
+        <v>22</v>
+      </c>
+      <c r="F138" t="s" s="168">
+        <v>23</v>
+      </c>
+      <c r="G138" t="s" s="168">
+        <v>442</v>
+      </c>
+      <c r="H138" t="s" s="168">
+        <v>25</v>
+      </c>
+      <c r="I138" t="s" s="168">
+        <v>26</v>
+      </c>
+      <c r="J138" t="s" s="168">
+        <v>20</v>
+      </c>
+      <c r="K138" t="s" s="168">
+        <v>20</v>
+      </c>
+      <c r="L138" t="s" s="168">
+        <v>27</v>
+      </c>
+      <c r="M138" t="s" s="168">
+        <v>20</v>
+      </c>
+      <c r="N138" t="s" s="168">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139" ht="20.0" customHeight="true">
+      <c r="A139" t="s" s="170">
+        <v>443</v>
+      </c>
+      <c r="B139" t="s" s="170">
+        <v>20</v>
+      </c>
+      <c r="C139" t="s" s="170">
+        <v>444</v>
+      </c>
+      <c r="D139" t="s" s="170">
+        <v>22</v>
+      </c>
+      <c r="E139" t="s" s="170">
+        <v>22</v>
+      </c>
+      <c r="F139" t="s" s="170">
+        <v>23</v>
+      </c>
+      <c r="G139" t="s" s="170">
+        <v>445</v>
+      </c>
+      <c r="H139" t="s" s="170">
+        <v>25</v>
+      </c>
+      <c r="I139" t="s" s="170">
+        <v>26</v>
+      </c>
+      <c r="J139" t="s" s="170">
+        <v>20</v>
+      </c>
+      <c r="K139" t="s" s="170">
+        <v>20</v>
+      </c>
+      <c r="L139" t="s" s="170">
+        <v>27</v>
+      </c>
+      <c r="M139" t="s" s="170">
+        <v>20</v>
+      </c>
+      <c r="N139" t="s" s="170">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" ht="20.0" customHeight="true">
+      <c r="A140" t="s" s="172">
+        <v>448</v>
+      </c>
+      <c r="B140" t="s" s="172">
+        <v>20</v>
+      </c>
+      <c r="C140" t="s" s="172">
+        <v>449</v>
+      </c>
+      <c r="D140" t="s" s="172">
+        <v>22</v>
+      </c>
+      <c r="E140" t="s" s="172">
+        <v>22</v>
+      </c>
+      <c r="F140" t="s" s="172">
+        <v>23</v>
+      </c>
+      <c r="G140" t="s" s="172">
+        <v>450</v>
+      </c>
+      <c r="H140" t="s" s="172">
+        <v>25</v>
+      </c>
+      <c r="I140" t="s" s="172">
+        <v>26</v>
+      </c>
+      <c r="J140" t="s" s="172">
+        <v>20</v>
+      </c>
+      <c r="K140" t="s" s="172">
+        <v>20</v>
+      </c>
+      <c r="L140" t="s" s="172">
+        <v>27</v>
+      </c>
+      <c r="M140" t="s" s="172">
+        <v>20</v>
+      </c>
+      <c r="N140" t="s" s="172">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="141" ht="20.0" customHeight="true">
+      <c r="A141" t="s" s="174">
+        <v>453</v>
+      </c>
+      <c r="B141" t="s" s="174">
+        <v>20</v>
+      </c>
+      <c r="C141" t="s" s="174">
+        <v>454</v>
+      </c>
+      <c r="D141" t="s" s="174">
+        <v>22</v>
+      </c>
+      <c r="E141" t="s" s="174">
+        <v>22</v>
+      </c>
+      <c r="F141" t="s" s="174">
+        <v>23</v>
+      </c>
+      <c r="G141" t="s" s="174">
+        <v>455</v>
+      </c>
+      <c r="H141" t="s" s="174">
+        <v>25</v>
+      </c>
+      <c r="I141" t="s" s="174">
+        <v>26</v>
+      </c>
+      <c r="J141" t="s" s="174">
+        <v>20</v>
+      </c>
+      <c r="K141" t="s" s="174">
+        <v>20</v>
+      </c>
+      <c r="L141" t="s" s="174">
+        <v>27</v>
+      </c>
+      <c r="M141" t="s" s="174">
+        <v>20</v>
+      </c>
+      <c r="N141" t="s" s="174">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142" ht="20.0" customHeight="true">
+      <c r="A142" t="s" s="176">
+        <v>457</v>
+      </c>
+      <c r="B142" t="s" s="176">
+        <v>20</v>
+      </c>
+      <c r="C142" t="s" s="176">
+        <v>458</v>
+      </c>
+      <c r="D142" t="s" s="176">
+        <v>22</v>
+      </c>
+      <c r="E142" t="s" s="176">
+        <v>22</v>
+      </c>
+      <c r="F142" t="s" s="176">
+        <v>23</v>
+      </c>
+      <c r="G142" t="s" s="176">
+        <v>459</v>
+      </c>
+      <c r="H142" t="s" s="176">
+        <v>25</v>
+      </c>
+      <c r="I142" t="s" s="176">
+        <v>26</v>
+      </c>
+      <c r="J142" t="s" s="176">
+        <v>20</v>
+      </c>
+      <c r="K142" t="s" s="176">
+        <v>20</v>
+      </c>
+      <c r="L142" t="s" s="176">
+        <v>27</v>
+      </c>
+      <c r="M142" t="s" s="176">
+        <v>20</v>
+      </c>
+      <c r="N142" t="s" s="176">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143" ht="20.0" customHeight="true">
+      <c r="A143" t="s" s="178">
+        <v>462</v>
+      </c>
+      <c r="B143" t="s" s="178">
+        <v>20</v>
+      </c>
+      <c r="C143" t="s" s="178">
+        <v>463</v>
+      </c>
+      <c r="D143" t="s" s="178">
+        <v>22</v>
+      </c>
+      <c r="E143" t="s" s="178">
+        <v>22</v>
+      </c>
+      <c r="F143" t="s" s="178">
+        <v>23</v>
+      </c>
+      <c r="G143" t="s" s="178">
+        <v>464</v>
+      </c>
+      <c r="H143" t="s" s="178">
+        <v>25</v>
+      </c>
+      <c r="I143" t="s" s="178">
+        <v>26</v>
+      </c>
+      <c r="J143" t="s" s="178">
+        <v>20</v>
+      </c>
+      <c r="K143" t="s" s="178">
+        <v>20</v>
+      </c>
+      <c r="L143" t="s" s="178">
+        <v>27</v>
+      </c>
+      <c r="M143" t="s" s="178">
+        <v>20</v>
+      </c>
+      <c r="N143" t="s" s="178">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" ht="20.0" customHeight="true">
+      <c r="A144" t="s" s="180">
+        <v>466</v>
+      </c>
+      <c r="B144" t="s" s="180">
+        <v>20</v>
+      </c>
+      <c r="C144" t="s" s="180">
+        <v>467</v>
+      </c>
+      <c r="D144" t="s" s="180">
+        <v>22</v>
+      </c>
+      <c r="E144" t="s" s="180">
+        <v>22</v>
+      </c>
+      <c r="F144" t="s" s="180">
+        <v>23</v>
+      </c>
+      <c r="G144" t="s" s="180">
+        <v>468</v>
+      </c>
+      <c r="H144" t="s" s="180">
+        <v>25</v>
+      </c>
+      <c r="I144" t="s" s="180">
+        <v>26</v>
+      </c>
+      <c r="J144" t="s" s="180">
+        <v>20</v>
+      </c>
+      <c r="K144" t="s" s="180">
+        <v>20</v>
+      </c>
+      <c r="L144" t="s" s="180">
+        <v>27</v>
+      </c>
+      <c r="M144" t="s" s="180">
+        <v>20</v>
+      </c>
+      <c r="N144" t="s" s="180">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="145" ht="20.0" customHeight="true">
+      <c r="A145" t="s" s="182">
+        <v>469</v>
+      </c>
+      <c r="B145" t="s" s="182">
+        <v>20</v>
+      </c>
+      <c r="C145" t="s" s="182">
+        <v>470</v>
+      </c>
+      <c r="D145" t="s" s="182">
+        <v>22</v>
+      </c>
+      <c r="E145" t="s" s="182">
+        <v>22</v>
+      </c>
+      <c r="F145" t="s" s="182">
+        <v>23</v>
+      </c>
+      <c r="G145" t="s" s="182">
+        <v>471</v>
+      </c>
+      <c r="H145" t="s" s="182">
+        <v>25</v>
+      </c>
+      <c r="I145" t="s" s="182">
+        <v>26</v>
+      </c>
+      <c r="J145" t="s" s="182">
+        <v>20</v>
+      </c>
+      <c r="K145" t="s" s="182">
+        <v>20</v>
+      </c>
+      <c r="L145" t="s" s="182">
+        <v>27</v>
+      </c>
+      <c r="M145" t="s" s="182">
+        <v>20</v>
+      </c>
+      <c r="N145" t="s" s="182">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146" ht="20.0" customHeight="true">
+      <c r="A146" t="s" s="183">
+        <v>472</v>
+      </c>
+      <c r="B146" t="s" s="183">
+        <v>20</v>
+      </c>
+      <c r="C146" t="s" s="183">
+        <v>473</v>
+      </c>
+      <c r="D146" t="s" s="183">
+        <v>22</v>
+      </c>
+      <c r="E146" t="s" s="183">
+        <v>22</v>
+      </c>
+      <c r="F146" t="s" s="183">
+        <v>23</v>
+      </c>
+      <c r="G146" t="s" s="183">
+        <v>474</v>
+      </c>
+      <c r="H146" t="s" s="183">
+        <v>25</v>
+      </c>
+      <c r="I146" t="s" s="183">
+        <v>26</v>
+      </c>
+      <c r="J146" t="s" s="183">
+        <v>20</v>
+      </c>
+      <c r="K146" t="s" s="183">
+        <v>20</v>
+      </c>
+      <c r="L146" t="s" s="183">
+        <v>27</v>
+      </c>
+      <c r="M146" t="s" s="183">
+        <v>20</v>
+      </c>
+      <c r="N146" t="s" s="183">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" ht="20.0" customHeight="true">
+      <c r="A147" t="s" s="185">
+        <v>477</v>
+      </c>
+      <c r="B147" t="s" s="185">
+        <v>20</v>
+      </c>
+      <c r="C147" t="s" s="185">
+        <v>478</v>
+      </c>
+      <c r="D147" t="s" s="185">
+        <v>22</v>
+      </c>
+      <c r="E147" t="s" s="185">
+        <v>22</v>
+      </c>
+      <c r="F147" t="s" s="185">
+        <v>23</v>
+      </c>
+      <c r="G147" t="s" s="185">
+        <v>479</v>
+      </c>
+      <c r="H147" t="s" s="185">
+        <v>25</v>
+      </c>
+      <c r="I147" t="s" s="185">
+        <v>26</v>
+      </c>
+      <c r="J147" t="s" s="185">
+        <v>20</v>
+      </c>
+      <c r="K147" t="s" s="185">
+        <v>20</v>
+      </c>
+      <c r="L147" t="s" s="185">
+        <v>27</v>
+      </c>
+      <c r="M147" t="s" s="185">
+        <v>20</v>
+      </c>
+      <c r="N147" t="s" s="185">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" ht="20.0" customHeight="true">
+      <c r="A148" t="s" s="187">
+        <v>480</v>
+      </c>
+      <c r="B148" t="s" s="187">
+        <v>20</v>
+      </c>
+      <c r="C148" t="s" s="187">
+        <v>481</v>
+      </c>
+      <c r="D148" t="s" s="187">
+        <v>22</v>
+      </c>
+      <c r="E148" t="s" s="187">
+        <v>22</v>
+      </c>
+      <c r="F148" t="s" s="187">
+        <v>23</v>
+      </c>
+      <c r="G148" t="s" s="187">
+        <v>482</v>
+      </c>
+      <c r="H148" t="s" s="187">
+        <v>25</v>
+      </c>
+      <c r="I148" t="s" s="187">
+        <v>26</v>
+      </c>
+      <c r="J148" t="s" s="187">
+        <v>20</v>
+      </c>
+      <c r="K148" t="s" s="187">
+        <v>20</v>
+      </c>
+      <c r="L148" t="s" s="187">
+        <v>27</v>
+      </c>
+      <c r="M148" t="s" s="187">
+        <v>20</v>
+      </c>
+      <c r="N148" t="s" s="187">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" ht="20.0" customHeight="true">
+      <c r="A149" t="s" s="189">
+        <v>484</v>
+      </c>
+      <c r="B149" t="s" s="189">
+        <v>20</v>
+      </c>
+      <c r="C149" t="s" s="189">
+        <v>485</v>
+      </c>
+      <c r="D149" t="s" s="189">
+        <v>22</v>
+      </c>
+      <c r="E149" t="s" s="189">
+        <v>22</v>
+      </c>
+      <c r="F149" t="s" s="189">
+        <v>23</v>
+      </c>
+      <c r="G149" t="s" s="189">
+        <v>486</v>
+      </c>
+      <c r="H149" t="s" s="189">
+        <v>25</v>
+      </c>
+      <c r="I149" t="s" s="189">
+        <v>26</v>
+      </c>
+      <c r="J149" t="s" s="189">
+        <v>20</v>
+      </c>
+      <c r="K149" t="s" s="189">
+        <v>20</v>
+      </c>
+      <c r="L149" t="s" s="189">
+        <v>27</v>
+      </c>
+      <c r="M149" t="s" s="189">
+        <v>20</v>
+      </c>
+      <c r="N149" t="s" s="189">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="150" ht="20.0" customHeight="true">
+      <c r="A150" t="s" s="191">
+        <v>487</v>
+      </c>
+      <c r="B150" t="s" s="191">
+        <v>20</v>
+      </c>
+      <c r="C150" t="s" s="191">
+        <v>488</v>
+      </c>
+      <c r="D150" t="s" s="191">
+        <v>22</v>
+      </c>
+      <c r="E150" t="s" s="191">
+        <v>22</v>
+      </c>
+      <c r="F150" t="s" s="191">
+        <v>23</v>
+      </c>
+      <c r="G150" t="s" s="191">
+        <v>489</v>
+      </c>
+      <c r="H150" t="s" s="191">
+        <v>25</v>
+      </c>
+      <c r="I150" t="s" s="191">
+        <v>26</v>
+      </c>
+      <c r="J150" t="s" s="191">
+        <v>20</v>
+      </c>
+      <c r="K150" t="s" s="191">
+        <v>20</v>
+      </c>
+      <c r="L150" t="s" s="191">
+        <v>27</v>
+      </c>
+      <c r="M150" t="s" s="191">
+        <v>20</v>
+      </c>
+      <c r="N150" t="s" s="191">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" ht="20.0" customHeight="true">
+      <c r="A151" t="s" s="193">
+        <v>490</v>
+      </c>
+      <c r="B151" t="s" s="193">
+        <v>20</v>
+      </c>
+      <c r="C151" t="s" s="193">
+        <v>491</v>
+      </c>
+      <c r="D151" t="s" s="193">
+        <v>22</v>
+      </c>
+      <c r="E151" t="s" s="193">
+        <v>22</v>
+      </c>
+      <c r="F151" t="s" s="193">
+        <v>23</v>
+      </c>
+      <c r="G151" t="s" s="193">
+        <v>492</v>
+      </c>
+      <c r="H151" t="s" s="193">
+        <v>25</v>
+      </c>
+      <c r="I151" t="s" s="193">
+        <v>26</v>
+      </c>
+      <c r="J151" t="s" s="193">
+        <v>20</v>
+      </c>
+      <c r="K151" t="s" s="193">
+        <v>20</v>
+      </c>
+      <c r="L151" t="s" s="193">
+        <v>27</v>
+      </c>
+      <c r="M151" t="s" s="193">
+        <v>20</v>
+      </c>
+      <c r="N151" t="s" s="193">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="152" ht="20.0" customHeight="true">
+      <c r="A152" t="s" s="195">
+        <v>493</v>
+      </c>
+      <c r="B152" t="s" s="195">
+        <v>20</v>
+      </c>
+      <c r="C152" t="s" s="195">
+        <v>494</v>
+      </c>
+      <c r="D152" t="s" s="195">
+        <v>22</v>
+      </c>
+      <c r="E152" t="s" s="195">
+        <v>22</v>
+      </c>
+      <c r="F152" t="s" s="195">
+        <v>23</v>
+      </c>
+      <c r="G152" t="s" s="195">
+        <v>495</v>
+      </c>
+      <c r="H152" t="s" s="195">
+        <v>25</v>
+      </c>
+      <c r="I152" t="s" s="195">
+        <v>26</v>
+      </c>
+      <c r="J152" t="s" s="195">
+        <v>20</v>
+      </c>
+      <c r="K152" t="s" s="195">
+        <v>20</v>
+      </c>
+      <c r="L152" t="s" s="195">
+        <v>27</v>
+      </c>
+      <c r="M152" t="s" s="195">
+        <v>20</v>
+      </c>
+      <c r="N152" t="s" s="195">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="153" ht="20.0" customHeight="true">
+      <c r="A153" t="s" s="197">
+        <v>496</v>
+      </c>
+      <c r="B153" t="s" s="197">
+        <v>20</v>
+      </c>
+      <c r="C153" t="s" s="197">
+        <v>497</v>
+      </c>
+      <c r="D153" t="s" s="197">
+        <v>22</v>
+      </c>
+      <c r="E153" t="s" s="197">
+        <v>22</v>
+      </c>
+      <c r="F153" t="s" s="197">
+        <v>23</v>
+      </c>
+      <c r="G153" t="s" s="197">
+        <v>498</v>
+      </c>
+      <c r="H153" t="s" s="197">
+        <v>25</v>
+      </c>
+      <c r="I153" t="s" s="197">
+        <v>26</v>
+      </c>
+      <c r="J153" t="s" s="197">
+        <v>20</v>
+      </c>
+      <c r="K153" t="s" s="197">
+        <v>20</v>
+      </c>
+      <c r="L153" t="s" s="197">
+        <v>27</v>
+      </c>
+      <c r="M153" t="s" s="197">
+        <v>20</v>
+      </c>
+      <c r="N153" t="s" s="197">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="154" ht="20.0" customHeight="true">
+      <c r="A154" t="s" s="199">
+        <v>499</v>
+      </c>
+      <c r="B154" t="s" s="199">
+        <v>20</v>
+      </c>
+      <c r="C154" t="s" s="199">
+        <v>500</v>
+      </c>
+      <c r="D154" t="s" s="199">
+        <v>22</v>
+      </c>
+      <c r="E154" t="s" s="199">
+        <v>22</v>
+      </c>
+      <c r="F154" t="s" s="199">
+        <v>23</v>
+      </c>
+      <c r="G154" t="s" s="199">
+        <v>501</v>
+      </c>
+      <c r="H154" t="s" s="199">
+        <v>25</v>
+      </c>
+      <c r="I154" t="s" s="199">
+        <v>26</v>
+      </c>
+      <c r="J154" t="s" s="199">
+        <v>20</v>
+      </c>
+      <c r="K154" t="s" s="199">
+        <v>20</v>
+      </c>
+      <c r="L154" t="s" s="199">
+        <v>27</v>
+      </c>
+      <c r="M154" t="s" s="199">
+        <v>20</v>
+      </c>
+      <c r="N154" t="s" s="199">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="155" ht="20.0" customHeight="true">
+      <c r="A155" t="s" s="201">
+        <v>503</v>
+      </c>
+      <c r="B155" t="s" s="201">
+        <v>20</v>
+      </c>
+      <c r="C155" t="s" s="201">
+        <v>504</v>
+      </c>
+      <c r="D155" t="s" s="201">
+        <v>22</v>
+      </c>
+      <c r="E155" t="s" s="201">
+        <v>22</v>
+      </c>
+      <c r="F155" t="s" s="201">
+        <v>23</v>
+      </c>
+      <c r="G155" t="s" s="201">
+        <v>505</v>
+      </c>
+      <c r="H155" t="s" s="201">
+        <v>25</v>
+      </c>
+      <c r="I155" t="s" s="201">
+        <v>26</v>
+      </c>
+      <c r="J155" t="s" s="201">
+        <v>20</v>
+      </c>
+      <c r="K155" t="s" s="201">
+        <v>20</v>
+      </c>
+      <c r="L155" t="s" s="201">
+        <v>27</v>
+      </c>
+      <c r="M155" t="s" s="201">
+        <v>20</v>
+      </c>
+      <c r="N155" t="s" s="201">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="156" ht="20.0" customHeight="true">
+      <c r="A156" t="s" s="203">
+        <v>506</v>
+      </c>
+      <c r="B156" t="s" s="203">
+        <v>20</v>
+      </c>
+      <c r="C156" t="s" s="203">
+        <v>507</v>
+      </c>
+      <c r="D156" t="s" s="203">
+        <v>22</v>
+      </c>
+      <c r="E156" t="s" s="203">
+        <v>22</v>
+      </c>
+      <c r="F156" t="s" s="203">
+        <v>23</v>
+      </c>
+      <c r="G156" t="s" s="203">
+        <v>508</v>
+      </c>
+      <c r="H156" t="s" s="203">
+        <v>25</v>
+      </c>
+      <c r="I156" t="s" s="203">
+        <v>26</v>
+      </c>
+      <c r="J156" t="s" s="203">
+        <v>20</v>
+      </c>
+      <c r="K156" t="s" s="203">
+        <v>20</v>
+      </c>
+      <c r="L156" t="s" s="203">
+        <v>27</v>
+      </c>
+      <c r="M156" t="s" s="203">
+        <v>20</v>
+      </c>
+      <c r="N156" t="s" s="203">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="157" ht="20.0" customHeight="true">
+      <c r="A157" t="s" s="205">
+        <v>510</v>
+      </c>
+      <c r="B157" t="s" s="205">
+        <v>20</v>
+      </c>
+      <c r="C157" t="s" s="205">
+        <v>511</v>
+      </c>
+      <c r="D157" t="s" s="205">
+        <v>22</v>
+      </c>
+      <c r="E157" t="s" s="205">
+        <v>22</v>
+      </c>
+      <c r="F157" t="s" s="205">
+        <v>23</v>
+      </c>
+      <c r="G157" t="s" s="205">
+        <v>512</v>
+      </c>
+      <c r="H157" t="s" s="205">
+        <v>25</v>
+      </c>
+      <c r="I157" t="s" s="205">
+        <v>26</v>
+      </c>
+      <c r="J157" t="s" s="205">
+        <v>20</v>
+      </c>
+      <c r="K157" t="s" s="205">
+        <v>20</v>
+      </c>
+      <c r="L157" t="s" s="205">
+        <v>27</v>
+      </c>
+      <c r="M157" t="s" s="205">
+        <v>20</v>
+      </c>
+      <c r="N157" t="s" s="205">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="158" ht="20.0" customHeight="true">
+      <c r="A158" t="s" s="206">
+        <v>513</v>
+      </c>
+      <c r="B158" t="s" s="206">
+        <v>20</v>
+      </c>
+      <c r="C158" t="s" s="206">
+        <v>142</v>
+      </c>
+      <c r="D158" t="s" s="206">
+        <v>22</v>
+      </c>
+      <c r="E158" t="s" s="206">
+        <v>22</v>
+      </c>
+      <c r="F158" t="s" s="206">
+        <v>23</v>
+      </c>
+      <c r="G158" t="s" s="206">
+        <v>143</v>
+      </c>
+      <c r="H158" t="s" s="206">
+        <v>25</v>
+      </c>
+      <c r="I158" t="s" s="206">
+        <v>26</v>
+      </c>
+      <c r="J158" t="s" s="206">
+        <v>20</v>
+      </c>
+      <c r="K158" t="s" s="206">
+        <v>20</v>
+      </c>
+      <c r="L158" t="s" s="206">
+        <v>27</v>
+      </c>
+      <c r="M158" t="s" s="206">
+        <v>20</v>
+      </c>
+      <c r="N158" t="s" s="206">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="159" ht="20.0" customHeight="true">
+      <c r="A159" t="s" s="207">
+        <v>514</v>
+      </c>
+      <c r="B159" t="s" s="207">
+        <v>20</v>
+      </c>
+      <c r="C159" t="s" s="207">
+        <v>515</v>
+      </c>
+      <c r="D159" t="s" s="207">
+        <v>22</v>
+      </c>
+      <c r="E159" t="s" s="207">
+        <v>22</v>
+      </c>
+      <c r="F159" t="s" s="207">
+        <v>23</v>
+      </c>
+      <c r="G159" t="s" s="207">
+        <v>516</v>
+      </c>
+      <c r="H159" t="s" s="207">
+        <v>25</v>
+      </c>
+      <c r="I159" t="s" s="207">
+        <v>26</v>
+      </c>
+      <c r="J159" t="s" s="207">
+        <v>20</v>
+      </c>
+      <c r="K159" t="s" s="207">
+        <v>20</v>
+      </c>
+      <c r="L159" t="s" s="207">
+        <v>27</v>
+      </c>
+      <c r="M159" t="s" s="207">
+        <v>20</v>
+      </c>
+      <c r="N159" t="s" s="207">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="160" ht="20.0" customHeight="true">
+      <c r="A160" t="s" s="208">
+        <v>517</v>
+      </c>
+      <c r="B160" t="s" s="208">
+        <v>20</v>
+      </c>
+      <c r="C160" t="s" s="208">
+        <v>518</v>
+      </c>
+      <c r="D160" t="s" s="208">
+        <v>22</v>
+      </c>
+      <c r="E160" t="s" s="208">
+        <v>22</v>
+      </c>
+      <c r="F160" t="s" s="208">
+        <v>23</v>
+      </c>
+      <c r="G160" t="s" s="208">
+        <v>519</v>
+      </c>
+      <c r="H160" t="s" s="208">
+        <v>25</v>
+      </c>
+      <c r="I160" t="s" s="208">
+        <v>26</v>
+      </c>
+      <c r="J160" t="s" s="208">
+        <v>20</v>
+      </c>
+      <c r="K160" t="s" s="208">
+        <v>20</v>
+      </c>
+      <c r="L160" t="s" s="208">
+        <v>27</v>
+      </c>
+      <c r="M160" t="s" s="208">
+        <v>20</v>
+      </c>
+      <c r="N160" t="s" s="208">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="161" ht="20.0" customHeight="true">
+      <c r="A161" t="s" s="210">
+        <v>522</v>
+      </c>
+      <c r="B161" t="s" s="210">
+        <v>20</v>
+      </c>
+      <c r="C161" t="s" s="210">
+        <v>523</v>
+      </c>
+      <c r="D161" t="s" s="210">
+        <v>22</v>
+      </c>
+      <c r="E161" t="s" s="210">
+        <v>22</v>
+      </c>
+      <c r="F161" t="s" s="210">
+        <v>23</v>
+      </c>
+      <c r="G161" t="s" s="210">
+        <v>524</v>
+      </c>
+      <c r="H161" t="s" s="210">
+        <v>25</v>
+      </c>
+      <c r="I161" t="s" s="210">
+        <v>26</v>
+      </c>
+      <c r="J161" t="s" s="210">
+        <v>20</v>
+      </c>
+      <c r="K161" t="s" s="210">
+        <v>20</v>
+      </c>
+      <c r="L161" t="s" s="210">
+        <v>27</v>
+      </c>
+      <c r="M161" t="s" s="210">
+        <v>20</v>
+      </c>
+      <c r="N161" t="s" s="210">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="162" ht="20.0" customHeight="true">
+      <c r="A162" t="s" s="211">
+        <v>525</v>
+      </c>
+      <c r="B162" t="s" s="211">
+        <v>20</v>
+      </c>
+      <c r="C162" t="s" s="211">
+        <v>526</v>
+      </c>
+      <c r="D162" t="s" s="211">
+        <v>22</v>
+      </c>
+      <c r="E162" t="s" s="211">
+        <v>22</v>
+      </c>
+      <c r="F162" t="s" s="211">
+        <v>23</v>
+      </c>
+      <c r="G162" t="s" s="211">
+        <v>527</v>
+      </c>
+      <c r="H162" t="s" s="211">
+        <v>25</v>
+      </c>
+      <c r="I162" t="s" s="211">
+        <v>26</v>
+      </c>
+      <c r="J162" t="s" s="211">
+        <v>20</v>
+      </c>
+      <c r="K162" t="s" s="211">
+        <v>20</v>
+      </c>
+      <c r="L162" t="s" s="211">
+        <v>27</v>
+      </c>
+      <c r="M162" t="s" s="211">
+        <v>20</v>
+      </c>
+      <c r="N162" t="s" s="211">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="163" ht="20.0" customHeight="true">
+      <c r="A163" t="s" s="212">
+        <v>528</v>
+      </c>
+      <c r="B163" t="s" s="212">
+        <v>20</v>
+      </c>
+      <c r="C163" t="s" s="212">
+        <v>529</v>
+      </c>
+      <c r="D163" t="s" s="212">
+        <v>22</v>
+      </c>
+      <c r="E163" t="s" s="212">
+        <v>22</v>
+      </c>
+      <c r="F163" t="s" s="212">
+        <v>23</v>
+      </c>
+      <c r="G163" t="s" s="212">
+        <v>530</v>
+      </c>
+      <c r="H163" t="s" s="212">
+        <v>25</v>
+      </c>
+      <c r="I163" t="s" s="212">
+        <v>26</v>
+      </c>
+      <c r="J163" t="s" s="212">
+        <v>20</v>
+      </c>
+      <c r="K163" t="s" s="212">
+        <v>20</v>
+      </c>
+      <c r="L163" t="s" s="212">
+        <v>27</v>
+      </c>
+      <c r="M163" t="s" s="212">
+        <v>20</v>
+      </c>
+      <c r="N163" t="s" s="212">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="164" ht="20.0" customHeight="true">
+      <c r="A164" t="s" s="213">
+        <v>531</v>
+      </c>
+      <c r="B164" t="s" s="213">
+        <v>20</v>
+      </c>
+      <c r="C164" t="s" s="213">
+        <v>532</v>
+      </c>
+      <c r="D164" t="s" s="213">
+        <v>22</v>
+      </c>
+      <c r="E164" t="s" s="213">
+        <v>22</v>
+      </c>
+      <c r="F164" t="s" s="213">
+        <v>23</v>
+      </c>
+      <c r="G164" t="s" s="213">
+        <v>533</v>
+      </c>
+      <c r="H164" t="s" s="213">
+        <v>25</v>
+      </c>
+      <c r="I164" t="s" s="213">
+        <v>26</v>
+      </c>
+      <c r="J164" t="s" s="213">
+        <v>20</v>
+      </c>
+      <c r="K164" t="s" s="213">
+        <v>20</v>
+      </c>
+      <c r="L164" t="s" s="213">
+        <v>27</v>
+      </c>
+      <c r="M164" t="s" s="213">
+        <v>20</v>
+      </c>
+      <c r="N164" t="s" s="213">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="165" ht="20.0" customHeight="true">
+      <c r="A165" t="s" s="215">
+        <v>534</v>
+      </c>
+      <c r="B165" t="s" s="215">
+        <v>20</v>
+      </c>
+      <c r="C165" t="s" s="215">
+        <v>535</v>
+      </c>
+      <c r="D165" t="s" s="215">
+        <v>22</v>
+      </c>
+      <c r="E165" t="s" s="215">
+        <v>22</v>
+      </c>
+      <c r="F165" t="s" s="215">
+        <v>23</v>
+      </c>
+      <c r="G165" t="s" s="215">
+        <v>536</v>
+      </c>
+      <c r="H165" t="s" s="215">
+        <v>25</v>
+      </c>
+      <c r="I165" t="s" s="215">
+        <v>26</v>
+      </c>
+      <c r="J165" t="s" s="215">
+        <v>20</v>
+      </c>
+      <c r="K165" t="s" s="215">
+        <v>20</v>
+      </c>
+      <c r="L165" t="s" s="215">
+        <v>27</v>
+      </c>
+      <c r="M165" t="s" s="215">
+        <v>20</v>
+      </c>
+      <c r="N165" t="s" s="215">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="166" ht="20.0" customHeight="true">
+      <c r="A166" t="s" s="217">
+        <v>537</v>
+      </c>
+      <c r="B166" t="s" s="217">
+        <v>20</v>
+      </c>
+      <c r="C166" t="s" s="217">
+        <v>538</v>
+      </c>
+      <c r="D166" t="s" s="217">
+        <v>22</v>
+      </c>
+      <c r="E166" t="s" s="217">
+        <v>22</v>
+      </c>
+      <c r="F166" t="s" s="217">
+        <v>23</v>
+      </c>
+      <c r="G166" t="s" s="217">
+        <v>539</v>
+      </c>
+      <c r="H166" t="s" s="217">
+        <v>25</v>
+      </c>
+      <c r="I166" t="s" s="217">
+        <v>26</v>
+      </c>
+      <c r="J166" t="s" s="217">
+        <v>20</v>
+      </c>
+      <c r="K166" t="s" s="217">
+        <v>20</v>
+      </c>
+      <c r="L166" t="s" s="217">
+        <v>27</v>
+      </c>
+      <c r="M166" t="s" s="217">
+        <v>20</v>
+      </c>
+      <c r="N166" t="s" s="217">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="167" ht="20.0" customHeight="true">
+      <c r="A167" t="s" s="219">
+        <v>542</v>
+      </c>
+      <c r="B167" t="s" s="219">
+        <v>20</v>
+      </c>
+      <c r="C167" t="s" s="219">
+        <v>543</v>
+      </c>
+      <c r="D167" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="E167" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="F167" t="s" s="219">
+        <v>23</v>
+      </c>
+      <c r="G167" t="s" s="219">
+        <v>544</v>
+      </c>
+      <c r="H167" t="s" s="219">
+        <v>25</v>
+      </c>
+      <c r="I167" t="s" s="219">
+        <v>26</v>
+      </c>
+      <c r="J167" t="s" s="219">
+        <v>20</v>
+      </c>
+      <c r="K167" t="s" s="219">
+        <v>20</v>
+      </c>
+      <c r="L167" t="s" s="219">
+        <v>27</v>
+      </c>
+      <c r="M167" t="s" s="219">
+        <v>20</v>
+      </c>
+      <c r="N167" t="s" s="219">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="168" ht="20.0" customHeight="true">
+      <c r="A168" t="s" s="220">
+        <v>545</v>
+      </c>
+      <c r="B168" t="s" s="220">
+        <v>20</v>
+      </c>
+      <c r="C168" t="s" s="220">
+        <v>546</v>
+      </c>
+      <c r="D168" t="s" s="220">
+        <v>22</v>
+      </c>
+      <c r="E168" t="s" s="220">
+        <v>22</v>
+      </c>
+      <c r="F168" t="s" s="220">
+        <v>23</v>
+      </c>
+      <c r="G168" t="s" s="220">
+        <v>547</v>
+      </c>
+      <c r="H168" t="s" s="220">
+        <v>25</v>
+      </c>
+      <c r="I168" t="s" s="220">
+        <v>26</v>
+      </c>
+      <c r="J168" t="s" s="220">
+        <v>20</v>
+      </c>
+      <c r="K168" t="s" s="220">
+        <v>20</v>
+      </c>
+      <c r="L168" t="s" s="220">
+        <v>27</v>
+      </c>
+      <c r="M168" t="s" s="220">
+        <v>20</v>
+      </c>
+      <c r="N168" t="s" s="220">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="169" ht="20.0" customHeight="true">
+      <c r="A169" t="s" s="221">
+        <v>548</v>
+      </c>
+      <c r="B169" t="s" s="221">
+        <v>20</v>
+      </c>
+      <c r="C169" t="s" s="221">
+        <v>549</v>
+      </c>
+      <c r="D169" t="s" s="221">
+        <v>22</v>
+      </c>
+      <c r="E169" t="s" s="221">
+        <v>22</v>
+      </c>
+      <c r="F169" t="s" s="221">
+        <v>23</v>
+      </c>
+      <c r="G169" t="s" s="221">
+        <v>307</v>
+      </c>
+      <c r="H169" t="s" s="221">
+        <v>25</v>
+      </c>
+      <c r="I169" t="s" s="221">
+        <v>26</v>
+      </c>
+      <c r="J169" t="s" s="221">
+        <v>20</v>
+      </c>
+      <c r="K169" t="s" s="221">
+        <v>20</v>
+      </c>
+      <c r="L169" t="s" s="221">
+        <v>27</v>
+      </c>
+      <c r="M169" t="s" s="221">
+        <v>20</v>
+      </c>
+      <c r="N169" t="s" s="221">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="170" ht="20.0" customHeight="true">
+      <c r="A170" t="s" s="222">
+        <v>550</v>
+      </c>
+      <c r="B170" t="s" s="222">
+        <v>20</v>
+      </c>
+      <c r="C170" t="s" s="222">
+        <v>551</v>
+      </c>
+      <c r="D170" t="s" s="222">
+        <v>22</v>
+      </c>
+      <c r="E170" t="s" s="222">
+        <v>22</v>
+      </c>
+      <c r="F170" t="s" s="222">
+        <v>23</v>
+      </c>
+      <c r="G170" t="s" s="222">
+        <v>459</v>
+      </c>
+      <c r="H170" t="s" s="222">
+        <v>25</v>
+      </c>
+      <c r="I170" t="s" s="222">
+        <v>26</v>
+      </c>
+      <c r="J170" t="s" s="222">
+        <v>20</v>
+      </c>
+      <c r="K170" t="s" s="222">
+        <v>20</v>
+      </c>
+      <c r="L170" t="s" s="222">
+        <v>27</v>
+      </c>
+      <c r="M170" t="s" s="222">
+        <v>20</v>
+      </c>
+      <c r="N170" t="s" s="222">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="171" ht="20.0" customHeight="true">
+      <c r="A171" t="s" s="223">
+        <v>552</v>
+      </c>
+      <c r="B171" t="s" s="223">
+        <v>20</v>
+      </c>
+      <c r="C171" t="s" s="223">
+        <v>553</v>
+      </c>
+      <c r="D171" t="s" s="223">
+        <v>22</v>
+      </c>
+      <c r="E171" t="s" s="223">
+        <v>22</v>
+      </c>
+      <c r="F171" t="s" s="223">
+        <v>23</v>
+      </c>
+      <c r="G171" t="s" s="223">
+        <v>554</v>
+      </c>
+      <c r="H171" t="s" s="223">
+        <v>25</v>
+      </c>
+      <c r="I171" t="s" s="223">
+        <v>26</v>
+      </c>
+      <c r="J171" t="s" s="223">
+        <v>20</v>
+      </c>
+      <c r="K171" t="s" s="223">
+        <v>20</v>
+      </c>
+      <c r="L171" t="s" s="223">
+        <v>27</v>
+      </c>
+      <c r="M171" t="s" s="223">
+        <v>20</v>
+      </c>
+      <c r="N171" t="s" s="223">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="172" ht="20.0" customHeight="true">
+      <c r="A172" t="s" s="224">
+        <v>555</v>
+      </c>
+      <c r="B172" t="s" s="224">
+        <v>20</v>
+      </c>
+      <c r="C172" t="s" s="224">
+        <v>556</v>
+      </c>
+      <c r="D172" t="s" s="224">
+        <v>22</v>
+      </c>
+      <c r="E172" t="s" s="224">
+        <v>22</v>
+      </c>
+      <c r="F172" t="s" s="224">
+        <v>23</v>
+      </c>
+      <c r="G172" t="s" s="224">
+        <v>557</v>
+      </c>
+      <c r="H172" t="s" s="224">
+        <v>25</v>
+      </c>
+      <c r="I172" t="s" s="224">
+        <v>26</v>
+      </c>
+      <c r="J172" t="s" s="224">
+        <v>20</v>
+      </c>
+      <c r="K172" t="s" s="224">
+        <v>20</v>
+      </c>
+      <c r="L172" t="s" s="224">
+        <v>27</v>
+      </c>
+      <c r="M172" t="s" s="224">
+        <v>20</v>
+      </c>
+      <c r="N172" t="s" s="224">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="173" ht="20.0" customHeight="true">
+      <c r="A173" t="s" s="225">
+        <v>558</v>
+      </c>
+      <c r="B173" t="s" s="225">
+        <v>20</v>
+      </c>
+      <c r="C173" t="s" s="225">
+        <v>559</v>
+      </c>
+      <c r="D173" t="s" s="225">
+        <v>22</v>
+      </c>
+      <c r="E173" t="s" s="225">
+        <v>22</v>
+      </c>
+      <c r="F173" t="s" s="225">
+        <v>23</v>
+      </c>
+      <c r="G173" t="s" s="225">
+        <v>560</v>
+      </c>
+      <c r="H173" t="s" s="225">
+        <v>25</v>
+      </c>
+      <c r="I173" t="s" s="225">
+        <v>26</v>
+      </c>
+      <c r="J173" t="s" s="225">
+        <v>20</v>
+      </c>
+      <c r="K173" t="s" s="225">
+        <v>20</v>
+      </c>
+      <c r="L173" t="s" s="225">
+        <v>27</v>
+      </c>
+      <c r="M173" t="s" s="225">
+        <v>20</v>
+      </c>
+      <c r="N173" t="s" s="225">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="174" ht="20.0" customHeight="true">
+      <c r="A174" t="s" s="226">
+        <v>561</v>
+      </c>
+      <c r="B174" t="s" s="226">
+        <v>20</v>
+      </c>
+      <c r="C174" t="s" s="226">
+        <v>562</v>
+      </c>
+      <c r="D174" t="s" s="226">
+        <v>22</v>
+      </c>
+      <c r="E174" t="s" s="226">
+        <v>22</v>
+      </c>
+      <c r="F174" t="s" s="226">
+        <v>23</v>
+      </c>
+      <c r="G174" t="s" s="226">
+        <v>352</v>
+      </c>
+      <c r="H174" t="s" s="226">
+        <v>25</v>
+      </c>
+      <c r="I174" t="s" s="226">
+        <v>26</v>
+      </c>
+      <c r="J174" t="s" s="226">
+        <v>20</v>
+      </c>
+      <c r="K174" t="s" s="226">
+        <v>20</v>
+      </c>
+      <c r="L174" t="s" s="226">
+        <v>27</v>
+      </c>
+      <c r="M174" t="s" s="226">
+        <v>20</v>
+      </c>
+      <c r="N174" t="s" s="226">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7974,7 +10148,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9134,6 +11308,842 @@
         <v>27</v>
       </c>
     </row>
+    <row r="31" ht="20.0" customHeight="true">
+      <c r="A31" t="s" s="169">
+        <v>164</v>
+      </c>
+      <c r="B31" t="s" s="169">
+        <v>308</v>
+      </c>
+      <c r="C31" t="s" s="169">
+        <v>441</v>
+      </c>
+      <c r="D31" t="s" s="169">
+        <v>440</v>
+      </c>
+      <c r="E31" t="s" s="169">
+        <v>33</v>
+      </c>
+      <c r="F31" t="s" s="169">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s" s="169">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s" s="169">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s" s="169">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s" s="169">
+        <v>27</v>
+      </c>
+      <c r="K31" t="s" s="169">
+        <v>20</v>
+      </c>
+      <c r="L31" t="s" s="169">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" ht="20.0" customHeight="true">
+      <c r="A32" t="s" s="171">
+        <v>446</v>
+      </c>
+      <c r="B32" t="s" s="171">
+        <v>447</v>
+      </c>
+      <c r="C32" t="s" s="171">
+        <v>444</v>
+      </c>
+      <c r="D32" t="s" s="171">
+        <v>443</v>
+      </c>
+      <c r="E32" t="s" s="171">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s" s="171">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s" s="171">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s" s="171">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s" s="171">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s" s="171">
+        <v>27</v>
+      </c>
+      <c r="K32" t="s" s="171">
+        <v>20</v>
+      </c>
+      <c r="L32" t="s" s="171">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" ht="20.0" customHeight="true">
+      <c r="A33" t="s" s="173">
+        <v>451</v>
+      </c>
+      <c r="B33" t="s" s="173">
+        <v>452</v>
+      </c>
+      <c r="C33" t="s" s="173">
+        <v>449</v>
+      </c>
+      <c r="D33" t="s" s="173">
+        <v>448</v>
+      </c>
+      <c r="E33" t="s" s="173">
+        <v>33</v>
+      </c>
+      <c r="F33" t="s" s="173">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s" s="173">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s" s="173">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s" s="173">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s" s="173">
+        <v>27</v>
+      </c>
+      <c r="K33" t="s" s="173">
+        <v>20</v>
+      </c>
+      <c r="L33" t="s" s="173">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" ht="20.0" customHeight="true">
+      <c r="A34" t="s" s="175">
+        <v>200</v>
+      </c>
+      <c r="B34" t="s" s="175">
+        <v>456</v>
+      </c>
+      <c r="C34" t="s" s="175">
+        <v>454</v>
+      </c>
+      <c r="D34" t="s" s="175">
+        <v>453</v>
+      </c>
+      <c r="E34" t="s" s="175">
+        <v>33</v>
+      </c>
+      <c r="F34" t="s" s="175">
+        <v>25</v>
+      </c>
+      <c r="G34" t="s" s="175">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s" s="175">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s" s="175">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s" s="175">
+        <v>27</v>
+      </c>
+      <c r="K34" t="s" s="175">
+        <v>20</v>
+      </c>
+      <c r="L34" t="s" s="175">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" ht="20.0" customHeight="true">
+      <c r="A35" t="s" s="177">
+        <v>460</v>
+      </c>
+      <c r="B35" t="s" s="177">
+        <v>461</v>
+      </c>
+      <c r="C35" t="s" s="177">
+        <v>458</v>
+      </c>
+      <c r="D35" t="s" s="177">
+        <v>457</v>
+      </c>
+      <c r="E35" t="s" s="177">
+        <v>33</v>
+      </c>
+      <c r="F35" t="s" s="177">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s" s="177">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s" s="177">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s" s="177">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s" s="177">
+        <v>27</v>
+      </c>
+      <c r="K35" t="s" s="177">
+        <v>20</v>
+      </c>
+      <c r="L35" t="s" s="177">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" ht="20.0" customHeight="true">
+      <c r="A36" t="s" s="179">
+        <v>296</v>
+      </c>
+      <c r="B36" t="s" s="179">
+        <v>465</v>
+      </c>
+      <c r="C36" t="s" s="179">
+        <v>463</v>
+      </c>
+      <c r="D36" t="s" s="179">
+        <v>462</v>
+      </c>
+      <c r="E36" t="s" s="179">
+        <v>33</v>
+      </c>
+      <c r="F36" t="s" s="179">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s" s="179">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s" s="179">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s" s="179">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s" s="179">
+        <v>27</v>
+      </c>
+      <c r="K36" t="s" s="179">
+        <v>20</v>
+      </c>
+      <c r="L36" t="s" s="179">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" ht="20.0" customHeight="true">
+      <c r="A37" t="s" s="181">
+        <v>405</v>
+      </c>
+      <c r="B37" t="s" s="181">
+        <v>406</v>
+      </c>
+      <c r="C37" t="s" s="181">
+        <v>467</v>
+      </c>
+      <c r="D37" t="s" s="181">
+        <v>466</v>
+      </c>
+      <c r="E37" t="s" s="181">
+        <v>33</v>
+      </c>
+      <c r="F37" t="s" s="181">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s" s="181">
+        <v>26</v>
+      </c>
+      <c r="H37" t="s" s="181">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s" s="181">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s" s="181">
+        <v>27</v>
+      </c>
+      <c r="K37" t="s" s="181">
+        <v>20</v>
+      </c>
+      <c r="L37" t="s" s="181">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" ht="20.0" customHeight="true">
+      <c r="A38" t="s" s="184">
+        <v>475</v>
+      </c>
+      <c r="B38" t="s" s="184">
+        <v>476</v>
+      </c>
+      <c r="C38" t="s" s="184">
+        <v>473</v>
+      </c>
+      <c r="D38" t="s" s="184">
+        <v>472</v>
+      </c>
+      <c r="E38" t="s" s="184">
+        <v>33</v>
+      </c>
+      <c r="F38" t="s" s="184">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s" s="184">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s" s="184">
+        <v>20</v>
+      </c>
+      <c r="I38" t="s" s="184">
+        <v>20</v>
+      </c>
+      <c r="J38" t="s" s="184">
+        <v>27</v>
+      </c>
+      <c r="K38" t="s" s="184">
+        <v>20</v>
+      </c>
+      <c r="L38" t="s" s="184">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" ht="20.0" customHeight="true">
+      <c r="A39" t="s" s="186">
+        <v>164</v>
+      </c>
+      <c r="B39" t="s" s="186">
+        <v>308</v>
+      </c>
+      <c r="C39" t="s" s="186">
+        <v>478</v>
+      </c>
+      <c r="D39" t="s" s="186">
+        <v>477</v>
+      </c>
+      <c r="E39" t="s" s="186">
+        <v>33</v>
+      </c>
+      <c r="F39" t="s" s="186">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s" s="186">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s" s="186">
+        <v>20</v>
+      </c>
+      <c r="I39" t="s" s="186">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s" s="186">
+        <v>27</v>
+      </c>
+      <c r="K39" t="s" s="186">
+        <v>20</v>
+      </c>
+      <c r="L39" t="s" s="186">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" ht="20.0" customHeight="true">
+      <c r="A40" t="s" s="188">
+        <v>263</v>
+      </c>
+      <c r="B40" t="s" s="188">
+        <v>483</v>
+      </c>
+      <c r="C40" t="s" s="188">
+        <v>481</v>
+      </c>
+      <c r="D40" t="s" s="188">
+        <v>480</v>
+      </c>
+      <c r="E40" t="s" s="188">
+        <v>33</v>
+      </c>
+      <c r="F40" t="s" s="188">
+        <v>25</v>
+      </c>
+      <c r="G40" t="s" s="188">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s" s="188">
+        <v>20</v>
+      </c>
+      <c r="I40" t="s" s="188">
+        <v>20</v>
+      </c>
+      <c r="J40" t="s" s="188">
+        <v>27</v>
+      </c>
+      <c r="K40" t="s" s="188">
+        <v>20</v>
+      </c>
+      <c r="L40" t="s" s="188">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" ht="20.0" customHeight="true">
+      <c r="A41" t="s" s="190">
+        <v>405</v>
+      </c>
+      <c r="B41" t="s" s="190">
+        <v>406</v>
+      </c>
+      <c r="C41" t="s" s="190">
+        <v>485</v>
+      </c>
+      <c r="D41" t="s" s="190">
+        <v>484</v>
+      </c>
+      <c r="E41" t="s" s="190">
+        <v>33</v>
+      </c>
+      <c r="F41" t="s" s="190">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s" s="190">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s" s="190">
+        <v>20</v>
+      </c>
+      <c r="I41" t="s" s="190">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s" s="190">
+        <v>27</v>
+      </c>
+      <c r="K41" t="s" s="190">
+        <v>20</v>
+      </c>
+      <c r="L41" t="s" s="190">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" ht="20.0" customHeight="true">
+      <c r="A42" t="s" s="192">
+        <v>405</v>
+      </c>
+      <c r="B42" t="s" s="192">
+        <v>406</v>
+      </c>
+      <c r="C42" t="s" s="192">
+        <v>488</v>
+      </c>
+      <c r="D42" t="s" s="192">
+        <v>487</v>
+      </c>
+      <c r="E42" t="s" s="192">
+        <v>33</v>
+      </c>
+      <c r="F42" t="s" s="192">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s" s="192">
+        <v>26</v>
+      </c>
+      <c r="H42" t="s" s="192">
+        <v>20</v>
+      </c>
+      <c r="I42" t="s" s="192">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s" s="192">
+        <v>27</v>
+      </c>
+      <c r="K42" t="s" s="192">
+        <v>20</v>
+      </c>
+      <c r="L42" t="s" s="192">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" ht="20.0" customHeight="true">
+      <c r="A43" t="s" s="194">
+        <v>263</v>
+      </c>
+      <c r="B43" t="s" s="194">
+        <v>483</v>
+      </c>
+      <c r="C43" t="s" s="194">
+        <v>491</v>
+      </c>
+      <c r="D43" t="s" s="194">
+        <v>490</v>
+      </c>
+      <c r="E43" t="s" s="194">
+        <v>33</v>
+      </c>
+      <c r="F43" t="s" s="194">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s" s="194">
+        <v>26</v>
+      </c>
+      <c r="H43" t="s" s="194">
+        <v>20</v>
+      </c>
+      <c r="I43" t="s" s="194">
+        <v>20</v>
+      </c>
+      <c r="J43" t="s" s="194">
+        <v>27</v>
+      </c>
+      <c r="K43" t="s" s="194">
+        <v>20</v>
+      </c>
+      <c r="L43" t="s" s="194">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" ht="20.0" customHeight="true">
+      <c r="A44" t="s" s="196">
+        <v>263</v>
+      </c>
+      <c r="B44" t="s" s="196">
+        <v>483</v>
+      </c>
+      <c r="C44" t="s" s="196">
+        <v>494</v>
+      </c>
+      <c r="D44" t="s" s="196">
+        <v>493</v>
+      </c>
+      <c r="E44" t="s" s="196">
+        <v>33</v>
+      </c>
+      <c r="F44" t="s" s="196">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s" s="196">
+        <v>26</v>
+      </c>
+      <c r="H44" t="s" s="196">
+        <v>20</v>
+      </c>
+      <c r="I44" t="s" s="196">
+        <v>20</v>
+      </c>
+      <c r="J44" t="s" s="196">
+        <v>27</v>
+      </c>
+      <c r="K44" t="s" s="196">
+        <v>20</v>
+      </c>
+      <c r="L44" t="s" s="196">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" ht="20.0" customHeight="true">
+      <c r="A45" t="s" s="198">
+        <v>435</v>
+      </c>
+      <c r="B45" t="s" s="198">
+        <v>436</v>
+      </c>
+      <c r="C45" t="s" s="198">
+        <v>497</v>
+      </c>
+      <c r="D45" t="s" s="198">
+        <v>496</v>
+      </c>
+      <c r="E45" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="F45" t="s" s="198">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s" s="198">
+        <v>26</v>
+      </c>
+      <c r="H45" t="s" s="198">
+        <v>20</v>
+      </c>
+      <c r="I45" t="s" s="198">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s" s="198">
+        <v>27</v>
+      </c>
+      <c r="K45" t="s" s="198">
+        <v>20</v>
+      </c>
+      <c r="L45" t="s" s="198">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" ht="20.0" customHeight="true">
+      <c r="A46" t="s" s="200">
+        <v>102</v>
+      </c>
+      <c r="B46" t="s" s="200">
+        <v>502</v>
+      </c>
+      <c r="C46" t="s" s="200">
+        <v>500</v>
+      </c>
+      <c r="D46" t="s" s="200">
+        <v>499</v>
+      </c>
+      <c r="E46" t="s" s="200">
+        <v>33</v>
+      </c>
+      <c r="F46" t="s" s="200">
+        <v>25</v>
+      </c>
+      <c r="G46" t="s" s="200">
+        <v>26</v>
+      </c>
+      <c r="H46" t="s" s="200">
+        <v>20</v>
+      </c>
+      <c r="I46" t="s" s="200">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s" s="200">
+        <v>27</v>
+      </c>
+      <c r="K46" t="s" s="200">
+        <v>20</v>
+      </c>
+      <c r="L46" t="s" s="200">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" ht="20.0" customHeight="true">
+      <c r="A47" t="s" s="202">
+        <v>405</v>
+      </c>
+      <c r="B47" t="s" s="202">
+        <v>406</v>
+      </c>
+      <c r="C47" t="s" s="202">
+        <v>504</v>
+      </c>
+      <c r="D47" t="s" s="202">
+        <v>503</v>
+      </c>
+      <c r="E47" t="s" s="202">
+        <v>33</v>
+      </c>
+      <c r="F47" t="s" s="202">
+        <v>25</v>
+      </c>
+      <c r="G47" t="s" s="202">
+        <v>26</v>
+      </c>
+      <c r="H47" t="s" s="202">
+        <v>20</v>
+      </c>
+      <c r="I47" t="s" s="202">
+        <v>20</v>
+      </c>
+      <c r="J47" t="s" s="202">
+        <v>27</v>
+      </c>
+      <c r="K47" t="s" s="202">
+        <v>20</v>
+      </c>
+      <c r="L47" t="s" s="202">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" ht="20.0" customHeight="true">
+      <c r="A48" t="s" s="204">
+        <v>509</v>
+      </c>
+      <c r="B48" t="s" s="204">
+        <v>44</v>
+      </c>
+      <c r="C48" t="s" s="204">
+        <v>507</v>
+      </c>
+      <c r="D48" t="s" s="204">
+        <v>506</v>
+      </c>
+      <c r="E48" t="s" s="204">
+        <v>33</v>
+      </c>
+      <c r="F48" t="s" s="204">
+        <v>25</v>
+      </c>
+      <c r="G48" t="s" s="204">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s" s="204">
+        <v>20</v>
+      </c>
+      <c r="I48" t="s" s="204">
+        <v>20</v>
+      </c>
+      <c r="J48" t="s" s="204">
+        <v>27</v>
+      </c>
+      <c r="K48" t="s" s="204">
+        <v>20</v>
+      </c>
+      <c r="L48" t="s" s="204">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" ht="20.0" customHeight="true">
+      <c r="A49" t="s" s="209">
+        <v>520</v>
+      </c>
+      <c r="B49" t="s" s="209">
+        <v>521</v>
+      </c>
+      <c r="C49" t="s" s="209">
+        <v>518</v>
+      </c>
+      <c r="D49" t="s" s="209">
+        <v>517</v>
+      </c>
+      <c r="E49" t="s" s="209">
+        <v>33</v>
+      </c>
+      <c r="F49" t="s" s="209">
+        <v>25</v>
+      </c>
+      <c r="G49" t="s" s="209">
+        <v>26</v>
+      </c>
+      <c r="H49" t="s" s="209">
+        <v>20</v>
+      </c>
+      <c r="I49" t="s" s="209">
+        <v>20</v>
+      </c>
+      <c r="J49" t="s" s="209">
+        <v>27</v>
+      </c>
+      <c r="K49" t="s" s="209">
+        <v>20</v>
+      </c>
+      <c r="L49" t="s" s="209">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" ht="20.0" customHeight="true">
+      <c r="A50" t="s" s="214">
+        <v>405</v>
+      </c>
+      <c r="B50" t="s" s="214">
+        <v>406</v>
+      </c>
+      <c r="C50" t="s" s="214">
+        <v>532</v>
+      </c>
+      <c r="D50" t="s" s="214">
+        <v>531</v>
+      </c>
+      <c r="E50" t="s" s="214">
+        <v>33</v>
+      </c>
+      <c r="F50" t="s" s="214">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s" s="214">
+        <v>26</v>
+      </c>
+      <c r="H50" t="s" s="214">
+        <v>20</v>
+      </c>
+      <c r="I50" t="s" s="214">
+        <v>20</v>
+      </c>
+      <c r="J50" t="s" s="214">
+        <v>27</v>
+      </c>
+      <c r="K50" t="s" s="214">
+        <v>20</v>
+      </c>
+      <c r="L50" t="s" s="214">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" ht="20.0" customHeight="true">
+      <c r="A51" t="s" s="216">
+        <v>460</v>
+      </c>
+      <c r="B51" t="s" s="216">
+        <v>461</v>
+      </c>
+      <c r="C51" t="s" s="216">
+        <v>535</v>
+      </c>
+      <c r="D51" t="s" s="216">
+        <v>534</v>
+      </c>
+      <c r="E51" t="s" s="216">
+        <v>33</v>
+      </c>
+      <c r="F51" t="s" s="216">
+        <v>25</v>
+      </c>
+      <c r="G51" t="s" s="216">
+        <v>26</v>
+      </c>
+      <c r="H51" t="s" s="216">
+        <v>20</v>
+      </c>
+      <c r="I51" t="s" s="216">
+        <v>20</v>
+      </c>
+      <c r="J51" t="s" s="216">
+        <v>27</v>
+      </c>
+      <c r="K51" t="s" s="216">
+        <v>20</v>
+      </c>
+      <c r="L51" t="s" s="216">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" ht="20.0" customHeight="true">
+      <c r="A52" t="s" s="218">
+        <v>540</v>
+      </c>
+      <c r="B52" t="s" s="218">
+        <v>541</v>
+      </c>
+      <c r="C52" t="s" s="218">
+        <v>538</v>
+      </c>
+      <c r="D52" t="s" s="218">
+        <v>537</v>
+      </c>
+      <c r="E52" t="s" s="218">
+        <v>33</v>
+      </c>
+      <c r="F52" t="s" s="218">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s" s="218">
+        <v>26</v>
+      </c>
+      <c r="H52" t="s" s="218">
+        <v>20</v>
+      </c>
+      <c r="I52" t="s" s="218">
+        <v>20</v>
+      </c>
+      <c r="J52" t="s" s="218">
+        <v>27</v>
+      </c>
+      <c r="K52" t="s" s="218">
+        <v>20</v>
+      </c>
+      <c r="L52" t="s" s="218">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Teleologies/Formal Modeling/changeLog.xlsx
+++ b/Teleologies/Formal Modeling/changeLog.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3060" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3130" uniqueCount="575">
   <si>
     <t>Cased Word Lemma</t>
   </si>
@@ -1702,6 +1702,42 @@
   </si>
   <si>
     <t>300015</t>
+  </si>
+  <si>
+    <t>phone_Type-300004</t>
+  </si>
+  <si>
+    <t>website_Type-300004</t>
+  </si>
+  <si>
+    <t>34126</t>
+  </si>
+  <si>
+    <t>a computer connected to the internet that maintains a series of web pages on the World Wide Web</t>
+  </si>
+  <si>
+    <t>city_Type-300007</t>
+  </si>
+  <si>
+    <t>45988</t>
+  </si>
+  <si>
+    <t>an incorporated administrative district established by state charter</t>
+  </si>
+  <si>
+    <t>region_Type-300007</t>
+  </si>
+  <si>
+    <t>300016</t>
+  </si>
+  <si>
+    <t>datatypeAttribute_Type-138</t>
+  </si>
+  <si>
+    <t>120041</t>
+  </si>
+  <si>
+    <t>a structured type used for encoding qualitative and quantitative information</t>
   </si>
 </sst>
 </file>
@@ -1777,13 +1813,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
+      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyBorder="true" applyFill="true">
       <alignment wrapText="true"/>
@@ -2463,7 +2514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N174"/>
+  <dimension ref="A1:N179"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -10138,6 +10189,226 @@
         <v>20</v>
       </c>
       <c r="N174" t="s" s="226">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="175" ht="20.0" customHeight="true">
+      <c r="A175" t="s" s="227">
+        <v>563</v>
+      </c>
+      <c r="B175" t="s" s="227">
+        <v>20</v>
+      </c>
+      <c r="C175" t="s" s="227">
+        <v>216</v>
+      </c>
+      <c r="D175" t="s" s="227">
+        <v>22</v>
+      </c>
+      <c r="E175" t="s" s="227">
+        <v>22</v>
+      </c>
+      <c r="F175" t="s" s="227">
+        <v>23</v>
+      </c>
+      <c r="G175" t="s" s="227">
+        <v>217</v>
+      </c>
+      <c r="H175" t="s" s="227">
+        <v>25</v>
+      </c>
+      <c r="I175" t="s" s="227">
+        <v>26</v>
+      </c>
+      <c r="J175" t="s" s="227">
+        <v>20</v>
+      </c>
+      <c r="K175" t="s" s="227">
+        <v>20</v>
+      </c>
+      <c r="L175" t="s" s="227">
+        <v>27</v>
+      </c>
+      <c r="M175" t="s" s="227">
+        <v>20</v>
+      </c>
+      <c r="N175" t="s" s="227">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="176" ht="20.0" customHeight="true">
+      <c r="A176" t="s" s="228">
+        <v>564</v>
+      </c>
+      <c r="B176" t="s" s="228">
+        <v>20</v>
+      </c>
+      <c r="C176" t="s" s="228">
+        <v>565</v>
+      </c>
+      <c r="D176" t="s" s="228">
+        <v>22</v>
+      </c>
+      <c r="E176" t="s" s="228">
+        <v>22</v>
+      </c>
+      <c r="F176" t="s" s="228">
+        <v>23</v>
+      </c>
+      <c r="G176" t="s" s="228">
+        <v>566</v>
+      </c>
+      <c r="H176" t="s" s="228">
+        <v>25</v>
+      </c>
+      <c r="I176" t="s" s="228">
+        <v>26</v>
+      </c>
+      <c r="J176" t="s" s="228">
+        <v>20</v>
+      </c>
+      <c r="K176" t="s" s="228">
+        <v>20</v>
+      </c>
+      <c r="L176" t="s" s="228">
+        <v>27</v>
+      </c>
+      <c r="M176" t="s" s="228">
+        <v>20</v>
+      </c>
+      <c r="N176" t="s" s="228">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="177" ht="20.0" customHeight="true">
+      <c r="A177" t="s" s="229">
+        <v>567</v>
+      </c>
+      <c r="B177" t="s" s="229">
+        <v>20</v>
+      </c>
+      <c r="C177" t="s" s="229">
+        <v>568</v>
+      </c>
+      <c r="D177" t="s" s="229">
+        <v>22</v>
+      </c>
+      <c r="E177" t="s" s="229">
+        <v>22</v>
+      </c>
+      <c r="F177" t="s" s="229">
+        <v>23</v>
+      </c>
+      <c r="G177" t="s" s="229">
+        <v>569</v>
+      </c>
+      <c r="H177" t="s" s="229">
+        <v>25</v>
+      </c>
+      <c r="I177" t="s" s="229">
+        <v>26</v>
+      </c>
+      <c r="J177" t="s" s="229">
+        <v>20</v>
+      </c>
+      <c r="K177" t="s" s="229">
+        <v>20</v>
+      </c>
+      <c r="L177" t="s" s="229">
+        <v>27</v>
+      </c>
+      <c r="M177" t="s" s="229">
+        <v>20</v>
+      </c>
+      <c r="N177" t="s" s="229">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="178" ht="20.0" customHeight="true">
+      <c r="A178" t="s" s="230">
+        <v>570</v>
+      </c>
+      <c r="B178" t="s" s="230">
+        <v>20</v>
+      </c>
+      <c r="C178" t="s" s="230">
+        <v>571</v>
+      </c>
+      <c r="D178" t="s" s="230">
+        <v>22</v>
+      </c>
+      <c r="E178" t="s" s="230">
+        <v>22</v>
+      </c>
+      <c r="F178" t="s" s="230">
+        <v>23</v>
+      </c>
+      <c r="G178" t="s" s="230">
+        <v>355</v>
+      </c>
+      <c r="H178" t="s" s="230">
+        <v>25</v>
+      </c>
+      <c r="I178" t="s" s="230">
+        <v>26</v>
+      </c>
+      <c r="J178" t="s" s="230">
+        <v>20</v>
+      </c>
+      <c r="K178" t="s" s="230">
+        <v>20</v>
+      </c>
+      <c r="L178" t="s" s="230">
+        <v>27</v>
+      </c>
+      <c r="M178" t="s" s="230">
+        <v>20</v>
+      </c>
+      <c r="N178" t="s" s="230">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="179" ht="20.0" customHeight="true">
+      <c r="A179" t="s" s="231">
+        <v>572</v>
+      </c>
+      <c r="B179" t="s" s="231">
+        <v>20</v>
+      </c>
+      <c r="C179" t="s" s="231">
+        <v>573</v>
+      </c>
+      <c r="D179" t="s" s="231">
+        <v>22</v>
+      </c>
+      <c r="E179" t="s" s="231">
+        <v>22</v>
+      </c>
+      <c r="F179" t="s" s="231">
+        <v>23</v>
+      </c>
+      <c r="G179" t="s" s="231">
+        <v>574</v>
+      </c>
+      <c r="H179" t="s" s="231">
+        <v>25</v>
+      </c>
+      <c r="I179" t="s" s="231">
+        <v>26</v>
+      </c>
+      <c r="J179" t="s" s="231">
+        <v>20</v>
+      </c>
+      <c r="K179" t="s" s="231">
+        <v>20</v>
+      </c>
+      <c r="L179" t="s" s="231">
+        <v>27</v>
+      </c>
+      <c r="M179" t="s" s="231">
+        <v>20</v>
+      </c>
+      <c r="N179" t="s" s="231">
         <v>27</v>
       </c>
     </row>
